--- a/Jogos_da_Semana_FlashScore_2024-11-29.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-29.xlsx
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="H3" t="n">
         <v>3.4</v>
       </c>
       <c r="I3" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="J3" t="n">
         <v>3.4</v>
@@ -1120,7 +1120,7 @@
         <v>4.2</v>
       </c>
       <c r="J4" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K4" t="n">
         <v>2.2</v>
@@ -1162,7 +1162,7 @@
         <v>7.5</v>
       </c>
       <c r="X4" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Y4" t="n">
         <v>8.5</v>
@@ -1311,28 +1311,28 @@
         <v>4</v>
       </c>
       <c r="M5" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O5" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P5" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="R5" t="n">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="S5" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T5" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U5" t="n">
         <v>1.7</v>
@@ -1356,13 +1356,13 @@
         <v>15</v>
       </c>
       <c r="AB5" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD5" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE5" t="n">
         <v>13</v>
@@ -1410,7 +1410,7 @@
         <v>151</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU5" t="n">
         <v>8</v>
@@ -1714,7 +1714,7 @@
         <v>10</v>
       </c>
       <c r="Z7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA7" t="n">
         <v>23</v>
@@ -2223,16 +2223,16 @@
         <v>23</v>
       </c>
       <c r="O10" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="P10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="R10" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="S10" t="n">
         <v>1.18</v>
@@ -2387,7 +2387,7 @@
         <v>3.4</v>
       </c>
       <c r="I11" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="J11" t="n">
         <v>3.4</v>
@@ -2426,7 +2426,7 @@
         <v>1.7</v>
       </c>
       <c r="V11" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="W11" t="n">
         <v>9.5</v>
@@ -2450,7 +2450,7 @@
         <v>7.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AE11" t="n">
         <v>13.5</v>
@@ -2462,7 +2462,7 @@
         <v>450</v>
       </c>
       <c r="AH11" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AI11" t="n">
         <v>11.5</v>
@@ -2522,7 +2522,7 @@
         <v>50</v>
       </c>
       <c r="BB11" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="BC11" t="n">
         <v>250</v>
@@ -2745,22 +2745,22 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="H13" t="n">
-        <v>4.35</v>
+        <v>4.5</v>
       </c>
       <c r="I13" t="n">
-        <v>4.75</v>
+        <v>5.2</v>
       </c>
       <c r="J13" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="K13" t="n">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="L13" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="M13" t="n">
         <v>1.03</v>
@@ -2769,43 +2769,43 @@
         <v>9.25</v>
       </c>
       <c r="O13" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="P13" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R13" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="S13" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="T13" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="U13" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="V13" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="W13" t="n">
         <v>9.25</v>
       </c>
       <c r="X13" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="Y13" t="n">
         <v>8.25</v>
       </c>
       <c r="Z13" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="AA13" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AB13" t="n">
         <v>20</v>
@@ -2814,46 +2814,46 @@
         <v>9.25</v>
       </c>
       <c r="AD13" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AE13" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AF13" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AG13" t="n">
         <v>350</v>
       </c>
       <c r="AH13" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AI13" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AJ13" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AK13" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AL13" t="n">
+        <v>45</v>
+      </c>
+      <c r="AM13" t="n">
         <v>40</v>
       </c>
-      <c r="AM13" t="n">
-        <v>37</v>
-      </c>
       <c r="AN13" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="AO13" t="n">
-        <v>7.3</v>
+        <v>6.9</v>
       </c>
       <c r="AP13" t="n">
         <v>14.5</v>
       </c>
       <c r="AQ13" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AR13" t="n">
         <v>40</v>
@@ -2862,10 +2862,10 @@
         <v>150</v>
       </c>
       <c r="AT13" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="AU13" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AV13" t="n">
         <v>55</v>
@@ -2874,16 +2874,16 @@
         <v>81</v>
       </c>
       <c r="AX13" t="n">
-        <v>6.7</v>
+        <v>7.1</v>
       </c>
       <c r="AY13" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AZ13" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BA13" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="BB13" t="n">
         <v>150</v>
@@ -2927,13 +2927,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="H14" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="I14" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="J14" t="n">
         <v>3.25</v>
@@ -2948,13 +2948,13 @@
         <v>1.04</v>
       </c>
       <c r="N14" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="O14" t="n">
         <v>1.22</v>
       </c>
       <c r="P14" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="Q14" t="n">
         <v>1.65</v>
@@ -2969,16 +2969,16 @@
         <v>3.05</v>
       </c>
       <c r="U14" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="V14" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="W14" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="X14" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="Y14" t="n">
         <v>10.25</v>
@@ -2993,10 +2993,10 @@
         <v>26</v>
       </c>
       <c r="AC14" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AD14" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AE14" t="n">
         <v>12.5</v>
@@ -3017,22 +3017,22 @@
         <v>9</v>
       </c>
       <c r="AK14" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AL14" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AM14" t="n">
         <v>23</v>
       </c>
       <c r="AN14" t="n">
-        <v>4.85</v>
+        <v>4.9</v>
       </c>
       <c r="AO14" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AP14" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AQ14" t="n">
         <v>60</v>
@@ -3047,7 +3047,7 @@
         <v>3.05</v>
       </c>
       <c r="AU14" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AV14" t="n">
         <v>50</v>
@@ -3291,79 +3291,79 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.72</v>
+        <v>2.47</v>
       </c>
       <c r="H16" t="n">
-        <v>2.8</v>
+        <v>2.92</v>
       </c>
       <c r="I16" t="n">
-        <v>2.72</v>
+        <v>2.92</v>
       </c>
       <c r="J16" t="n">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="K16" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="L16" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="M16" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N16" t="n">
-        <v>7.1</v>
+        <v>7.6</v>
       </c>
       <c r="O16" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="P16" t="n">
-        <v>2.37</v>
+        <v>2.45</v>
       </c>
       <c r="Q16" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="T16" t="n">
         <v>2.32</v>
       </c>
-      <c r="R16" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T16" t="n">
-        <v>2.27</v>
-      </c>
       <c r="U16" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="V16" t="n">
         <v>1.72</v>
       </c>
       <c r="W16" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="X16" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>27</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>37</v>
+      </c>
+      <c r="AC16" t="n">
         <v>7</v>
       </c>
-      <c r="X16" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>32</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>27</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>40</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>6.6</v>
-      </c>
       <c r="AD16" t="n">
-        <v>5.5</v>
+        <v>5.7</v>
       </c>
       <c r="AE16" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AF16" t="n">
         <v>90</v>
@@ -3372,68 +3372,68 @@
         <v>900</v>
       </c>
       <c r="AH16" t="n">
-        <v>6.8</v>
+        <v>7.3</v>
       </c>
       <c r="AI16" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AJ16" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AK16" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AL16" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AM16" t="n">
         <v>45</v>
       </c>
       <c r="AN16" t="n">
-        <v>4.45</v>
+        <v>4.2</v>
       </c>
       <c r="AO16" t="n">
-        <v>15</v>
+        <v>13.5</v>
       </c>
       <c r="AP16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AQ16" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AR16" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AS16" t="n">
         <v>350</v>
       </c>
       <c r="AT16" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="AU16" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AV16" t="n">
         <v>75</v>
       </c>
       <c r="AW16" t="inlineStr"/>
       <c r="AX16" t="n">
-        <v>4.45</v>
+        <v>4.65</v>
       </c>
       <c r="AY16" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AZ16" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BA16" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="BB16" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="BC16" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="BD16" t="inlineStr"/>
     </row>
@@ -3469,22 +3469,22 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="H17" t="n">
-        <v>4.55</v>
+        <v>4.6</v>
       </c>
       <c r="I17" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="J17" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="K17" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="L17" t="n">
-        <v>7.1</v>
+        <v>7.6</v>
       </c>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
@@ -3495,10 +3495,10 @@
         <v>3.5</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R17" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="S17" t="n">
         <v>1.33</v>
@@ -3507,16 +3507,16 @@
         <v>3.04</v>
       </c>
       <c r="U17" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="V17" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="W17" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="X17" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="Y17" t="n">
         <v>8.5</v>
@@ -3525,10 +3525,10 @@
         <v>8.25</v>
       </c>
       <c r="AA17" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AB17" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AC17" t="n">
         <v>12</v>
@@ -3537,74 +3537,74 @@
         <v>9.25</v>
       </c>
       <c r="AE17" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>110</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH17" t="n">
         <v>21</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>100</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>900</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>22</v>
       </c>
       <c r="AI17" t="n">
         <v>60</v>
       </c>
       <c r="AJ17" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AK17" t="n">
         <v>250</v>
       </c>
       <c r="AL17" t="n">
+        <v>120</v>
+      </c>
+      <c r="AM17" t="n">
         <v>100</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>90</v>
       </c>
       <c r="AN17" t="n">
         <v>3.1</v>
       </c>
       <c r="AO17" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AP17" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AQ17" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AR17" t="n">
         <v>45</v>
       </c>
       <c r="AS17" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AT17" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="AU17" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AV17" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AW17" t="inlineStr"/>
       <c r="AX17" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AY17" t="n">
         <v>50</v>
       </c>
       <c r="AZ17" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="BA17" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="BB17" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="BC17" t="inlineStr"/>
       <c r="BD17" t="inlineStr"/>
@@ -3832,7 +3832,7 @@
         <v>1.6</v>
       </c>
       <c r="J19" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="K19" t="n">
         <v>2.5</v>
@@ -3841,10 +3841,10 @@
         <v>2.1</v>
       </c>
       <c r="M19" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N19" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O19" t="n">
         <v>1.17</v>
@@ -3865,16 +3865,16 @@
         <v>3.5</v>
       </c>
       <c r="U19" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V19" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W19" t="n">
         <v>17</v>
       </c>
       <c r="X19" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y19" t="n">
         <v>15</v>
@@ -4187,46 +4187,46 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="H21" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="I21" t="n">
+        <v>8</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L21" t="n">
         <v>7.5</v>
       </c>
-      <c r="J21" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="K21" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L21" t="n">
-        <v>7</v>
-      </c>
       <c r="M21" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O21" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P21" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="R21" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="S21" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T21" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U21" t="n">
         <v>2</v>
@@ -4253,13 +4253,13 @@
         <v>29</v>
       </c>
       <c r="AC21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD21" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF21" t="n">
         <v>51</v>
@@ -4268,7 +4268,7 @@
         <v>351</v>
       </c>
       <c r="AH21" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI21" t="n">
         <v>41</v>
@@ -4277,7 +4277,7 @@
         <v>23</v>
       </c>
       <c r="AK21" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AL21" t="n">
         <v>51</v>
@@ -4289,22 +4289,22 @@
         <v>3.25</v>
       </c>
       <c r="AO21" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AP21" t="n">
         <v>19</v>
       </c>
       <c r="AQ21" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AR21" t="n">
         <v>41</v>
       </c>
       <c r="AS21" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT21" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU21" t="n">
         <v>9.5</v>
@@ -4364,55 +4364,151 @@
           <t>Guabira</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr"/>
-      <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr"/>
-      <c r="V22" t="inlineStr"/>
-      <c r="W22" t="inlineStr"/>
-      <c r="X22" t="inlineStr"/>
-      <c r="Y22" t="inlineStr"/>
-      <c r="Z22" t="inlineStr"/>
-      <c r="AA22" t="inlineStr"/>
-      <c r="AB22" t="inlineStr"/>
-      <c r="AC22" t="inlineStr"/>
-      <c r="AD22" t="inlineStr"/>
-      <c r="AE22" t="inlineStr"/>
-      <c r="AF22" t="inlineStr"/>
-      <c r="AG22" t="inlineStr"/>
-      <c r="AH22" t="inlineStr"/>
-      <c r="AI22" t="inlineStr"/>
-      <c r="AJ22" t="inlineStr"/>
-      <c r="AK22" t="inlineStr"/>
-      <c r="AL22" t="inlineStr"/>
-      <c r="AM22" t="inlineStr"/>
-      <c r="AN22" t="inlineStr"/>
-      <c r="AO22" t="inlineStr"/>
-      <c r="AP22" t="inlineStr"/>
-      <c r="AQ22" t="inlineStr"/>
-      <c r="AR22" t="inlineStr"/>
-      <c r="AS22" t="inlineStr"/>
-      <c r="AT22" t="inlineStr"/>
-      <c r="AU22" t="inlineStr"/>
-      <c r="AV22" t="inlineStr"/>
+      <c r="G22" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="H22" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="I22" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2</v>
+      </c>
+      <c r="K22" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L22" t="n">
+        <v>6</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N22" t="n">
+        <v>13</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P22" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R22" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T22" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W22" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X22" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>51</v>
+      </c>
       <c r="AW22" t="inlineStr"/>
-      <c r="AX22" t="inlineStr"/>
-      <c r="AY22" t="inlineStr"/>
-      <c r="AZ22" t="inlineStr"/>
-      <c r="BA22" t="inlineStr"/>
-      <c r="BB22" t="inlineStr"/>
-      <c r="BC22" t="inlineStr"/>
+      <c r="AX22" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>126</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>251</v>
+      </c>
       <c r="BD22" t="inlineStr"/>
     </row>
     <row r="23">
@@ -4459,10 +4555,10 @@
         <v>3.25</v>
       </c>
       <c r="K23" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L23" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M23" t="n">
         <v>1.08</v>
@@ -4471,31 +4567,31 @@
         <v>8</v>
       </c>
       <c r="O23" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P23" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="R23" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S23" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T23" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="U23" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V23" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W23" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X23" t="n">
         <v>11</v>
@@ -4507,7 +4603,7 @@
         <v>23</v>
       </c>
       <c r="AA23" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB23" t="n">
         <v>34</v>
@@ -4519,10 +4615,10 @@
         <v>6.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF23" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG23" t="n">
         <v>351</v>
@@ -4552,7 +4648,7 @@
         <v>15</v>
       </c>
       <c r="AP23" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ23" t="n">
         <v>51</v>
@@ -4561,10 +4657,10 @@
         <v>81</v>
       </c>
       <c r="AS23" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT23" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AU23" t="n">
         <v>8.5</v>
@@ -4586,7 +4682,7 @@
         <v>51</v>
       </c>
       <c r="BB23" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BC23" t="n">
         <v>251</v>
@@ -4801,13 +4897,13 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H25" t="n">
         <v>2.88</v>
       </c>
       <c r="I25" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J25" t="n">
         <v>3.1</v>
@@ -4816,7 +4912,7 @@
         <v>1.91</v>
       </c>
       <c r="L25" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M25" t="n">
         <v>1.13</v>
@@ -4849,10 +4945,10 @@
         <v>1.62</v>
       </c>
       <c r="W25" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X25" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Y25" t="n">
         <v>10</v>
@@ -4886,13 +4982,13 @@
         <v>17</v>
       </c>
       <c r="AJ25" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK25" t="n">
         <v>41</v>
       </c>
       <c r="AL25" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM25" t="n">
         <v>51</v>
@@ -4928,13 +5024,13 @@
         <v>126</v>
       </c>
       <c r="AX25" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AY25" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ25" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BA25" t="n">
         <v>81</v>
@@ -4981,13 +5077,13 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H26" t="n">
         <v>3.1</v>
       </c>
       <c r="I26" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="J26" t="n">
         <v>2.88</v>
@@ -4999,28 +5095,28 @@
         <v>4.33</v>
       </c>
       <c r="M26" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N26" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="O26" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P26" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="R26" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S26" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T26" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="U26" t="n">
         <v>2</v>
@@ -5029,7 +5125,7 @@
         <v>1.73</v>
       </c>
       <c r="W26" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X26" t="n">
         <v>9</v>
@@ -5041,13 +5137,13 @@
         <v>19</v>
       </c>
       <c r="AA26" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB26" t="n">
         <v>34</v>
       </c>
       <c r="AC26" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD26" t="n">
         <v>6</v>
@@ -5056,16 +5152,16 @@
         <v>17</v>
       </c>
       <c r="AF26" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG26" t="n">
         <v>1000</v>
       </c>
       <c r="AH26" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI26" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ26" t="n">
         <v>13</v>
@@ -5095,10 +5191,10 @@
         <v>67</v>
       </c>
       <c r="AS26" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT26" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AU26" t="n">
         <v>9</v>
@@ -5163,28 +5259,28 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="H27" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I27" t="n">
-        <v>5.75</v>
+        <v>5</v>
       </c>
       <c r="J27" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="K27" t="n">
         <v>2.1</v>
       </c>
       <c r="L27" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M27" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N27" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="O27" t="n">
         <v>1.36</v>
@@ -5193,10 +5289,10 @@
         <v>3</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R27" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S27" t="n">
         <v>1.44</v>
@@ -5205,37 +5301,37 @@
         <v>2.63</v>
       </c>
       <c r="U27" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="V27" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="W27" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X27" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="Y27" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA27" t="n">
         <v>15</v>
       </c>
       <c r="AB27" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC27" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD27" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE27" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF27" t="n">
         <v>67</v>
@@ -5247,28 +5343,28 @@
         <v>12</v>
       </c>
       <c r="AI27" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AJ27" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK27" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AL27" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM27" t="n">
         <v>51</v>
       </c>
       <c r="AN27" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AO27" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AP27" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ27" t="n">
         <v>29</v>
@@ -5277,13 +5373,13 @@
         <v>51</v>
       </c>
       <c r="AS27" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT27" t="n">
         <v>2.63</v>
       </c>
       <c r="AU27" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV27" t="n">
         <v>67</v>
@@ -5292,22 +5388,22 @@
         <v>81</v>
       </c>
       <c r="AX27" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AY27" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ27" t="n">
         <v>41</v>
       </c>
       <c r="BA27" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB27" t="n">
         <v>151</v>
       </c>
       <c r="BC27" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BD27" t="n">
         <v>81</v>
@@ -5360,7 +5456,7 @@
         <v>2.63</v>
       </c>
       <c r="L28" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M28" t="n">
         <v>1.02</v>
@@ -5381,22 +5477,22 @@
         <v>2.6</v>
       </c>
       <c r="S28" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="T28" t="n">
         <v>3.75</v>
       </c>
       <c r="U28" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="V28" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="W28" t="n">
         <v>10</v>
       </c>
       <c r="X28" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y28" t="n">
         <v>8.5</v>
@@ -5426,7 +5522,7 @@
         <v>151</v>
       </c>
       <c r="AH28" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI28" t="n">
         <v>41</v>
@@ -5435,7 +5531,7 @@
         <v>21</v>
       </c>
       <c r="AK28" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AL28" t="n">
         <v>41</v>
@@ -5468,7 +5564,7 @@
         <v>8</v>
       </c>
       <c r="AV28" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW28" t="n">
         <v>451</v>
@@ -5483,13 +5579,13 @@
         <v>34</v>
       </c>
       <c r="BA28" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB28" t="n">
         <v>101</v>
       </c>
       <c r="BC28" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BD28" t="n">
         <v>151</v>
@@ -5563,7 +5659,7 @@
         <v>2.03</v>
       </c>
       <c r="S29" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T29" t="n">
         <v>3</v>
@@ -5745,7 +5841,7 @@
         <v>1.67</v>
       </c>
       <c r="S30" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="T30" t="n">
         <v>2.5</v>
@@ -5927,7 +6023,7 @@
         <v>1.67</v>
       </c>
       <c r="S31" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="T31" t="n">
         <v>2.5</v>
@@ -6103,10 +6199,10 @@
         <v>5.5</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R32" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="S32" t="n">
         <v>1.29</v>
@@ -6437,55 +6533,55 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="H34" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I34" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="J34" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K34" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L34" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M34" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N34" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O34" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P34" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R34" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S34" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T34" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U34" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V34" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W34" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X34" t="n">
         <v>10</v>
@@ -6494,22 +6590,22 @@
         <v>8.5</v>
       </c>
       <c r="Z34" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA34" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB34" t="n">
         <v>21</v>
       </c>
       <c r="AC34" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE34" t="n">
         <v>13</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>12</v>
       </c>
       <c r="AF34" t="n">
         <v>41</v>
@@ -6518,10 +6614,10 @@
         <v>151</v>
       </c>
       <c r="AH34" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI34" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ34" t="n">
         <v>13</v>
@@ -6539,22 +6635,22 @@
         <v>4</v>
       </c>
       <c r="AO34" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AP34" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ34" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR34" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS34" t="n">
         <v>101</v>
       </c>
       <c r="AT34" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU34" t="n">
         <v>7.5</v>
@@ -6566,16 +6662,16 @@
         <v>81</v>
       </c>
       <c r="AX34" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AY34" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ34" t="n">
         <v>23</v>
       </c>
       <c r="BA34" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB34" t="n">
         <v>67</v>
@@ -6628,7 +6724,7 @@
         <v>2.2</v>
       </c>
       <c r="J35" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K35" t="n">
         <v>2.3</v>
@@ -6661,10 +6757,10 @@
         <v>3.25</v>
       </c>
       <c r="U35" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="V35" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="W35" t="n">
         <v>13</v>
@@ -6679,7 +6775,7 @@
         <v>34</v>
       </c>
       <c r="AA35" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB35" t="n">
         <v>26</v>
@@ -6691,10 +6787,10 @@
         <v>6.5</v>
       </c>
       <c r="AE35" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF35" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG35" t="n">
         <v>126</v>
@@ -6703,7 +6799,7 @@
         <v>10</v>
       </c>
       <c r="AI35" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ35" t="n">
         <v>9.5</v>
@@ -6715,7 +6811,7 @@
         <v>17</v>
       </c>
       <c r="AM35" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN35" t="n">
         <v>5</v>
@@ -6730,7 +6826,7 @@
         <v>51</v>
       </c>
       <c r="AR35" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS35" t="n">
         <v>126</v>
@@ -6761,7 +6857,7 @@
         <v>51</v>
       </c>
       <c r="BC35" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BD35" t="inlineStr"/>
     </row>
@@ -6800,7 +6896,7 @@
         <v>3</v>
       </c>
       <c r="H36" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I36" t="n">
         <v>2.25</v>
@@ -6809,40 +6905,40 @@
         <v>3.4</v>
       </c>
       <c r="K36" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L36" t="n">
         <v>2.88</v>
       </c>
       <c r="M36" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N36" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O36" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P36" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="R36" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S36" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T36" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U36" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V36" t="n">
         <v>2.25</v>
-      </c>
-      <c r="S36" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T36" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U36" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V36" t="n">
-        <v>2.5</v>
       </c>
       <c r="W36" t="n">
         <v>13</v>
@@ -6857,13 +6953,13 @@
         <v>34</v>
       </c>
       <c r="AA36" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB36" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC36" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD36" t="n">
         <v>6.5</v>
@@ -6875,10 +6971,10 @@
         <v>34</v>
       </c>
       <c r="AG36" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AH36" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI36" t="n">
         <v>13</v>
@@ -6893,7 +6989,7 @@
         <v>17</v>
       </c>
       <c r="AM36" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN36" t="n">
         <v>5</v>
@@ -6905,19 +7001,19 @@
         <v>21</v>
       </c>
       <c r="AQ36" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR36" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS36" t="n">
         <v>126</v>
       </c>
       <c r="AT36" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AU36" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV36" t="n">
         <v>41</v>
@@ -6941,7 +7037,7 @@
         <v>51</v>
       </c>
       <c r="BC36" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BD36" t="inlineStr"/>
     </row>
@@ -6977,16 +7073,16 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="H37" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I37" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J37" t="n">
         <v>3.2</v>
-      </c>
-      <c r="I37" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="J37" t="n">
-        <v>3.4</v>
       </c>
       <c r="K37" t="n">
         <v>2.1</v>
@@ -6995,37 +7091,37 @@
         <v>3.25</v>
       </c>
       <c r="M37" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N37" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O37" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P37" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q37" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="R37" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S37" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T37" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U37" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="V37" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W37" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X37" t="n">
         <v>13</v>
@@ -7040,34 +7136,34 @@
         <v>21</v>
       </c>
       <c r="AB37" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC37" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD37" t="n">
         <v>6.5</v>
       </c>
       <c r="AE37" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF37" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG37" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH37" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI37" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ37" t="n">
         <v>10</v>
       </c>
       <c r="AK37" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL37" t="n">
         <v>21</v>
@@ -7076,13 +7172,13 @@
         <v>29</v>
       </c>
       <c r="AN37" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AO37" t="n">
         <v>15</v>
       </c>
       <c r="AP37" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ37" t="n">
         <v>51</v>
@@ -7091,10 +7187,10 @@
         <v>67</v>
       </c>
       <c r="AS37" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT37" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU37" t="n">
         <v>8</v>
@@ -7104,7 +7200,7 @@
       </c>
       <c r="AW37" t="inlineStr"/>
       <c r="AX37" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AY37" t="n">
         <v>15</v>
@@ -7173,10 +7269,10 @@
         <v>2.6</v>
       </c>
       <c r="M38" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N38" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O38" t="n">
         <v>1.29</v>
@@ -7518,55 +7614,151 @@
           <t>IR Tanger</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="inlineStr"/>
-      <c r="T40" t="inlineStr"/>
-      <c r="U40" t="inlineStr"/>
-      <c r="V40" t="inlineStr"/>
-      <c r="W40" t="inlineStr"/>
-      <c r="X40" t="inlineStr"/>
-      <c r="Y40" t="inlineStr"/>
-      <c r="Z40" t="inlineStr"/>
-      <c r="AA40" t="inlineStr"/>
-      <c r="AB40" t="inlineStr"/>
-      <c r="AC40" t="inlineStr"/>
-      <c r="AD40" t="inlineStr"/>
-      <c r="AE40" t="inlineStr"/>
-      <c r="AF40" t="inlineStr"/>
-      <c r="AG40" t="inlineStr"/>
-      <c r="AH40" t="inlineStr"/>
-      <c r="AI40" t="inlineStr"/>
-      <c r="AJ40" t="inlineStr"/>
-      <c r="AK40" t="inlineStr"/>
-      <c r="AL40" t="inlineStr"/>
-      <c r="AM40" t="inlineStr"/>
-      <c r="AN40" t="inlineStr"/>
-      <c r="AO40" t="inlineStr"/>
-      <c r="AP40" t="inlineStr"/>
-      <c r="AQ40" t="inlineStr"/>
-      <c r="AR40" t="inlineStr"/>
-      <c r="AS40" t="inlineStr"/>
-      <c r="AT40" t="inlineStr"/>
-      <c r="AU40" t="inlineStr"/>
-      <c r="AV40" t="inlineStr"/>
+      <c r="G40" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H40" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I40" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J40" t="n">
+        <v>3</v>
+      </c>
+      <c r="K40" t="n">
+        <v>2</v>
+      </c>
+      <c r="L40" t="n">
+        <v>4</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N40" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O40" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P40" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R40" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S40" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T40" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U40" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V40" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W40" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X40" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>800</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP40" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR40" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS40" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT40" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU40" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV40" t="n">
+        <v>67</v>
+      </c>
       <c r="AW40" t="inlineStr"/>
-      <c r="AX40" t="inlineStr"/>
-      <c r="AY40" t="inlineStr"/>
-      <c r="AZ40" t="inlineStr"/>
-      <c r="BA40" t="inlineStr"/>
-      <c r="BB40" t="inlineStr"/>
-      <c r="BC40" t="inlineStr"/>
+      <c r="AX40" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AY40" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ40" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA40" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB40" t="n">
+        <v>101</v>
+      </c>
+      <c r="BC40" t="n">
+        <v>301</v>
+      </c>
       <c r="BD40" t="inlineStr"/>
     </row>
     <row r="41">
@@ -7600,54 +7792,148 @@
           <t>Olympique de Safi</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr"/>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="inlineStr"/>
-      <c r="T41" t="inlineStr"/>
-      <c r="U41" t="inlineStr"/>
-      <c r="V41" t="inlineStr"/>
-      <c r="W41" t="inlineStr"/>
-      <c r="X41" t="inlineStr"/>
-      <c r="Y41" t="inlineStr"/>
-      <c r="Z41" t="inlineStr"/>
-      <c r="AA41" t="inlineStr"/>
-      <c r="AB41" t="inlineStr"/>
-      <c r="AC41" t="inlineStr"/>
-      <c r="AD41" t="inlineStr"/>
-      <c r="AE41" t="inlineStr"/>
-      <c r="AF41" t="inlineStr"/>
-      <c r="AG41" t="inlineStr"/>
-      <c r="AH41" t="inlineStr"/>
-      <c r="AI41" t="inlineStr"/>
-      <c r="AJ41" t="inlineStr"/>
-      <c r="AK41" t="inlineStr"/>
-      <c r="AL41" t="inlineStr"/>
-      <c r="AM41" t="inlineStr"/>
-      <c r="AN41" t="inlineStr"/>
-      <c r="AO41" t="inlineStr"/>
-      <c r="AP41" t="inlineStr"/>
-      <c r="AQ41" t="inlineStr"/>
-      <c r="AR41" t="inlineStr"/>
-      <c r="AS41" t="inlineStr"/>
-      <c r="AT41" t="inlineStr"/>
-      <c r="AU41" t="inlineStr"/>
-      <c r="AV41" t="inlineStr"/>
+      <c r="G41" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="H41" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I41" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J41" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K41" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L41" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N41" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P41" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R41" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S41" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T41" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U41" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V41" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W41" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X41" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP41" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ41" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR41" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS41" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT41" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU41" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV41" t="n">
+        <v>81</v>
+      </c>
       <c r="AW41" t="inlineStr"/>
-      <c r="AX41" t="inlineStr"/>
-      <c r="AY41" t="inlineStr"/>
-      <c r="AZ41" t="inlineStr"/>
-      <c r="BA41" t="inlineStr"/>
-      <c r="BB41" t="inlineStr"/>
+      <c r="AX41" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AY41" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ41" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA41" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB41" t="n">
+        <v>201</v>
+      </c>
       <c r="BC41" t="inlineStr"/>
       <c r="BD41" t="inlineStr"/>
     </row>
@@ -7713,10 +7999,10 @@
         <v>4.33</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R42" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S42" t="n">
         <v>1.33</v>
@@ -7865,19 +8151,19 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="H43" t="n">
         <v>4.5</v>
       </c>
       <c r="I43" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J43" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="K43" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="L43" t="n">
         <v>5</v>
@@ -7886,7 +8172,7 @@
         <v>1.02</v>
       </c>
       <c r="N43" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O43" t="n">
         <v>1.13</v>
@@ -7916,13 +8202,13 @@
         <v>11</v>
       </c>
       <c r="X43" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y43" t="n">
         <v>8.5</v>
       </c>
       <c r="Z43" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA43" t="n">
         <v>11</v>
@@ -7940,7 +8226,7 @@
         <v>13</v>
       </c>
       <c r="AF43" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG43" t="n">
         <v>101</v>
@@ -7994,16 +8280,16 @@
         <v>301</v>
       </c>
       <c r="AX43" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AY43" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ43" t="n">
         <v>26</v>
       </c>
       <c r="BA43" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB43" t="n">
         <v>81</v>
@@ -8062,7 +8348,7 @@
         <v>2.88</v>
       </c>
       <c r="L44" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M44" t="n">
         <v>1.01</v>
@@ -8083,10 +8369,10 @@
         <v>3.4</v>
       </c>
       <c r="S44" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="T44" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="U44" t="n">
         <v>1.5</v>
@@ -8101,10 +8387,10 @@
         <v>10</v>
       </c>
       <c r="Y44" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z44" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA44" t="n">
         <v>10</v>
@@ -8113,7 +8399,7 @@
         <v>17</v>
       </c>
       <c r="AC44" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AD44" t="n">
         <v>12</v>
@@ -8128,13 +8414,13 @@
         <v>101</v>
       </c>
       <c r="AH44" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI44" t="n">
         <v>41</v>
       </c>
       <c r="AJ44" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK44" t="n">
         <v>67</v>
@@ -8164,7 +8450,7 @@
         <v>67</v>
       </c>
       <c r="AT44" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AU44" t="n">
         <v>7.5</v>
@@ -8250,7 +8536,7 @@
         <v>1.02</v>
       </c>
       <c r="N45" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O45" t="n">
         <v>1.13</v>
@@ -8593,13 +8879,13 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="H47" t="n">
         <v>3.6</v>
       </c>
       <c r="I47" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="J47" t="n">
         <v>3</v>
@@ -8608,7 +8894,7 @@
         <v>2.3</v>
       </c>
       <c r="L47" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M47" t="n">
         <v>1.03</v>
@@ -8659,10 +8945,10 @@
         <v>23</v>
       </c>
       <c r="AC47" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD47" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE47" t="n">
         <v>12</v>
@@ -8683,13 +8969,13 @@
         <v>10</v>
       </c>
       <c r="AK47" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM47" t="n">
         <v>26</v>
-      </c>
-      <c r="AL47" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM47" t="n">
-        <v>23</v>
       </c>
       <c r="AN47" t="n">
         <v>4.75</v>
@@ -8698,7 +8984,7 @@
         <v>13</v>
       </c>
       <c r="AP47" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ47" t="n">
         <v>41</v>
@@ -8713,7 +8999,7 @@
         <v>3.25</v>
       </c>
       <c r="AU47" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV47" t="n">
         <v>41</v>
@@ -8725,7 +9011,7 @@
         <v>5</v>
       </c>
       <c r="AY47" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ47" t="n">
         <v>21</v>
@@ -8775,28 +9061,28 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H48" t="n">
         <v>3</v>
       </c>
       <c r="I48" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="J48" t="n">
         <v>3.75</v>
       </c>
       <c r="K48" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L48" t="n">
         <v>3.2</v>
       </c>
       <c r="M48" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N48" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="O48" t="n">
         <v>1.4</v>
@@ -8805,25 +9091,25 @@
         <v>2.75</v>
       </c>
       <c r="Q48" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="R48" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S48" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T48" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="U48" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V48" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W48" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X48" t="n">
         <v>15</v>
@@ -8841,13 +9127,13 @@
         <v>41</v>
       </c>
       <c r="AC48" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD48" t="n">
         <v>6</v>
       </c>
       <c r="AE48" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF48" t="n">
         <v>51</v>
@@ -8892,7 +9178,7 @@
         <v>251</v>
       </c>
       <c r="AT48" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AU48" t="n">
         <v>8.5</v>
@@ -8908,7 +9194,7 @@
         <v>15</v>
       </c>
       <c r="AZ48" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BA48" t="n">
         <v>51</v>
@@ -8917,7 +9203,7 @@
         <v>81</v>
       </c>
       <c r="BC48" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BD48" t="inlineStr"/>
     </row>
@@ -8953,7 +9239,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="H49" t="n">
         <v>3.1</v>
@@ -8971,10 +9257,10 @@
         <v>3.75</v>
       </c>
       <c r="M49" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N49" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O49" t="n">
         <v>1.4</v>
@@ -9019,13 +9305,13 @@
         <v>34</v>
       </c>
       <c r="AC49" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD49" t="n">
         <v>6</v>
       </c>
       <c r="AE49" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF49" t="n">
         <v>51</v>
@@ -9037,13 +9323,13 @@
         <v>8</v>
       </c>
       <c r="AI49" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ49" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK49" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL49" t="n">
         <v>26</v>
@@ -9131,7 +9417,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="H50" t="n">
         <v>3.1</v>
@@ -9173,13 +9459,13 @@
         <v>2.25</v>
       </c>
       <c r="U50" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V50" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W50" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X50" t="n">
         <v>10</v>
@@ -9197,7 +9483,7 @@
         <v>41</v>
       </c>
       <c r="AC50" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD50" t="n">
         <v>6</v>
@@ -9206,7 +9492,7 @@
         <v>19</v>
       </c>
       <c r="AF50" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG50" t="n">
         <v>101</v>
@@ -9254,7 +9540,7 @@
         <v>9</v>
       </c>
       <c r="AV50" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW50" t="inlineStr"/>
       <c r="AX50" t="n">
@@ -9273,7 +9559,7 @@
         <v>101</v>
       </c>
       <c r="BC50" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BD50" t="inlineStr"/>
     </row>
@@ -9309,22 +9595,22 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H51" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I51" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="J51" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K51" t="n">
         <v>2.3</v>
       </c>
       <c r="L51" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M51" t="n">
         <v>1.04</v>
@@ -9366,10 +9652,10 @@
         <v>8.5</v>
       </c>
       <c r="Z51" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA51" t="n">
         <v>15</v>
-      </c>
-      <c r="AA51" t="n">
-        <v>13</v>
       </c>
       <c r="AB51" t="n">
         <v>21</v>
@@ -9381,7 +9667,7 @@
         <v>7</v>
       </c>
       <c r="AE51" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF51" t="n">
         <v>41</v>
@@ -9390,10 +9676,10 @@
         <v>151</v>
       </c>
       <c r="AH51" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI51" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ51" t="n">
         <v>13</v>
@@ -9411,19 +9697,19 @@
         <v>4</v>
       </c>
       <c r="AO51" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP51" t="n">
         <v>19</v>
       </c>
       <c r="AQ51" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR51" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS51" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT51" t="n">
         <v>3.25</v>
@@ -9694,19 +9980,19 @@
         <v>1.06</v>
       </c>
       <c r="N53" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O53" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="P53" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q53" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="R53" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="S53" t="n">
         <v>1.44</v>
@@ -9778,7 +10064,7 @@
         <v>15</v>
       </c>
       <c r="AP53" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ53" t="n">
         <v>51</v>
@@ -9808,7 +10094,7 @@
         <v>15</v>
       </c>
       <c r="AZ53" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BA53" t="n">
         <v>51</v>
@@ -10037,7 +10323,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H55" t="n">
         <v>3.2</v>
@@ -10049,10 +10335,10 @@
         <v>3.25</v>
       </c>
       <c r="K55" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L55" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M55" t="n">
         <v>1.08</v>
@@ -10073,16 +10359,16 @@
         <v>1.57</v>
       </c>
       <c r="S55" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T55" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="U55" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V55" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W55" t="n">
         <v>7</v>
@@ -10112,7 +10398,7 @@
         <v>17</v>
       </c>
       <c r="AF55" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG55" t="n">
         <v>401</v>
@@ -10136,7 +10422,7 @@
         <v>41</v>
       </c>
       <c r="AN55" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO55" t="n">
         <v>15</v>
@@ -10154,7 +10440,7 @@
         <v>251</v>
       </c>
       <c r="AT55" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AU55" t="n">
         <v>8.5</v>
@@ -10237,10 +10523,10 @@
         <v>4</v>
       </c>
       <c r="M56" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N56" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O56" t="n">
         <v>1.44</v>
@@ -10401,28 +10687,28 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="H57" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="I57" t="n">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="J57" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="K57" t="n">
         <v>2.2</v>
       </c>
       <c r="L57" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M57" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N57" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O57" t="n">
         <v>1.29</v>
@@ -10431,10 +10717,10 @@
         <v>3.5</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R57" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S57" t="n">
         <v>1.4</v>
@@ -10443,22 +10729,22 @@
         <v>2.75</v>
       </c>
       <c r="U57" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V57" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="W57" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X57" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Y57" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z57" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA57" t="n">
         <v>13</v>
@@ -10470,22 +10756,22 @@
         <v>11</v>
       </c>
       <c r="AD57" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE57" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF57" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG57" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AH57" t="n">
         <v>13</v>
       </c>
       <c r="AI57" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ57" t="n">
         <v>17</v>
@@ -10500,16 +10786,16 @@
         <v>41</v>
       </c>
       <c r="AN57" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO57" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AP57" t="n">
         <v>21</v>
       </c>
       <c r="AQ57" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AR57" t="n">
         <v>51</v>
@@ -10521,28 +10807,28 @@
         <v>2.75</v>
       </c>
       <c r="AU57" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV57" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW57" t="n">
         <v>81</v>
       </c>
       <c r="AX57" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AY57" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ57" t="n">
         <v>34</v>
       </c>
-      <c r="AZ57" t="n">
-        <v>41</v>
-      </c>
       <c r="BA57" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB57" t="n">
         <v>126</v>
-      </c>
-      <c r="BB57" t="n">
-        <v>151</v>
       </c>
       <c r="BC57" t="n">
         <v>500</v>
@@ -10601,16 +10887,16 @@
         <v>7.5</v>
       </c>
       <c r="M58" t="n">
-        <v>19</v>
+        <v>1.02</v>
       </c>
       <c r="N58" t="n">
-        <v>1.03</v>
+        <v>11</v>
       </c>
       <c r="O58" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P58" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q58" t="n">
         <v>1.44</v>
@@ -10765,19 +11051,19 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="H59" t="n">
         <v>5.75</v>
       </c>
       <c r="I59" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="J59" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="K59" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="L59" t="n">
         <v>8</v>
@@ -10795,10 +11081,10 @@
         <v>5</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="R59" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="S59" t="n">
         <v>1.25</v>
@@ -10807,16 +11093,16 @@
         <v>3.75</v>
       </c>
       <c r="U59" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V59" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W59" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X59" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y59" t="n">
         <v>9.5</v>
@@ -10828,10 +11114,10 @@
         <v>11</v>
       </c>
       <c r="AB59" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC59" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD59" t="n">
         <v>12</v>
@@ -10840,13 +11126,13 @@
         <v>23</v>
       </c>
       <c r="AF59" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG59" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AH59" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AI59" t="n">
         <v>51</v>
@@ -10858,13 +11144,13 @@
         <v>101</v>
       </c>
       <c r="AL59" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AM59" t="n">
         <v>51</v>
       </c>
       <c r="AN59" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AO59" t="n">
         <v>5.5</v>
@@ -10879,13 +11165,13 @@
         <v>34</v>
       </c>
       <c r="AS59" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT59" t="n">
         <v>3.75</v>
       </c>
       <c r="AU59" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV59" t="n">
         <v>51</v>
@@ -10947,22 +11233,22 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="H60" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I60" t="n">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="J60" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K60" t="n">
         <v>2.07</v>
       </c>
       <c r="L60" t="n">
-        <v>2.82</v>
+        <v>2.77</v>
       </c>
       <c r="M60" t="n">
         <v>1.06</v>
@@ -10983,28 +11269,28 @@
         <v>1.85</v>
       </c>
       <c r="S60" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="T60" t="n">
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="U60" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="V60" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="W60" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="X60" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y60" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="Z60" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AA60" t="n">
         <v>27</v>
@@ -11028,25 +11314,25 @@
         <v>400</v>
       </c>
       <c r="AH60" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="AI60" t="n">
-        <v>11.5</v>
+        <v>10.75</v>
       </c>
       <c r="AJ60" t="n">
         <v>8.75</v>
       </c>
       <c r="AK60" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL60" t="n">
         <v>17</v>
       </c>
       <c r="AM60" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AN60" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="AO60" t="n">
         <v>17.5</v>
@@ -11064,29 +11350,29 @@
         <v>300</v>
       </c>
       <c r="AT60" t="n">
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="AU60" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AV60" t="n">
         <v>60</v>
       </c>
       <c r="AW60" t="inlineStr"/>
       <c r="AX60" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="AY60" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AZ60" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="BA60" t="n">
         <v>45</v>
       </c>
       <c r="BB60" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="BC60" t="n">
         <v>250</v>
@@ -11125,143 +11411,143 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.47</v>
+        <v>1.57</v>
       </c>
       <c r="H61" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="I61" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="J61" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="K61" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="L61" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N61" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="O61" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="P61" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R61" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="S61" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="T61" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="U61" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V61" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="W61" t="n">
         <v>5.8</v>
       </c>
-      <c r="J61" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="K61" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="L61" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="M61" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N61" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="O61" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="P61" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="Q61" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="R61" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="S61" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="T61" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="U61" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="V61" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="W61" t="n">
-        <v>6.6</v>
-      </c>
       <c r="X61" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="Y61" t="n">
         <v>8.25</v>
       </c>
       <c r="Z61" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA61" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AB61" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AC61" t="n">
-        <v>7.8</v>
+        <v>6.9</v>
       </c>
       <c r="AD61" t="n">
-        <v>8</v>
+        <v>7.2</v>
       </c>
       <c r="AE61" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AF61" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AG61" t="n">
         <v>800</v>
       </c>
       <c r="AH61" t="n">
-        <v>15.5</v>
+        <v>12.5</v>
       </c>
       <c r="AI61" t="n">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="AJ61" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AK61" t="n">
+        <v>110</v>
+      </c>
+      <c r="AL61" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM61" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN61" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AO61" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AP61" t="n">
         <v>19</v>
       </c>
-      <c r="AK61" t="n">
-        <v>120</v>
-      </c>
-      <c r="AL61" t="n">
+      <c r="AQ61" t="n">
+        <v>25</v>
+      </c>
+      <c r="AR61" t="n">
         <v>65</v>
       </c>
-      <c r="AM61" t="n">
-        <v>65</v>
-      </c>
-      <c r="AN61" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AO61" t="n">
-        <v>7</v>
-      </c>
-      <c r="AP61" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AQ61" t="n">
-        <v>22</v>
-      </c>
-      <c r="AR61" t="n">
-        <v>55</v>
-      </c>
       <c r="AS61" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AT61" t="n">
-        <v>2.82</v>
+        <v>2.67</v>
       </c>
       <c r="AU61" t="n">
         <v>8.25</v>
       </c>
       <c r="AV61" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AW61" t="inlineStr"/>
       <c r="AX61" t="n">
-        <v>7.3</v>
+        <v>6.9</v>
       </c>
       <c r="AY61" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AZ61" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="BA61" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="BB61" t="n">
         <v>250</v>
@@ -11303,79 +11589,79 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>3.9</v>
+        <v>4.5</v>
       </c>
       <c r="H62" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I62" t="n">
-        <v>1.85</v>
+        <v>1.7</v>
       </c>
       <c r="J62" t="n">
-        <v>4.4</v>
+        <v>4.9</v>
       </c>
       <c r="K62" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="L62" t="n">
-        <v>2.42</v>
+        <v>2.27</v>
       </c>
       <c r="M62" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N62" t="n">
-        <v>6.7</v>
+        <v>7.2</v>
       </c>
       <c r="O62" t="n">
-        <v>1.35</v>
+        <v>1.31</v>
       </c>
       <c r="P62" t="n">
-        <v>2.95</v>
+        <v>3.15</v>
       </c>
       <c r="Q62" t="n">
-        <v>2.02</v>
+        <v>1.91</v>
       </c>
       <c r="R62" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="S62" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="T62" t="n">
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="U62" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="V62" t="n">
         <v>1.83</v>
       </c>
       <c r="W62" t="n">
-        <v>10</v>
+        <v>11.75</v>
       </c>
       <c r="X62" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="Y62" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="Z62" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AA62" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AB62" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AC62" t="n">
-        <v>6.7</v>
+        <v>7.2</v>
       </c>
       <c r="AD62" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE62" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AF62" t="n">
         <v>80</v>
@@ -11387,59 +11673,59 @@
         <v>6.6</v>
       </c>
       <c r="AI62" t="n">
-        <v>8.5</v>
+        <v>7.7</v>
       </c>
       <c r="AJ62" t="n">
         <v>8.25</v>
       </c>
       <c r="AK62" t="n">
-        <v>15.5</v>
+        <v>13</v>
       </c>
       <c r="AL62" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AM62" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AN62" t="n">
-        <v>5.8</v>
+        <v>6.3</v>
       </c>
       <c r="AO62" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AP62" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AQ62" t="n">
-        <v>120</v>
+        <v>175</v>
       </c>
       <c r="AR62" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AS62" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AT62" t="n">
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="AU62" t="n">
-        <v>7.4</v>
+        <v>7.8</v>
       </c>
       <c r="AV62" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AW62" t="inlineStr"/>
       <c r="AX62" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="AY62" t="n">
-        <v>9.25</v>
+        <v>8.25</v>
       </c>
       <c r="AZ62" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="BA62" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="BB62" t="n">
         <v>65</v>
@@ -11481,22 +11767,22 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="H63" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="I63" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="J63" t="n">
-        <v>4.55</v>
+        <v>4.4</v>
       </c>
       <c r="K63" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="L63" t="n">
-        <v>2.37</v>
+        <v>2.47</v>
       </c>
       <c r="M63" t="n">
         <v>1.08</v>
@@ -11508,7 +11794,7 @@
         <v>1.37</v>
       </c>
       <c r="P63" t="n">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="Q63" t="n">
         <v>2.1</v>
@@ -11517,79 +11803,79 @@
         <v>1.65</v>
       </c>
       <c r="S63" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="T63" t="n">
-        <v>2.72</v>
+        <v>2.67</v>
       </c>
       <c r="U63" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="V63" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="W63" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="X63" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y63" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Z63" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AA63" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AB63" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AC63" t="n">
         <v>6.5</v>
       </c>
       <c r="AD63" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AE63" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AF63" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AG63" t="n">
         <v>800</v>
       </c>
       <c r="AH63" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AI63" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AJ63" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AK63" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AL63" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AM63" t="n">
         <v>30</v>
       </c>
       <c r="AN63" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="AO63" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP63" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AQ63" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AR63" t="n">
         <v>175</v>
@@ -11598,26 +11884,26 @@
         <v>400</v>
       </c>
       <c r="AT63" t="n">
-        <v>2.72</v>
+        <v>2.67</v>
       </c>
       <c r="AU63" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AV63" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AW63" t="inlineStr"/>
       <c r="AX63" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="AY63" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AZ63" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="BA63" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="BB63" t="n">
         <v>65</v>
@@ -11659,22 +11945,22 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="H64" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I64" t="n">
-        <v>5.5</v>
+        <v>6.25</v>
       </c>
       <c r="J64" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="K64" t="n">
         <v>1.95</v>
       </c>
       <c r="L64" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M64" t="n">
         <v>1.11</v>
@@ -11689,10 +11975,10 @@
         <v>2.5</v>
       </c>
       <c r="Q64" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R64" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S64" t="n">
         <v>1.57</v>
@@ -11701,22 +11987,22 @@
         <v>2.25</v>
       </c>
       <c r="U64" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V64" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="W64" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="X64" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Y64" t="n">
         <v>9.5</v>
       </c>
       <c r="Z64" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA64" t="n">
         <v>17</v>
@@ -11728,44 +12014,44 @@
         <v>6.5</v>
       </c>
       <c r="AD64" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE64" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF64" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AG64" t="inlineStr"/>
       <c r="AH64" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI64" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ64" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK64" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AL64" t="n">
         <v>51</v>
       </c>
       <c r="AM64" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN64" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AO64" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AP64" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ64" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR64" t="n">
         <v>67</v>
@@ -11777,28 +12063,28 @@
         <v>2.25</v>
       </c>
       <c r="AU64" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV64" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AW64" t="n">
         <v>81</v>
       </c>
       <c r="AX64" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AY64" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ64" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA64" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BB64" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC64" t="n">
         <v>81</v>
@@ -11839,76 +12125,76 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="H65" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I65" t="n">
         <v>3.15</v>
       </c>
       <c r="J65" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="K65" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="L65" t="n">
         <v>3.55</v>
       </c>
       <c r="M65" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N65" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O65" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="P65" t="n">
-        <v>4.05</v>
+        <v>4.15</v>
       </c>
       <c r="Q65" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R65" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="S65" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="T65" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="U65" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="V65" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="W65" t="n">
-        <v>9.75</v>
+        <v>10.5</v>
       </c>
       <c r="X65" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Y65" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="Z65" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AA65" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AB65" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC65" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD65" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AE65" t="n">
         <v>12</v>
@@ -11938,44 +12224,44 @@
         <v>26</v>
       </c>
       <c r="AN65" t="n">
-        <v>4.2</v>
+        <v>4.25</v>
       </c>
       <c r="AO65" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AP65" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AQ65" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AR65" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AS65" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AT65" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="AU65" t="n">
         <v>6.6</v>
       </c>
       <c r="AV65" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AW65" t="inlineStr"/>
       <c r="AX65" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="AY65" t="n">
         <v>16.5</v>
       </c>
       <c r="AZ65" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA65" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="BB65" t="n">
         <v>90</v>
@@ -12195,34 +12481,34 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="H67" t="n">
         <v>4</v>
       </c>
       <c r="I67" t="n">
-        <v>6.1</v>
+        <v>5.7</v>
       </c>
       <c r="J67" t="n">
-        <v>2.02</v>
+        <v>2.07</v>
       </c>
       <c r="K67" t="n">
         <v>2.22</v>
       </c>
       <c r="L67" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="M67" t="n">
         <v>1.05</v>
       </c>
       <c r="N67" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="O67" t="n">
         <v>1.27</v>
       </c>
       <c r="P67" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="Q67" t="n">
         <v>1.8</v>
@@ -12234,25 +12520,25 @@
         <v>1.39</v>
       </c>
       <c r="T67" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="U67" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="V67" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="W67" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="X67" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="Y67" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="Z67" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AA67" t="n">
         <v>12</v>
@@ -12261,49 +12547,49 @@
         <v>27</v>
       </c>
       <c r="AC67" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AD67" t="n">
         <v>7.8</v>
       </c>
       <c r="AE67" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AF67" t="n">
         <v>90</v>
       </c>
       <c r="AG67" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AH67" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AI67" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AJ67" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AK67" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AL67" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AM67" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AN67" t="n">
         <v>3.3</v>
       </c>
       <c r="AO67" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AP67" t="n">
         <v>17.5</v>
       </c>
       <c r="AQ67" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AR67" t="n">
         <v>55</v>
@@ -12312,20 +12598,20 @@
         <v>250</v>
       </c>
       <c r="AT67" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="AU67" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AV67" t="n">
         <v>80</v>
       </c>
       <c r="AW67" t="inlineStr"/>
       <c r="AX67" t="n">
-        <v>7.4</v>
+        <v>7.1</v>
       </c>
       <c r="AY67" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AZ67" t="n">
         <v>40</v>
@@ -12373,16 +12659,16 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H68" t="n">
         <v>3.5</v>
       </c>
       <c r="I68" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J68" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K68" t="n">
         <v>2.2</v>
@@ -12424,13 +12710,13 @@
         <v>7.5</v>
       </c>
       <c r="X68" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y68" t="n">
         <v>9</v>
       </c>
       <c r="Z68" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA68" t="n">
         <v>17</v>
@@ -12457,10 +12743,10 @@
         <v>11</v>
       </c>
       <c r="AI68" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ68" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK68" t="n">
         <v>41</v>
@@ -12505,7 +12791,7 @@
         <v>5.5</v>
       </c>
       <c r="AY68" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ68" t="n">
         <v>29</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-29.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-29.xlsx
@@ -753,7 +753,7 @@
         <v>5</v>
       </c>
       <c r="I2" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J2" t="n">
         <v>1.83</v>
@@ -768,13 +768,13 @@
         <v>1.02</v>
       </c>
       <c r="N2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O2" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P2" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q2" t="n">
         <v>1.44</v>
@@ -944,7 +944,7 @@
         <v>2.2</v>
       </c>
       <c r="L3" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M3" t="n">
         <v>1.05</v>
@@ -959,22 +959,22 @@
         <v>3.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="R3" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="S3" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T3" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U3" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="V3" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="W3" t="n">
         <v>10</v>
@@ -1007,13 +1007,13 @@
         <v>41</v>
       </c>
       <c r="AG3" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH3" t="n">
         <v>9</v>
       </c>
       <c r="AI3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ3" t="n">
         <v>9.5</v>
@@ -1028,7 +1028,7 @@
         <v>26</v>
       </c>
       <c r="AN3" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AO3" t="n">
         <v>15</v>
@@ -1046,7 +1046,7 @@
         <v>151</v>
       </c>
       <c r="AT3" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU3" t="n">
         <v>7.5</v>
@@ -1293,22 +1293,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H5" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I5" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="J5" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K5" t="n">
         <v>2.2</v>
       </c>
       <c r="L5" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M5" t="n">
         <v>1.05</v>
@@ -1323,10 +1323,10 @@
         <v>4</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="R5" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="S5" t="n">
         <v>1.36</v>
@@ -1344,10 +1344,10 @@
         <v>8</v>
       </c>
       <c r="X5" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z5" t="n">
         <v>17</v>
@@ -1374,7 +1374,7 @@
         <v>201</v>
       </c>
       <c r="AH5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI5" t="n">
         <v>21</v>
@@ -1395,7 +1395,7 @@
         <v>4</v>
       </c>
       <c r="AO5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP5" t="n">
         <v>21</v>
@@ -1428,7 +1428,7 @@
         <v>21</v>
       </c>
       <c r="AZ5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BA5" t="n">
         <v>67</v>
@@ -1496,7 +1496,7 @@
         <v>1.03</v>
       </c>
       <c r="N6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O6" t="n">
         <v>1.17</v>
@@ -1657,22 +1657,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H7" t="n">
         <v>3</v>
       </c>
       <c r="I7" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="J7" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K7" t="n">
         <v>1.83</v>
       </c>
       <c r="L7" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M7" t="n">
         <v>1.14</v>
@@ -1736,7 +1736,7 @@
       </c>
       <c r="AG7" t="inlineStr"/>
       <c r="AH7" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI7" t="n">
         <v>19</v>
@@ -1763,13 +1763,13 @@
         <v>34</v>
       </c>
       <c r="AQ7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR7" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS7" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AT7" t="n">
         <v>2.1</v>
@@ -1784,10 +1784,10 @@
         <v>126</v>
       </c>
       <c r="AX7" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AY7" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ7" t="n">
         <v>41</v>
@@ -1796,7 +1796,7 @@
         <v>101</v>
       </c>
       <c r="BB7" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC7" t="n">
         <v>501</v>
@@ -1855,10 +1855,10 @@
         <v>4.75</v>
       </c>
       <c r="M8" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N8" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O8" t="n">
         <v>1.67</v>
@@ -2029,7 +2029,7 @@
         <v>4.33</v>
       </c>
       <c r="K9" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L9" t="n">
         <v>3.1</v>
@@ -2086,7 +2086,7 @@
         <v>6.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AE9" t="n">
         <v>17</v>
@@ -2125,13 +2125,13 @@
         <v>34</v>
       </c>
       <c r="AQ9" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AR9" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AS9" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AT9" t="n">
         <v>2.25</v>
@@ -2164,7 +2164,7 @@
         <v>251</v>
       </c>
       <c r="BD9" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10">
@@ -2262,10 +2262,10 @@
         <v>10</v>
       </c>
       <c r="AB10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC10" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AD10" t="n">
         <v>11</v>
@@ -2304,7 +2304,7 @@
         <v>7</v>
       </c>
       <c r="AP10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ10" t="n">
         <v>17</v>
@@ -2325,22 +2325,22 @@
         <v>41</v>
       </c>
       <c r="AW10" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AX10" t="n">
         <v>8.5</v>
       </c>
       <c r="AY10" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ10" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="BA10" t="n">
         <v>81</v>
       </c>
       <c r="BB10" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BC10" t="n">
         <v>101</v>
@@ -2381,22 +2381,22 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.82</v>
+        <v>2.72</v>
       </c>
       <c r="H11" t="n">
         <v>3.4</v>
       </c>
       <c r="I11" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="J11" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="K11" t="n">
         <v>2.12</v>
       </c>
       <c r="L11" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="M11" t="n">
         <v>1.06</v>
@@ -2429,19 +2429,19 @@
         <v>2.02</v>
       </c>
       <c r="W11" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X11" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y11" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="Z11" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA11" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AB11" t="n">
         <v>30</v>
@@ -2465,31 +2465,31 @@
         <v>8.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AJ11" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AK11" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL11" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AM11" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AN11" t="n">
-        <v>4.75</v>
+        <v>4.65</v>
       </c>
       <c r="AO11" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AP11" t="n">
         <v>23</v>
       </c>
       <c r="AQ11" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AR11" t="n">
         <v>110</v>
@@ -2501,7 +2501,7 @@
         <v>2.72</v>
       </c>
       <c r="AU11" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AV11" t="n">
         <v>65</v>
@@ -2510,10 +2510,10 @@
         <v>81</v>
       </c>
       <c r="AX11" t="n">
-        <v>4.25</v>
+        <v>4.35</v>
       </c>
       <c r="AY11" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AZ11" t="n">
         <v>21</v>
@@ -2522,7 +2522,7 @@
         <v>50</v>
       </c>
       <c r="BB11" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="BC11" t="n">
         <v>250</v>
@@ -2566,7 +2566,7 @@
         <v>6</v>
       </c>
       <c r="H12" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="I12" t="n">
         <v>1.5</v>
@@ -2575,40 +2575,40 @@
         <v>5.7</v>
       </c>
       <c r="K12" t="n">
-        <v>2.22</v>
+        <v>2.27</v>
       </c>
       <c r="L12" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="M12" t="n">
         <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="O12" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P12" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="R12" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S12" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="T12" t="n">
-        <v>2.8</v>
+        <v>2.87</v>
       </c>
       <c r="U12" t="n">
         <v>1.87</v>
       </c>
       <c r="V12" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="W12" t="n">
         <v>16.5</v>
@@ -2629,22 +2629,22 @@
         <v>55</v>
       </c>
       <c r="AC12" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AD12" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AE12" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AF12" t="n">
         <v>80</v>
       </c>
       <c r="AG12" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AH12" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AI12" t="n">
         <v>7</v>
@@ -2656,7 +2656,7 @@
         <v>10.25</v>
       </c>
       <c r="AL12" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AM12" t="n">
         <v>26</v>
@@ -2671,7 +2671,7 @@
         <v>37</v>
       </c>
       <c r="AQ12" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AR12" t="n">
         <v>250</v>
@@ -2680,10 +2680,10 @@
         <v>500</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.8</v>
+        <v>2.87</v>
       </c>
       <c r="AU12" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AV12" t="n">
         <v>75</v>
@@ -2692,16 +2692,16 @@
         <v>81</v>
       </c>
       <c r="AX12" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="AY12" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AZ12" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="BA12" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB12" t="n">
         <v>55</v>
@@ -2745,22 +2745,22 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="H13" t="n">
-        <v>4.5</v>
+        <v>4.55</v>
       </c>
       <c r="I13" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="J13" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="K13" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="L13" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="M13" t="n">
         <v>1.03</v>
@@ -2772,7 +2772,7 @@
         <v>1.16</v>
       </c>
       <c r="P13" t="n">
-        <v>4.5</v>
+        <v>4.55</v>
       </c>
       <c r="Q13" t="n">
         <v>1.5</v>
@@ -2790,22 +2790,22 @@
         <v>1.65</v>
       </c>
       <c r="V13" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="W13" t="n">
         <v>9.25</v>
       </c>
       <c r="X13" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="Y13" t="n">
         <v>8.25</v>
       </c>
       <c r="Z13" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AA13" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AB13" t="n">
         <v>20</v>
@@ -2814,10 +2814,10 @@
         <v>9.25</v>
       </c>
       <c r="AD13" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AE13" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AF13" t="n">
         <v>55</v>
@@ -2826,16 +2826,16 @@
         <v>350</v>
       </c>
       <c r="AH13" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AI13" t="n">
         <v>35</v>
       </c>
       <c r="AJ13" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AK13" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AL13" t="n">
         <v>45</v>
@@ -2844,16 +2844,16 @@
         <v>40</v>
       </c>
       <c r="AN13" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="AO13" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AP13" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AQ13" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AR13" t="n">
         <v>40</v>
@@ -2874,13 +2874,13 @@
         <v>81</v>
       </c>
       <c r="AX13" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AY13" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AZ13" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BA13" t="n">
         <v>150</v>
@@ -2927,19 +2927,19 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.77</v>
+        <v>2.82</v>
       </c>
       <c r="H14" t="n">
         <v>3.6</v>
       </c>
       <c r="I14" t="n">
-        <v>2.27</v>
+        <v>2.22</v>
       </c>
       <c r="J14" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="K14" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
       <c r="L14" t="n">
         <v>2.8</v>
@@ -2951,34 +2951,34 @@
         <v>8.25</v>
       </c>
       <c r="O14" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="P14" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="R14" t="n">
-        <v>2.1</v>
+        <v>2.02</v>
       </c>
       <c r="S14" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="T14" t="n">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
       <c r="U14" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="V14" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="W14" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="X14" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Y14" t="n">
         <v>10.25</v>
@@ -2987,85 +2987,85 @@
         <v>32</v>
       </c>
       <c r="AA14" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AB14" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AC14" t="n">
         <v>8.25</v>
       </c>
       <c r="AD14" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AE14" t="n">
         <v>12.5</v>
       </c>
       <c r="AF14" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AG14" t="n">
         <v>300</v>
       </c>
       <c r="AH14" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AJ14" t="n">
         <v>9</v>
       </c>
       <c r="AK14" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL14" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AM14" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AN14" t="n">
         <v>4.9</v>
       </c>
       <c r="AO14" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AP14" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AQ14" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AR14" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AS14" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AT14" t="n">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
       <c r="AU14" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="AV14" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AW14" t="n">
         <v>81</v>
       </c>
       <c r="AX14" t="n">
-        <v>4.35</v>
+        <v>4.3</v>
       </c>
       <c r="AY14" t="n">
         <v>11.5</v>
       </c>
       <c r="AZ14" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="BA14" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="BB14" t="n">
         <v>70</v>
@@ -3109,82 +3109,82 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3.95</v>
+        <v>3.6</v>
       </c>
       <c r="H15" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="I15" t="n">
-        <v>1.78</v>
+        <v>1.91</v>
       </c>
       <c r="J15" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="K15" t="n">
-        <v>2.22</v>
+        <v>2.18</v>
       </c>
       <c r="L15" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="M15" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="O15" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P15" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="R15" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S15" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="T15" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="U15" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="V15" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="W15" t="n">
-        <v>13</v>
+        <v>11.75</v>
       </c>
       <c r="X15" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Y15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z15" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AA15" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB15" t="n">
         <v>35</v>
       </c>
-      <c r="AB15" t="n">
-        <v>37</v>
-      </c>
       <c r="AC15" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="AD15" t="n">
-        <v>7.4</v>
+        <v>6.9</v>
       </c>
       <c r="AE15" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AF15" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AG15" t="n">
         <v>400</v>
@@ -3193,64 +3193,64 @@
         <v>8</v>
       </c>
       <c r="AI15" t="n">
-        <v>9</v>
+        <v>9.75</v>
       </c>
       <c r="AJ15" t="n">
         <v>8.25</v>
       </c>
       <c r="AK15" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AL15" t="n">
         <v>14.5</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>13.5</v>
       </c>
       <c r="AM15" t="n">
         <v>23</v>
       </c>
       <c r="AN15" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="AO15" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AP15" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AQ15" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AR15" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AS15" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AT15" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="AU15" t="n">
-        <v>7.3</v>
+        <v>7</v>
       </c>
       <c r="AV15" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AW15" t="n">
         <v>81</v>
       </c>
       <c r="AX15" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="AY15" t="n">
-        <v>8.75</v>
+        <v>9.75</v>
       </c>
       <c r="AZ15" t="n">
         <v>17.5</v>
       </c>
       <c r="BA15" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="BB15" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="BC15" t="n">
         <v>200</v>
@@ -3309,10 +3309,10 @@
         <v>3.55</v>
       </c>
       <c r="M16" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N16" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="O16" t="n">
         <v>1.42</v>
@@ -3469,36 +3469,40 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="H17" t="n">
-        <v>4.6</v>
+        <v>4.35</v>
       </c>
       <c r="I17" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="J17" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="K17" t="n">
-        <v>2.37</v>
+        <v>2.3</v>
       </c>
       <c r="L17" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
+        <v>7.2</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N17" t="n">
+        <v>8.1</v>
+      </c>
       <c r="O17" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="P17" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R17" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="S17" t="n">
         <v>1.33</v>
@@ -3507,43 +3511,43 @@
         <v>3.04</v>
       </c>
       <c r="U17" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="V17" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="W17" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="X17" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="Y17" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Z17" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z17" t="n">
-        <v>8.25</v>
-      </c>
       <c r="AA17" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AB17" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC17" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="AE17" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF17" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AG17" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="AH17" t="n">
         <v>21</v>
@@ -3552,61 +3556,63 @@
         <v>60</v>
       </c>
       <c r="AJ17" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AK17" t="n">
         <v>250</v>
       </c>
       <c r="AL17" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AM17" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AN17" t="n">
         <v>3.1</v>
       </c>
       <c r="AO17" t="n">
-        <v>5.8</v>
+        <v>6.1</v>
       </c>
       <c r="AP17" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AQ17" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AR17" t="n">
         <v>45</v>
       </c>
       <c r="AS17" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AT17" t="n">
-        <v>3</v>
+        <v>2.87</v>
       </c>
       <c r="AU17" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AV17" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AW17" t="inlineStr"/>
       <c r="AX17" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="AY17" t="n">
         <v>50</v>
       </c>
       <c r="AZ17" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="BA17" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="BB17" t="n">
-        <v>400</v>
-      </c>
-      <c r="BC17" t="inlineStr"/>
+        <v>350</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>500</v>
+      </c>
       <c r="BD17" t="inlineStr"/>
     </row>
     <row r="18">
@@ -3671,10 +3677,10 @@
         <v>4</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="R18" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S18" t="n">
         <v>1.36</v>
@@ -3823,16 +3829,16 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="H19" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I19" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="J19" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="K19" t="n">
         <v>2.5</v>
@@ -3847,28 +3853,28 @@
         <v>19</v>
       </c>
       <c r="O19" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P19" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R19" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="S19" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="T19" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U19" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V19" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W19" t="n">
         <v>17</v>
@@ -3901,7 +3907,7 @@
         <v>41</v>
       </c>
       <c r="AG19" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AH19" t="n">
         <v>10</v>
@@ -3919,7 +3925,7 @@
         <v>12</v>
       </c>
       <c r="AM19" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AN19" t="n">
         <v>7</v>
@@ -3940,7 +3946,7 @@
         <v>151</v>
       </c>
       <c r="AT19" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AU19" t="n">
         <v>7.5</v>
@@ -3949,7 +3955,7 @@
         <v>41</v>
       </c>
       <c r="AW19" t="n">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="AX19" t="n">
         <v>4</v>
@@ -3961,7 +3967,7 @@
         <v>15</v>
       </c>
       <c r="BA19" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BB19" t="n">
         <v>41</v>
@@ -4026,7 +4032,7 @@
         <v>1.04</v>
       </c>
       <c r="N20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O20" t="n">
         <v>1.22</v>
@@ -4187,146 +4193,146 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.33</v>
+        <v>1.22</v>
       </c>
       <c r="H21" t="n">
-        <v>4.1</v>
+        <v>5</v>
       </c>
       <c r="I21" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J21" t="n">
-        <v>1.91</v>
+        <v>1.67</v>
       </c>
       <c r="K21" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="L21" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N21" t="n">
+        <v>15</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R21" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T21" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U21" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W21" t="n">
         <v>7.5</v>
       </c>
-      <c r="M21" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N21" t="n">
-        <v>12</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P21" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R21" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T21" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U21" t="n">
-        <v>2</v>
-      </c>
-      <c r="V21" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W21" t="n">
-        <v>7</v>
-      </c>
       <c r="X21" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Y21" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AA21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB21" t="n">
         <v>29</v>
       </c>
       <c r="AC21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD21" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AE21" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF21" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AG21" t="n">
         <v>351</v>
       </c>
       <c r="AH21" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI21" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ21" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AK21" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AL21" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AM21" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN21" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="AO21" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="AP21" t="n">
         <v>19</v>
       </c>
       <c r="AQ21" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AR21" t="n">
         <v>41</v>
       </c>
       <c r="AS21" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT21" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU21" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV21" t="n">
         <v>67</v>
       </c>
       <c r="AW21" t="inlineStr"/>
       <c r="AX21" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AY21" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AZ21" t="n">
         <v>41</v>
       </c>
       <c r="BA21" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="BB21" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="BC21" t="n">
         <v>351</v>
@@ -4346,7 +4352,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>18:30</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -4365,7 +4371,7 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="H22" t="n">
         <v>4.33</v>
@@ -4380,7 +4386,7 @@
         <v>2.38</v>
       </c>
       <c r="L22" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M22" t="n">
         <v>1.04</v>
@@ -4416,7 +4422,7 @@
         <v>7.5</v>
       </c>
       <c r="X22" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Y22" t="n">
         <v>8.5</v>
@@ -4443,10 +4449,10 @@
         <v>51</v>
       </c>
       <c r="AG22" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH22" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI22" t="n">
         <v>34</v>
@@ -4467,7 +4473,7 @@
         <v>3.5</v>
       </c>
       <c r="AO22" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AP22" t="n">
         <v>19</v>
@@ -4492,7 +4498,7 @@
       </c>
       <c r="AW22" t="inlineStr"/>
       <c r="AX22" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AY22" t="n">
         <v>34</v>
@@ -4543,55 +4549,55 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="H23" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="I23" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="J23" t="n">
         <v>3.25</v>
       </c>
       <c r="K23" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L23" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M23" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N23" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O23" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="P23" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="Q23" t="n">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="R23" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="S23" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T23" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="U23" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V23" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="W23" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="X23" t="n">
         <v>11</v>
@@ -4609,22 +4615,22 @@
         <v>34</v>
       </c>
       <c r="AC23" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE23" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AF23" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG23" t="n">
         <v>351</v>
       </c>
       <c r="AH23" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI23" t="n">
         <v>13</v>
@@ -4642,13 +4648,13 @@
         <v>41</v>
       </c>
       <c r="AN23" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO23" t="n">
         <v>15</v>
       </c>
       <c r="AP23" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ23" t="n">
         <v>51</v>
@@ -4657,10 +4663,10 @@
         <v>81</v>
       </c>
       <c r="AS23" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT23" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AU23" t="n">
         <v>8.5</v>
@@ -4682,7 +4688,7 @@
         <v>51</v>
       </c>
       <c r="BB23" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BC23" t="n">
         <v>251</v>
@@ -4739,10 +4745,10 @@
         <v>2.2</v>
       </c>
       <c r="M24" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N24" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O24" t="n">
         <v>1.36</v>
@@ -4757,7 +4763,7 @@
         <v>1.65</v>
       </c>
       <c r="S24" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="T24" t="n">
         <v>2.5</v>
@@ -4897,7 +4903,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H25" t="n">
         <v>2.88</v>
@@ -4906,7 +4912,7 @@
         <v>3.5</v>
       </c>
       <c r="J25" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K25" t="n">
         <v>1.91</v>
@@ -4933,7 +4939,7 @@
         <v>1.44</v>
       </c>
       <c r="S25" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="T25" t="n">
         <v>2.2</v>
@@ -4976,10 +4982,10 @@
       </c>
       <c r="AG25" t="inlineStr"/>
       <c r="AH25" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI25" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ25" t="n">
         <v>13</v>
@@ -4997,7 +5003,7 @@
         <v>4</v>
       </c>
       <c r="AO25" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP25" t="n">
         <v>29</v>
@@ -5077,13 +5083,13 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H26" t="n">
         <v>3.1</v>
       </c>
       <c r="I26" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="J26" t="n">
         <v>2.88</v>
@@ -5092,7 +5098,7 @@
         <v>2</v>
       </c>
       <c r="L26" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M26" t="n">
         <v>1.1</v>
@@ -5113,22 +5119,22 @@
         <v>1.57</v>
       </c>
       <c r="S26" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T26" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="U26" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V26" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="W26" t="n">
         <v>6</v>
       </c>
       <c r="X26" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y26" t="n">
         <v>9.5</v>
@@ -5137,7 +5143,7 @@
         <v>19</v>
       </c>
       <c r="AA26" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB26" t="n">
         <v>34</v>
@@ -5155,16 +5161,16 @@
         <v>67</v>
       </c>
       <c r="AG26" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="AH26" t="n">
         <v>9</v>
       </c>
       <c r="AI26" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ26" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK26" t="n">
         <v>41</v>
@@ -5209,7 +5215,7 @@
         <v>5.5</v>
       </c>
       <c r="AY26" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ26" t="n">
         <v>34</v>
@@ -5218,7 +5224,7 @@
         <v>81</v>
       </c>
       <c r="BB26" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC26" t="n">
         <v>301</v>
@@ -5259,13 +5265,13 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="H27" t="n">
         <v>3.7</v>
       </c>
       <c r="I27" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="J27" t="n">
         <v>2.3</v>
@@ -5274,13 +5280,13 @@
         <v>2.1</v>
       </c>
       <c r="L27" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M27" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N27" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O27" t="n">
         <v>1.36</v>
@@ -5289,31 +5295,31 @@
         <v>3</v>
       </c>
       <c r="Q27" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="T27" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="U27" t="n">
         <v>2.1</v>
       </c>
-      <c r="R27" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S27" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T27" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U27" t="n">
-        <v>2</v>
-      </c>
       <c r="V27" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="W27" t="n">
         <v>6</v>
       </c>
       <c r="X27" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Y27" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z27" t="n">
         <v>12</v>
@@ -5322,16 +5328,16 @@
         <v>15</v>
       </c>
       <c r="AB27" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC27" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD27" t="n">
         <v>7</v>
       </c>
       <c r="AE27" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF27" t="n">
         <v>67</v>
@@ -5343,7 +5349,7 @@
         <v>12</v>
       </c>
       <c r="AI27" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ27" t="n">
         <v>17</v>
@@ -5361,10 +5367,10 @@
         <v>3.5</v>
       </c>
       <c r="AO27" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AP27" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ27" t="n">
         <v>29</v>
@@ -5373,13 +5379,13 @@
         <v>51</v>
       </c>
       <c r="AS27" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT27" t="n">
         <v>2.63</v>
       </c>
       <c r="AU27" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV27" t="n">
         <v>67</v>
@@ -5388,22 +5394,22 @@
         <v>81</v>
       </c>
       <c r="AX27" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AY27" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ27" t="n">
         <v>41</v>
       </c>
       <c r="BA27" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB27" t="n">
         <v>151</v>
       </c>
       <c r="BC27" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BD27" t="n">
         <v>81</v>
@@ -5441,13 +5447,13 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="H28" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="I28" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J28" t="n">
         <v>1.83</v>
@@ -5456,7 +5462,7 @@
         <v>2.63</v>
       </c>
       <c r="L28" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M28" t="n">
         <v>1.02</v>
@@ -5465,40 +5471,40 @@
         <v>19</v>
       </c>
       <c r="O28" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P28" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="R28" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="S28" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="T28" t="n">
         <v>3.75</v>
       </c>
       <c r="U28" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="V28" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="W28" t="n">
         <v>10</v>
       </c>
       <c r="X28" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y28" t="n">
         <v>8.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA28" t="n">
         <v>11</v>
@@ -5513,7 +5519,7 @@
         <v>10</v>
       </c>
       <c r="AE28" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF28" t="n">
         <v>41</v>
@@ -5531,7 +5537,7 @@
         <v>21</v>
       </c>
       <c r="AK28" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AL28" t="n">
         <v>41</v>
@@ -5564,28 +5570,28 @@
         <v>8</v>
       </c>
       <c r="AV28" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW28" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AX28" t="n">
         <v>8.5</v>
       </c>
       <c r="AY28" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ28" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BA28" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB28" t="n">
         <v>101</v>
       </c>
       <c r="BC28" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BD28" t="n">
         <v>151</v>
@@ -5623,28 +5629,28 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="H29" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I29" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="J29" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K29" t="n">
         <v>2.2</v>
       </c>
       <c r="L29" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M29" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O29" t="n">
         <v>1.25</v>
@@ -5653,10 +5659,10 @@
         <v>3.75</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="R29" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="S29" t="n">
         <v>1.36</v>
@@ -5674,7 +5680,7 @@
         <v>8.5</v>
       </c>
       <c r="X29" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y29" t="n">
         <v>9</v>
@@ -5683,13 +5689,13 @@
         <v>19</v>
       </c>
       <c r="AA29" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB29" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD29" t="n">
         <v>6.5</v>
@@ -5701,19 +5707,19 @@
         <v>41</v>
       </c>
       <c r="AG29" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH29" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ29" t="n">
         <v>12</v>
       </c>
-      <c r="AI29" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ29" t="n">
-        <v>13</v>
-      </c>
       <c r="AK29" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL29" t="n">
         <v>26</v>
@@ -5722,22 +5728,22 @@
         <v>34</v>
       </c>
       <c r="AN29" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP29" t="n">
         <v>21</v>
       </c>
       <c r="AQ29" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR29" t="n">
         <v>51</v>
       </c>
       <c r="AS29" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT29" t="n">
         <v>3</v>
@@ -5826,7 +5832,7 @@
         <v>1.07</v>
       </c>
       <c r="N30" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O30" t="n">
         <v>1.36</v>
@@ -6008,7 +6014,7 @@
         <v>1.07</v>
       </c>
       <c r="N31" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O31" t="n">
         <v>1.4</v>
@@ -6178,7 +6184,7 @@
         <v>2.6</v>
       </c>
       <c r="J32" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K32" t="n">
         <v>2.4</v>
@@ -6205,10 +6211,10 @@
         <v>2.5</v>
       </c>
       <c r="S32" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="T32" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U32" t="n">
         <v>1.44</v>
@@ -6238,16 +6244,16 @@
         <v>19</v>
       </c>
       <c r="AD32" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE32" t="n">
         <v>11</v>
       </c>
       <c r="AF32" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG32" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AH32" t="n">
         <v>13</v>
@@ -6259,7 +6265,7 @@
         <v>10</v>
       </c>
       <c r="AK32" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL32" t="n">
         <v>19</v>
@@ -6271,10 +6277,10 @@
         <v>5</v>
       </c>
       <c r="AO32" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP32" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ32" t="n">
         <v>41</v>
@@ -6283,10 +6289,10 @@
         <v>51</v>
       </c>
       <c r="AS32" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AT32" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AU32" t="n">
         <v>7</v>
@@ -6533,46 +6539,46 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="H34" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I34" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="J34" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="K34" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L34" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N34" t="n">
+        <v>13</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P34" t="n">
         <v>4.33</v>
       </c>
-      <c r="M34" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N34" t="n">
-        <v>15</v>
-      </c>
-      <c r="O34" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P34" t="n">
-        <v>4.5</v>
-      </c>
       <c r="Q34" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R34" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S34" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T34" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="U34" t="n">
         <v>1.57</v>
@@ -6584,28 +6590,28 @@
         <v>9.5</v>
       </c>
       <c r="X34" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y34" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z34" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA34" t="n">
         <v>15</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>13</v>
       </c>
       <c r="AB34" t="n">
         <v>21</v>
       </c>
       <c r="AC34" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD34" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE34" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF34" t="n">
         <v>41</v>
@@ -6614,43 +6620,43 @@
         <v>151</v>
       </c>
       <c r="AH34" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI34" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AJ34" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK34" t="n">
         <v>41</v>
       </c>
       <c r="AL34" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM34" t="n">
         <v>29</v>
       </c>
       <c r="AN34" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO34" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AP34" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ34" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR34" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS34" t="n">
         <v>101</v>
       </c>
       <c r="AT34" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AU34" t="n">
         <v>7.5</v>
@@ -6662,16 +6668,16 @@
         <v>81</v>
       </c>
       <c r="AX34" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AY34" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ34" t="n">
         <v>23</v>
       </c>
       <c r="BA34" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB34" t="n">
         <v>67</v>
@@ -6745,10 +6751,10 @@
         <v>4.33</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R35" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S35" t="n">
         <v>1.33</v>
@@ -6893,40 +6899,40 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H36" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I36" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="J36" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K36" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L36" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="M36" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N36" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O36" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P36" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R36" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S36" t="n">
         <v>1.33</v>
@@ -6935,16 +6941,16 @@
         <v>3.25</v>
       </c>
       <c r="U36" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="V36" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="W36" t="n">
         <v>13</v>
       </c>
       <c r="X36" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y36" t="n">
         <v>12</v>
@@ -6956,7 +6962,7 @@
         <v>23</v>
       </c>
       <c r="AB36" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC36" t="n">
         <v>13</v>
@@ -6989,7 +6995,7 @@
         <v>17</v>
       </c>
       <c r="AM36" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN36" t="n">
         <v>5</v>
@@ -7037,7 +7043,7 @@
         <v>51</v>
       </c>
       <c r="BC36" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BD36" t="inlineStr"/>
     </row>
@@ -7073,16 +7079,16 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H37" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I37" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="J37" t="n">
         <v>3.25</v>
-      </c>
-      <c r="I37" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="J37" t="n">
-        <v>3.2</v>
       </c>
       <c r="K37" t="n">
         <v>2.1</v>
@@ -7091,37 +7097,37 @@
         <v>3.25</v>
       </c>
       <c r="M37" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N37" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O37" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P37" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q37" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="R37" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S37" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T37" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U37" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="V37" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W37" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X37" t="n">
         <v>13</v>
@@ -7139,22 +7145,22 @@
         <v>29</v>
       </c>
       <c r="AC37" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD37" t="n">
         <v>6.5</v>
       </c>
       <c r="AE37" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF37" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG37" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH37" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI37" t="n">
         <v>13</v>
@@ -7172,7 +7178,7 @@
         <v>29</v>
       </c>
       <c r="AN37" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO37" t="n">
         <v>15</v>
@@ -7190,7 +7196,7 @@
         <v>151</v>
       </c>
       <c r="AT37" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU37" t="n">
         <v>8</v>
@@ -7251,22 +7257,22 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="H38" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I38" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="J38" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="K38" t="n">
         <v>2.2</v>
       </c>
       <c r="L38" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="M38" t="n">
         <v>1.05</v>
@@ -7341,7 +7347,7 @@
         <v>8.5</v>
       </c>
       <c r="AK38" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL38" t="n">
         <v>15</v>
@@ -7353,13 +7359,13 @@
         <v>6</v>
       </c>
       <c r="AO38" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP38" t="n">
         <v>29</v>
       </c>
       <c r="AQ38" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AR38" t="n">
         <v>101</v>
@@ -7380,7 +7386,7 @@
         <v>81</v>
       </c>
       <c r="AX38" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AY38" t="n">
         <v>10</v>
@@ -7793,64 +7799,64 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="H41" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I41" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="J41" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="K41" t="n">
         <v>2.1</v>
       </c>
       <c r="L41" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M41" t="n">
         <v>1.08</v>
       </c>
       <c r="N41" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O41" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P41" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="R41" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S41" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T41" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U41" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="V41" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="W41" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X41" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y41" t="n">
         <v>9</v>
       </c>
       <c r="Z41" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA41" t="n">
         <v>15</v>
@@ -7859,40 +7865,40 @@
         <v>34</v>
       </c>
       <c r="AC41" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD41" t="n">
         <v>7</v>
       </c>
       <c r="AE41" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF41" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG41" t="n">
         <v>101</v>
       </c>
       <c r="AH41" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI41" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ41" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK41" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AL41" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM41" t="n">
         <v>51</v>
       </c>
       <c r="AN41" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AO41" t="n">
         <v>8.5</v>
@@ -7910,17 +7916,17 @@
         <v>201</v>
       </c>
       <c r="AT41" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU41" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV41" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW41" t="inlineStr"/>
       <c r="AX41" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AY41" t="n">
         <v>34</v>
@@ -7929,12 +7935,14 @@
         <v>41</v>
       </c>
       <c r="BA41" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB41" t="n">
         <v>151</v>
       </c>
-      <c r="BB41" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC41" t="inlineStr"/>
+      <c r="BC41" t="n">
+        <v>351</v>
+      </c>
       <c r="BD41" t="inlineStr"/>
     </row>
     <row r="42">
@@ -8151,19 +8159,19 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="H43" t="n">
         <v>4.5</v>
       </c>
       <c r="I43" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J43" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="K43" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="L43" t="n">
         <v>5</v>
@@ -8172,34 +8180,34 @@
         <v>1.02</v>
       </c>
       <c r="N43" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O43" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="P43" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="R43" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="S43" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="T43" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U43" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V43" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="W43" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X43" t="n">
         <v>10</v>
@@ -8214,7 +8222,7 @@
         <v>11</v>
       </c>
       <c r="AB43" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC43" t="n">
         <v>21</v>
@@ -8247,7 +8255,7 @@
         <v>34</v>
       </c>
       <c r="AM43" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN43" t="n">
         <v>4</v>
@@ -8268,7 +8276,7 @@
         <v>81</v>
       </c>
       <c r="AT43" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AU43" t="n">
         <v>7.5</v>
@@ -8280,13 +8288,13 @@
         <v>301</v>
       </c>
       <c r="AX43" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AY43" t="n">
         <v>23</v>
       </c>
       <c r="AZ43" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="BA43" t="n">
         <v>67</v>
@@ -8348,7 +8356,7 @@
         <v>2.88</v>
       </c>
       <c r="L44" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M44" t="n">
         <v>1.01</v>
@@ -8363,16 +8371,16 @@
         <v>8</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="R44" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="S44" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="T44" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="U44" t="n">
         <v>1.5</v>
@@ -8387,7 +8395,7 @@
         <v>10</v>
       </c>
       <c r="Y44" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z44" t="n">
         <v>11</v>
@@ -8399,7 +8407,7 @@
         <v>17</v>
       </c>
       <c r="AC44" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AD44" t="n">
         <v>12</v>
@@ -8450,7 +8458,7 @@
         <v>67</v>
       </c>
       <c r="AT44" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AU44" t="n">
         <v>7.5</v>
@@ -8536,7 +8544,7 @@
         <v>1.02</v>
       </c>
       <c r="N45" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O45" t="n">
         <v>1.13</v>
@@ -8721,10 +8729,10 @@
         <v>13</v>
       </c>
       <c r="O46" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P46" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q46" t="n">
         <v>1.7</v>
@@ -8879,13 +8887,13 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="H47" t="n">
         <v>3.6</v>
       </c>
       <c r="I47" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="J47" t="n">
         <v>3</v>
@@ -8894,7 +8902,7 @@
         <v>2.3</v>
       </c>
       <c r="L47" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M47" t="n">
         <v>1.03</v>
@@ -8903,28 +8911,28 @@
         <v>15</v>
       </c>
       <c r="O47" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P47" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="R47" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="S47" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T47" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U47" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="V47" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="W47" t="n">
         <v>11</v>
@@ -8945,10 +8953,10 @@
         <v>23</v>
       </c>
       <c r="AC47" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD47" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE47" t="n">
         <v>12</v>
@@ -8960,7 +8968,7 @@
         <v>126</v>
       </c>
       <c r="AH47" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI47" t="n">
         <v>15</v>
@@ -8969,13 +8977,13 @@
         <v>10</v>
       </c>
       <c r="AK47" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL47" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM47" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN47" t="n">
         <v>4.75</v>
@@ -8984,7 +8992,7 @@
         <v>13</v>
       </c>
       <c r="AP47" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ47" t="n">
         <v>41</v>
@@ -8993,13 +9001,13 @@
         <v>51</v>
       </c>
       <c r="AS47" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT47" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU47" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV47" t="n">
         <v>41</v>
@@ -9073,16 +9081,16 @@
         <v>3.75</v>
       </c>
       <c r="K48" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L48" t="n">
         <v>3.2</v>
       </c>
       <c r="M48" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N48" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="O48" t="n">
         <v>1.4</v>
@@ -9127,7 +9135,7 @@
         <v>41</v>
       </c>
       <c r="AC48" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AD48" t="n">
         <v>6</v>
@@ -9263,16 +9271,16 @@
         <v>9</v>
       </c>
       <c r="O49" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P49" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="R49" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S49" t="n">
         <v>1.5</v>
@@ -9305,13 +9313,13 @@
         <v>34</v>
       </c>
       <c r="AC49" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD49" t="n">
         <v>6</v>
       </c>
       <c r="AE49" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF49" t="n">
         <v>51</v>
@@ -9320,16 +9328,16 @@
         <v>351</v>
       </c>
       <c r="AH49" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI49" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ49" t="n">
         <v>12</v>
       </c>
       <c r="AK49" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL49" t="n">
         <v>26</v>
@@ -9459,10 +9467,10 @@
         <v>2.25</v>
       </c>
       <c r="U50" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V50" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W50" t="n">
         <v>6</v>
@@ -9492,7 +9500,7 @@
         <v>19</v>
       </c>
       <c r="AF50" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG50" t="n">
         <v>101</v>
@@ -9540,7 +9548,7 @@
         <v>9</v>
       </c>
       <c r="AV50" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW50" t="inlineStr"/>
       <c r="AX50" t="n">
@@ -9559,7 +9567,7 @@
         <v>101</v>
       </c>
       <c r="BC50" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BD50" t="inlineStr"/>
     </row>
@@ -9807,10 +9815,10 @@
         <v>3</v>
       </c>
       <c r="Q52" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R52" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S52" t="n">
         <v>1.44</v>
@@ -9959,13 +9967,13 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H53" t="n">
         <v>3.25</v>
       </c>
       <c r="I53" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="J53" t="n">
         <v>3.25</v>
@@ -9974,25 +9982,25 @@
         <v>2.1</v>
       </c>
       <c r="L53" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M53" t="n">
         <v>1.06</v>
       </c>
       <c r="N53" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O53" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P53" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q53" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="R53" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="S53" t="n">
         <v>1.44</v>
@@ -10010,7 +10018,7 @@
         <v>8.5</v>
       </c>
       <c r="X53" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y53" t="n">
         <v>10</v>
@@ -10055,16 +10063,16 @@
         <v>21</v>
       </c>
       <c r="AM53" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN53" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AO53" t="n">
         <v>15</v>
       </c>
       <c r="AP53" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ53" t="n">
         <v>51</v>
@@ -10103,7 +10111,7 @@
         <v>67</v>
       </c>
       <c r="BC53" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BD53" t="n">
         <v>81</v>
@@ -10353,10 +10361,10 @@
         <v>2.75</v>
       </c>
       <c r="Q55" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="R55" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S55" t="n">
         <v>1.53</v>
@@ -10687,28 +10695,28 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="H57" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I57" t="n">
         <v>4.75</v>
       </c>
       <c r="J57" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K57" t="n">
         <v>2.2</v>
       </c>
       <c r="L57" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M57" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="N57" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="O57" t="n">
         <v>1.29</v>
@@ -10717,10 +10725,10 @@
         <v>3.5</v>
       </c>
       <c r="Q57" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R57" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S57" t="n">
         <v>1.4</v>
@@ -10744,7 +10752,7 @@
         <v>8.5</v>
       </c>
       <c r="Z57" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA57" t="n">
         <v>13</v>
@@ -10789,7 +10797,7 @@
         <v>3.6</v>
       </c>
       <c r="AO57" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AP57" t="n">
         <v>21</v>
@@ -10807,7 +10815,7 @@
         <v>2.75</v>
       </c>
       <c r="AU57" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV57" t="n">
         <v>51</v>
@@ -10890,13 +10898,13 @@
         <v>1.02</v>
       </c>
       <c r="N58" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O58" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P58" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q58" t="n">
         <v>1.44</v>
@@ -11013,7 +11021,7 @@
         <v>151</v>
       </c>
       <c r="BC58" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="BD58" t="n">
         <v>81</v>
@@ -11051,7 +11059,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="H59" t="n">
         <v>5.75</v>
@@ -11060,7 +11068,7 @@
         <v>9.5</v>
       </c>
       <c r="J59" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="K59" t="n">
         <v>2.63</v>
@@ -11081,10 +11089,10 @@
         <v>5</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="R59" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="S59" t="n">
         <v>1.25</v>
@@ -11099,13 +11107,13 @@
         <v>1.73</v>
       </c>
       <c r="W59" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X59" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y59" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z59" t="n">
         <v>8</v>
@@ -11114,7 +11122,7 @@
         <v>11</v>
       </c>
       <c r="AB59" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC59" t="n">
         <v>17</v>
@@ -11132,7 +11140,7 @@
         <v>800</v>
       </c>
       <c r="AH59" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI59" t="n">
         <v>51</v>
@@ -11150,7 +11158,7 @@
         <v>51</v>
       </c>
       <c r="AN59" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AO59" t="n">
         <v>5.5</v>
@@ -11165,7 +11173,7 @@
         <v>34</v>
       </c>
       <c r="AS59" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT59" t="n">
         <v>3.75</v>
@@ -11180,7 +11188,7 @@
         <v>81</v>
       </c>
       <c r="AX59" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY59" t="n">
         <v>41</v>
@@ -11233,64 +11241,64 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="H60" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="J60" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K60" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L60" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N60" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="O60" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P60" t="n">
         <v>3.2</v>
       </c>
-      <c r="I60" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="J60" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="K60" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L60" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="M60" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N60" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="O60" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P60" t="n">
-        <v>3.3</v>
-      </c>
       <c r="Q60" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="R60" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S60" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="T60" t="n">
-        <v>2.67</v>
+        <v>2.62</v>
       </c>
       <c r="U60" t="n">
         <v>1.7</v>
       </c>
       <c r="V60" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="W60" t="n">
-        <v>10.25</v>
+        <v>9.25</v>
       </c>
       <c r="X60" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="Y60" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="Z60" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AA60" t="n">
         <v>27</v>
@@ -11299,46 +11307,46 @@
         <v>32</v>
       </c>
       <c r="AC60" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="AD60" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="AE60" t="n">
         <v>13</v>
       </c>
       <c r="AF60" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AG60" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AH60" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AI60" t="n">
-        <v>10.75</v>
+        <v>11.5</v>
       </c>
       <c r="AJ60" t="n">
         <v>8.75</v>
       </c>
       <c r="AK60" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL60" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AM60" t="n">
         <v>26</v>
       </c>
       <c r="AN60" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="AO60" t="n">
         <v>17.5</v>
       </c>
       <c r="AP60" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AQ60" t="n">
         <v>90</v>
@@ -11347,29 +11355,29 @@
         <v>120</v>
       </c>
       <c r="AS60" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AT60" t="n">
-        <v>2.67</v>
+        <v>2.62</v>
       </c>
       <c r="AU60" t="n">
         <v>6.9</v>
       </c>
       <c r="AV60" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AW60" t="inlineStr"/>
       <c r="AX60" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="AY60" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AZ60" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="BA60" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="BB60" t="n">
         <v>80</v>
@@ -11589,149 +11597,149 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="H62" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="I62" t="n">
-        <v>1.7</v>
+        <v>2.05</v>
       </c>
       <c r="J62" t="n">
-        <v>4.9</v>
+        <v>3.95</v>
       </c>
       <c r="K62" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="L62" t="n">
-        <v>2.27</v>
+        <v>2.7</v>
       </c>
       <c r="M62" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N62" t="n">
-        <v>7.2</v>
+        <v>6.4</v>
       </c>
       <c r="O62" t="n">
-        <v>1.31</v>
+        <v>1.4</v>
       </c>
       <c r="P62" t="n">
-        <v>3.15</v>
+        <v>2.72</v>
       </c>
       <c r="Q62" t="n">
-        <v>1.91</v>
+        <v>2.18</v>
       </c>
       <c r="R62" t="n">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="S62" t="n">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="T62" t="n">
-        <v>2.67</v>
+        <v>2.52</v>
       </c>
       <c r="U62" t="n">
-        <v>1.87</v>
+        <v>1.98</v>
       </c>
       <c r="V62" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="W62" t="n">
-        <v>11.75</v>
+        <v>8.5</v>
       </c>
       <c r="X62" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="Y62" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Z62" t="n">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="AA62" t="n">
+        <v>35</v>
+      </c>
+      <c r="AB62" t="n">
         <v>50</v>
       </c>
-      <c r="AB62" t="n">
-        <v>55</v>
-      </c>
       <c r="AC62" t="n">
-        <v>7.2</v>
+        <v>6.4</v>
       </c>
       <c r="AD62" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="AE62" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AF62" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AG62" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="AH62" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="AI62" t="n">
-        <v>7.7</v>
+        <v>9</v>
       </c>
       <c r="AJ62" t="n">
-        <v>8.25</v>
+        <v>9</v>
       </c>
       <c r="AK62" t="n">
-        <v>13</v>
+        <v>18.5</v>
       </c>
       <c r="AL62" t="n">
-        <v>13.5</v>
+        <v>18.5</v>
       </c>
       <c r="AM62" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="AN62" t="n">
-        <v>6.3</v>
+        <v>5.1</v>
       </c>
       <c r="AO62" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="AP62" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AQ62" t="n">
-        <v>175</v>
+        <v>100</v>
       </c>
       <c r="AR62" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="AS62" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AT62" t="n">
-        <v>2.67</v>
+        <v>2.52</v>
       </c>
       <c r="AU62" t="n">
         <v>7.8</v>
       </c>
       <c r="AV62" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AW62" t="inlineStr"/>
       <c r="AX62" t="n">
-        <v>3.5</v>
+        <v>3.85</v>
       </c>
       <c r="AY62" t="n">
-        <v>8.25</v>
+        <v>10.75</v>
       </c>
       <c r="AZ62" t="n">
-        <v>18.5</v>
+        <v>22</v>
       </c>
       <c r="BA62" t="n">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="BB62" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="BC62" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="BD62" t="inlineStr"/>
     </row>
@@ -11767,34 +11775,34 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="H63" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I63" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="J63" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="K63" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="L63" t="n">
-        <v>2.47</v>
+        <v>2.42</v>
       </c>
       <c r="M63" t="n">
         <v>1.08</v>
       </c>
       <c r="N63" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="O63" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P63" t="n">
-        <v>2.87</v>
+        <v>2.82</v>
       </c>
       <c r="Q63" t="n">
         <v>2.1</v>
@@ -11806,10 +11814,10 @@
         <v>1.42</v>
       </c>
       <c r="T63" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="U63" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="V63" t="n">
         <v>1.82</v>
@@ -11818,34 +11826,34 @@
         <v>10</v>
       </c>
       <c r="X63" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y63" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Z63" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AA63" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AB63" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AC63" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AD63" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="AE63" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AF63" t="n">
         <v>80</v>
       </c>
       <c r="AG63" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AH63" t="n">
         <v>6.4</v>
@@ -11854,7 +11862,7 @@
         <v>8.5</v>
       </c>
       <c r="AJ63" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AK63" t="n">
         <v>16.5</v>
@@ -11863,31 +11871,31 @@
         <v>16</v>
       </c>
       <c r="AM63" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN63" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO63" t="n">
+        <v>25</v>
+      </c>
+      <c r="AP63" t="n">
         <v>30</v>
       </c>
-      <c r="AN63" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AO63" t="n">
-        <v>23</v>
-      </c>
-      <c r="AP63" t="n">
-        <v>29</v>
-      </c>
       <c r="AQ63" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AR63" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AS63" t="n">
         <v>400</v>
       </c>
       <c r="AT63" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="AU63" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="AV63" t="n">
         <v>65</v>
@@ -11897,13 +11905,13 @@
         <v>3.75</v>
       </c>
       <c r="AY63" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AZ63" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="BA63" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="BB63" t="n">
         <v>65</v>
@@ -11945,22 +11953,22 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="H64" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I64" t="n">
-        <v>6.25</v>
+        <v>5.75</v>
       </c>
       <c r="J64" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="K64" t="n">
         <v>1.95</v>
       </c>
       <c r="L64" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="M64" t="n">
         <v>1.11</v>
@@ -11975,10 +11983,10 @@
         <v>2.5</v>
       </c>
       <c r="Q64" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R64" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S64" t="n">
         <v>1.57</v>
@@ -11987,25 +11995,25 @@
         <v>2.25</v>
       </c>
       <c r="U64" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V64" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="W64" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="X64" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Y64" t="n">
         <v>9.5</v>
       </c>
       <c r="Z64" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA64" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB64" t="n">
         <v>41</v>
@@ -12014,44 +12022,44 @@
         <v>6.5</v>
       </c>
       <c r="AD64" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE64" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF64" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AG64" t="inlineStr"/>
       <c r="AH64" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI64" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ64" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK64" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AL64" t="n">
         <v>51</v>
       </c>
       <c r="AM64" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN64" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AO64" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AP64" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ64" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR64" t="n">
         <v>67</v>
@@ -12063,28 +12071,28 @@
         <v>2.25</v>
       </c>
       <c r="AU64" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV64" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AW64" t="n">
         <v>81</v>
       </c>
       <c r="AX64" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AY64" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ64" t="n">
         <v>41</v>
       </c>
-      <c r="AZ64" t="n">
-        <v>51</v>
-      </c>
       <c r="BA64" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB64" t="n">
         <v>201</v>
-      </c>
-      <c r="BB64" t="n">
-        <v>251</v>
       </c>
       <c r="BC64" t="n">
         <v>81</v>
@@ -12125,22 +12133,22 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>2.02</v>
+        <v>1.85</v>
       </c>
       <c r="H65" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I65" t="n">
-        <v>3.15</v>
+        <v>3.6</v>
       </c>
       <c r="J65" t="n">
-        <v>2.55</v>
+        <v>2.37</v>
       </c>
       <c r="K65" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="L65" t="n">
-        <v>3.55</v>
+        <v>3.85</v>
       </c>
       <c r="M65" t="n">
         <v>1.03</v>
@@ -12149,52 +12157,52 @@
         <v>9</v>
       </c>
       <c r="O65" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P65" t="n">
-        <v>4.15</v>
+        <v>4.35</v>
       </c>
       <c r="Q65" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="R65" t="n">
-        <v>2.25</v>
+        <v>2.32</v>
       </c>
       <c r="S65" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="T65" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="U65" t="n">
         <v>1.52</v>
       </c>
       <c r="V65" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="W65" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="X65" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y65" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="Z65" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AA65" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AB65" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AC65" t="n">
         <v>9</v>
       </c>
       <c r="AD65" t="n">
-        <v>7.4</v>
+        <v>7.7</v>
       </c>
       <c r="AE65" t="n">
         <v>12</v>
@@ -12203,65 +12211,65 @@
         <v>40</v>
       </c>
       <c r="AG65" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AH65" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI65" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="AJ65" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK65" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="AL65" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AM65" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AN65" t="n">
-        <v>4.25</v>
+        <v>4.1</v>
       </c>
       <c r="AO65" t="n">
-        <v>10</v>
+        <v>9.25</v>
       </c>
       <c r="AP65" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AQ65" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="AR65" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AS65" t="n">
         <v>150</v>
       </c>
       <c r="AT65" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="AU65" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AV65" t="n">
         <v>45</v>
       </c>
       <c r="AW65" t="inlineStr"/>
       <c r="AX65" t="n">
-        <v>5.4</v>
+        <v>5.9</v>
       </c>
       <c r="AY65" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="AZ65" t="n">
         <v>21</v>
       </c>
       <c r="BA65" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="BB65" t="n">
         <v>90</v>
@@ -12303,13 +12311,13 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="H66" t="n">
         <v>3.65</v>
       </c>
       <c r="I66" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="J66" t="n">
         <v>2.45</v>
@@ -12327,40 +12335,40 @@
         <v>8.75</v>
       </c>
       <c r="O66" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P66" t="n">
-        <v>4.15</v>
+        <v>4.1</v>
       </c>
       <c r="Q66" t="n">
         <v>1.6</v>
       </c>
       <c r="R66" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="S66" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="T66" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="U66" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="V66" t="n">
         <v>2.32</v>
       </c>
       <c r="W66" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="X66" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="Y66" t="n">
         <v>8.25</v>
       </c>
       <c r="Z66" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AA66" t="n">
         <v>13.5</v>
@@ -12372,7 +12380,7 @@
         <v>8.75</v>
       </c>
       <c r="AD66" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AE66" t="n">
         <v>12</v>
@@ -12384,13 +12392,13 @@
         <v>250</v>
       </c>
       <c r="AH66" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AI66" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ66" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AK66" t="n">
         <v>50</v>
@@ -12399,10 +12407,10 @@
         <v>27</v>
       </c>
       <c r="AM66" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AN66" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="AO66" t="n">
         <v>9.5</v>
@@ -12420,10 +12428,10 @@
         <v>150</v>
       </c>
       <c r="AT66" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="AU66" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AV66" t="n">
         <v>45</v>
@@ -12436,7 +12444,7 @@
         <v>18.5</v>
       </c>
       <c r="AZ66" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BA66" t="n">
         <v>90</v>
@@ -12445,7 +12453,7 @@
         <v>100</v>
       </c>
       <c r="BC66" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BD66" t="inlineStr"/>
     </row>
@@ -12481,34 +12489,34 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="H67" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I67" t="n">
-        <v>5.7</v>
+        <v>6.7</v>
       </c>
       <c r="J67" t="n">
-        <v>2.07</v>
+        <v>1.98</v>
       </c>
       <c r="K67" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="L67" t="n">
-        <v>5.7</v>
+        <v>6.4</v>
       </c>
       <c r="M67" t="n">
         <v>1.05</v>
       </c>
       <c r="N67" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="O67" t="n">
         <v>1.27</v>
       </c>
       <c r="P67" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="Q67" t="n">
         <v>1.8</v>
@@ -12520,76 +12528,76 @@
         <v>1.39</v>
       </c>
       <c r="T67" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="U67" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="V67" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W67" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="X67" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="Y67" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="Z67" t="n">
-        <v>10.5</v>
+        <v>9.75</v>
       </c>
       <c r="AA67" t="n">
         <v>12</v>
       </c>
       <c r="AB67" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AC67" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AD67" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AE67" t="n">
-        <v>18</v>
+        <v>19.5</v>
       </c>
       <c r="AF67" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AG67" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="AH67" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AI67" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AJ67" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AK67" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="AL67" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AM67" t="n">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AN67" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="AO67" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="AP67" t="n">
         <v>17.5</v>
       </c>
       <c r="AQ67" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR67" t="n">
         <v>55</v>
@@ -12598,29 +12606,29 @@
         <v>250</v>
       </c>
       <c r="AT67" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="AU67" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV67" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AW67" t="inlineStr"/>
       <c r="AX67" t="n">
-        <v>7.1</v>
+        <v>7.8</v>
       </c>
       <c r="AY67" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AZ67" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="BA67" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BB67" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="BC67" t="n">
         <v>500</v>
@@ -12659,16 +12667,16 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H68" t="n">
         <v>3.5</v>
       </c>
       <c r="I68" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J68" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K68" t="n">
         <v>2.2</v>
@@ -12677,10 +12685,10 @@
         <v>4</v>
       </c>
       <c r="M68" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N68" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O68" t="n">
         <v>1.29</v>
@@ -12689,10 +12697,10 @@
         <v>3.5</v>
       </c>
       <c r="Q68" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R68" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S68" t="n">
         <v>1.4</v>
@@ -12710,13 +12718,13 @@
         <v>7.5</v>
       </c>
       <c r="X68" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y68" t="n">
         <v>9</v>
       </c>
       <c r="Z68" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA68" t="n">
         <v>17</v>
@@ -12743,10 +12751,10 @@
         <v>11</v>
       </c>
       <c r="AI68" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ68" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK68" t="n">
         <v>41</v>
@@ -12791,7 +12799,7 @@
         <v>5.5</v>
       </c>
       <c r="AY68" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ68" t="n">
         <v>29</v>
@@ -12841,22 +12849,22 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="H69" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="I69" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="J69" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="K69" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L69" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M69" t="n">
         <v>1.05</v>
@@ -12871,10 +12879,10 @@
         <v>3.75</v>
       </c>
       <c r="Q69" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="R69" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S69" t="n">
         <v>1.36</v>
@@ -12883,10 +12891,10 @@
         <v>3</v>
       </c>
       <c r="U69" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V69" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W69" t="n">
         <v>6</v>
@@ -12898,7 +12906,7 @@
         <v>9</v>
       </c>
       <c r="Z69" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA69" t="n">
         <v>13</v>
@@ -12910,28 +12918,28 @@
         <v>10</v>
       </c>
       <c r="AD69" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AE69" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF69" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG69" t="n">
         <v>800</v>
       </c>
       <c r="AH69" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI69" t="n">
         <v>41</v>
       </c>
       <c r="AJ69" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AK69" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AL69" t="n">
         <v>67</v>
@@ -12940,7 +12948,7 @@
         <v>67</v>
       </c>
       <c r="AN69" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AO69" t="n">
         <v>6.5</v>
@@ -12961,28 +12969,28 @@
         <v>3</v>
       </c>
       <c r="AU69" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV69" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW69" t="n">
         <v>126</v>
       </c>
       <c r="AX69" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AY69" t="n">
         <v>41</v>
       </c>
       <c r="AZ69" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA69" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BB69" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC69" t="n">
         <v>126</v>
@@ -13044,7 +13052,7 @@
         <v>1.04</v>
       </c>
       <c r="N70" t="n">
-        <v>9.25</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="O70" t="n">
         <v>1.35</v>

--- a/Jogos_da_Semana_FlashScore_2024-11-29.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-29.xlsx
@@ -1285,22 +1285,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H5" t="n">
         <v>3.2</v>
       </c>
       <c r="I5" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J5" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K5" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L5" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M5" t="n">
         <v>1.08</v>
@@ -1321,19 +1321,19 @@
         <v>1.62</v>
       </c>
       <c r="S5" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T5" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U5" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V5" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W5" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X5" t="n">
         <v>11</v>
@@ -1351,7 +1351,7 @@
         <v>34</v>
       </c>
       <c r="AC5" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD5" t="n">
         <v>6</v>
@@ -1363,7 +1363,7 @@
         <v>51</v>
       </c>
       <c r="AG5" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH5" t="n">
         <v>8.5</v>
@@ -1372,22 +1372,22 @@
         <v>15</v>
       </c>
       <c r="AJ5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL5" t="n">
         <v>26</v>
       </c>
       <c r="AM5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN5" t="n">
         <v>4.33</v>
       </c>
       <c r="AO5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP5" t="n">
         <v>26</v>
@@ -1402,17 +1402,17 @@
         <v>201</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU5" t="n">
         <v>8.5</v>
       </c>
       <c r="AV5" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW5" t="inlineStr"/>
       <c r="AX5" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AY5" t="n">
         <v>17</v>
@@ -1427,7 +1427,7 @@
         <v>81</v>
       </c>
       <c r="BC5" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BD5" t="inlineStr"/>
     </row>
@@ -1481,10 +1481,10 @@
         <v>2.1</v>
       </c>
       <c r="M6" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O6" t="n">
         <v>1.36</v>
@@ -1496,7 +1496,7 @@
         <v>2.2</v>
       </c>
       <c r="R6" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S6" t="n">
         <v>1.5</v>
@@ -1669,7 +1669,7 @@
         <v>5</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R7" t="n">
         <v>2.3</v>
@@ -1968,7 +1968,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>zwFd5d05</t>
+          <t>UPa7e1IO</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1978,179 +1978,179 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>00:10</t>
+          <t>11:25</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA MX</t>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Monterrey</t>
+          <t>Al Qadisiya</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>U.N.A.M.- Pumas</t>
+          <t>Al Khaleej</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.05</v>
+        <v>1.57</v>
       </c>
       <c r="H9" t="n">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="I9" t="n">
-        <v>3.9</v>
+        <v>4.75</v>
       </c>
       <c r="J9" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L9" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N9" t="n">
+        <v>11</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T9" t="n">
         <v>2.75</v>
       </c>
-      <c r="K9" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L9" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N9" t="n">
-        <v>8</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P9" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.63</v>
-      </c>
       <c r="U9" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V9" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W9" t="n">
         <v>6.5</v>
       </c>
       <c r="X9" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="Y9" t="n">
         <v>9</v>
       </c>
       <c r="Z9" t="n">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AA9" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AB9" t="n">
         <v>29</v>
       </c>
       <c r="AC9" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD9" t="n">
         <v>8</v>
       </c>
-      <c r="AD9" t="n">
-        <v>6</v>
-      </c>
       <c r="AE9" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AF9" t="n">
         <v>51</v>
       </c>
       <c r="AG9" t="n">
-        <v>351</v>
+        <v>800</v>
       </c>
       <c r="AH9" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AI9" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AJ9" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AK9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL9" t="n">
         <v>41</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>34</v>
       </c>
       <c r="AM9" t="n">
         <v>41</v>
       </c>
       <c r="AN9" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="AO9" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AP9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ9" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AR9" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS9" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU9" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV9" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW9" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="AX9" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="AY9" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AZ9" t="n">
         <v>34</v>
       </c>
       <c r="BA9" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BB9" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC9" t="n">
-        <v>251</v>
+        <v>500</v>
       </c>
       <c r="BD9" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>UPa7e1IO</t>
+          <t>rTPtA0XH</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2160,7 +2160,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>11:25</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -2170,133 +2170,133 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Al Qadisiya</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Al Khaleej</t>
+          <t>Damac</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.57</v>
+        <v>1.25</v>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>6.25</v>
       </c>
       <c r="I10" t="n">
-        <v>4.75</v>
+        <v>8</v>
       </c>
       <c r="J10" t="n">
-        <v>2.1</v>
+        <v>1.62</v>
       </c>
       <c r="K10" t="n">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="L10" t="n">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="M10" t="n">
         <v>1.02</v>
       </c>
       <c r="N10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O10" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="P10" t="n">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="R10" t="n">
-        <v>1.9</v>
+        <v>2.75</v>
       </c>
       <c r="S10" t="n">
-        <v>1.4</v>
+        <v>1.22</v>
       </c>
       <c r="T10" t="n">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="U10" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="V10" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="W10" t="n">
-        <v>6.5</v>
+        <v>10</v>
       </c>
       <c r="X10" t="n">
         <v>7.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z10" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AA10" t="n">
         <v>11</v>
       </c>
-      <c r="AA10" t="n">
+      <c r="AB10" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD10" t="n">
         <v>13</v>
       </c>
-      <c r="AB10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>8</v>
-      </c>
       <c r="AE10" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AF10" t="n">
         <v>51</v>
       </c>
       <c r="AG10" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="AH10" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="AI10" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AJ10" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AK10" t="n">
+        <v>101</v>
+      </c>
+      <c r="AL10" t="n">
         <v>51</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>41</v>
       </c>
       <c r="AM10" t="n">
         <v>41</v>
       </c>
       <c r="AN10" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO10" t="n">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="AP10" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AQ10" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="AR10" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AS10" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="AU10" t="n">
         <v>9</v>
@@ -2308,19 +2308,19 @@
         <v>81</v>
       </c>
       <c r="AX10" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AY10" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AZ10" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BA10" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BB10" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC10" t="n">
         <v>500</v>
@@ -2332,7 +2332,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>rTPtA0XH</t>
+          <t>zgRmmLkg</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2342,179 +2342,175 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>SERBIA - SUPER LIGA</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Novi Pazar</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Damac</t>
+          <t>Vojvodina</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.25</v>
+        <v>3.25</v>
       </c>
       <c r="H11" t="n">
-        <v>6.25</v>
+        <v>3.15</v>
       </c>
       <c r="I11" t="n">
-        <v>8</v>
+        <v>2.1</v>
       </c>
       <c r="J11" t="n">
-        <v>1.62</v>
+        <v>3.85</v>
       </c>
       <c r="K11" t="n">
-        <v>2.75</v>
+        <v>2.02</v>
       </c>
       <c r="L11" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N11" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U11" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="V11" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="W11" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="X11" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>45</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>35</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>450</v>
+      </c>
+      <c r="AH11" t="n">
         <v>7.5</v>
       </c>
-      <c r="M11" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N11" t="n">
-        <v>12</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P11" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="R11" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="T11" t="n">
-        <v>4</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W11" t="n">
-        <v>10</v>
-      </c>
-      <c r="X11" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z11" t="n">
+      <c r="AI11" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AJ11" t="n">
         <v>8.5</v>
       </c>
-      <c r="AA11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC11" t="n">
+      <c r="AK11" t="n">
         <v>21</v>
       </c>
-      <c r="AD11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>700</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>101</v>
-      </c>
       <c r="AL11" t="n">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="AM11" t="n">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="AN11" t="n">
-        <v>3.5</v>
+        <v>5.2</v>
       </c>
       <c r="AO11" t="n">
-        <v>5.5</v>
+        <v>18.5</v>
       </c>
       <c r="AP11" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="AQ11" t="n">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="AR11" t="n">
-        <v>34</v>
+        <v>120</v>
       </c>
       <c r="AS11" t="n">
-        <v>101</v>
+        <v>300</v>
       </c>
       <c r="AT11" t="n">
-        <v>4</v>
+        <v>2.6</v>
       </c>
       <c r="AU11" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AV11" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>81</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="AW11" t="inlineStr"/>
       <c r="AX11" t="n">
-        <v>10</v>
+        <v>4.05</v>
       </c>
       <c r="AY11" t="n">
-        <v>41</v>
+        <v>11.5</v>
       </c>
       <c r="AZ11" t="n">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="BA11" t="n">
-        <v>151</v>
+        <v>45</v>
       </c>
       <c r="BB11" t="n">
-        <v>151</v>
+        <v>80</v>
       </c>
       <c r="BC11" t="n">
-        <v>450</v>
-      </c>
-      <c r="BD11" t="n">
-        <v>81</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="BD11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>zgRmmLkg</t>
+          <t>tfYvksLt</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2524,7 +2520,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -2534,158 +2530,158 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Novi Pazar</t>
+          <t>Cukaricki</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Vojvodina</t>
+          <t>Sp. Subotica</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>3.25</v>
+        <v>1.6</v>
       </c>
       <c r="H12" t="n">
-        <v>3.15</v>
+        <v>3.55</v>
       </c>
       <c r="I12" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="L12" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N12" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="U12" t="n">
         <v>2.1</v>
       </c>
-      <c r="J12" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="K12" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="L12" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N12" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="P12" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T12" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.72</v>
-      </c>
       <c r="V12" t="n">
-        <v>2.02</v>
+        <v>1.65</v>
       </c>
       <c r="W12" t="n">
-        <v>10.25</v>
+        <v>5.7</v>
       </c>
       <c r="X12" t="n">
-        <v>18.5</v>
+        <v>6.7</v>
       </c>
       <c r="Y12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z12" t="n">
         <v>11.25</v>
       </c>
-      <c r="Z12" t="n">
-        <v>45</v>
-      </c>
       <c r="AA12" t="n">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="AB12" t="n">
         <v>35</v>
       </c>
       <c r="AC12" t="n">
-        <v>7.1</v>
+        <v>6.7</v>
       </c>
       <c r="AD12" t="n">
-        <v>6.2</v>
+        <v>7.2</v>
       </c>
       <c r="AE12" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AF12" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="AG12" t="n">
-        <v>450</v>
+        <v>800</v>
       </c>
       <c r="AH12" t="n">
-        <v>7.5</v>
+        <v>12</v>
       </c>
       <c r="AI12" t="n">
-        <v>10.5</v>
+        <v>30</v>
       </c>
       <c r="AJ12" t="n">
-        <v>8.5</v>
+        <v>18.5</v>
       </c>
       <c r="AK12" t="n">
-        <v>21</v>
+        <v>110</v>
       </c>
       <c r="AL12" t="n">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="AM12" t="n">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="AN12" t="n">
-        <v>5.2</v>
+        <v>3.3</v>
       </c>
       <c r="AO12" t="n">
-        <v>18.5</v>
+        <v>7.6</v>
       </c>
       <c r="AP12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ12" t="n">
         <v>25</v>
       </c>
-      <c r="AQ12" t="n">
-        <v>100</v>
-      </c>
       <c r="AR12" t="n">
-        <v>120</v>
+        <v>65</v>
       </c>
       <c r="AS12" t="n">
         <v>300</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="AU12" t="n">
-        <v>7</v>
+        <v>8.25</v>
       </c>
       <c r="AV12" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="AW12" t="inlineStr"/>
       <c r="AX12" t="n">
-        <v>4.05</v>
+        <v>6.9</v>
       </c>
       <c r="AY12" t="n">
-        <v>11.5</v>
+        <v>35</v>
       </c>
       <c r="AZ12" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="BA12" t="n">
-        <v>45</v>
+        <v>250</v>
       </c>
       <c r="BB12" t="n">
-        <v>80</v>
+        <v>300</v>
       </c>
       <c r="BC12" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="BD12" t="inlineStr"/>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-29.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-29.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD14"/>
+  <dimension ref="A1:BD26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -768,7 +768,7 @@
         <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O2" t="n">
         <v>1.08</v>
@@ -900,7 +900,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>bRGNaaX8</t>
+          <t>OnXqW6CD</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -910,175 +910,179 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>AZERBAIJAN - PREMIER LEAGUE</t>
+          <t>AUSTRIA - 2. LIGA</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Araz</t>
+          <t>ASK Voitsberg</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Turan</t>
+          <t>A. Lustenau</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.47</v>
+        <v>2.7</v>
       </c>
       <c r="H3" t="n">
-        <v>2.9</v>
+        <v>3.45</v>
       </c>
       <c r="I3" t="n">
-        <v>2.95</v>
+        <v>2.37</v>
       </c>
       <c r="J3" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="K3" t="n">
-        <v>1.91</v>
+        <v>2.12</v>
       </c>
       <c r="L3" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="M3" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>6.95</v>
+        <v>7.5</v>
       </c>
       <c r="O3" t="n">
-        <v>1.47</v>
+        <v>1.3</v>
       </c>
       <c r="P3" t="n">
-        <v>2.32</v>
+        <v>3.25</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.35</v>
+        <v>1.87</v>
       </c>
       <c r="R3" t="n">
-        <v>1.47</v>
+        <v>1.83</v>
       </c>
       <c r="S3" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="T3" t="n">
-        <v>2.25</v>
+        <v>2.7</v>
       </c>
       <c r="U3" t="n">
-        <v>1.98</v>
+        <v>1.72</v>
       </c>
       <c r="V3" t="n">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="W3" t="n">
-        <v>6.4</v>
+        <v>9</v>
       </c>
       <c r="X3" t="n">
-        <v>11</v>
+        <v>13.5</v>
       </c>
       <c r="Y3" t="n">
         <v>10</v>
       </c>
       <c r="Z3" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AA3" t="n">
+        <v>22</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>65</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>500</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AK3" t="n">
         <v>24</v>
       </c>
-      <c r="AB3" t="n">
-        <v>40</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>110</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>900</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>7</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>37</v>
-      </c>
       <c r="AL3" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="AM3" t="n">
-        <v>50</v>
+        <v>29</v>
       </c>
       <c r="AN3" t="n">
-        <v>4.15</v>
+        <v>4.6</v>
       </c>
       <c r="AO3" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AP3" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AQ3" t="n">
         <v>65</v>
       </c>
       <c r="AR3" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AS3" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.22</v>
+        <v>2.7</v>
       </c>
       <c r="AU3" t="n">
-        <v>7.5</v>
+        <v>7.3</v>
       </c>
       <c r="AV3" t="n">
-        <v>80</v>
-      </c>
-      <c r="AW3" t="inlineStr"/>
+        <v>70</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>81</v>
+      </c>
       <c r="AX3" t="n">
-        <v>4.65</v>
+        <v>4.3</v>
       </c>
       <c r="AY3" t="n">
-        <v>17</v>
+        <v>12.5</v>
       </c>
       <c r="AZ3" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="BA3" t="n">
+        <v>55</v>
+      </c>
+      <c r="BB3" t="n">
         <v>90</v>
       </c>
-      <c r="BB3" t="n">
-        <v>150</v>
-      </c>
       <c r="BC3" t="n">
-        <v>450</v>
-      </c>
-      <c r="BD3" t="inlineStr"/>
+        <v>300</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>fgAWcw2L</t>
+          <t>j5RAJTS7</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1088,175 +1092,179 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>AZERBAIJAN - PREMIER LEAGUE</t>
+          <t>AUSTRIA - 2. LIGA</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Sabah Baku</t>
+          <t>Horn</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Sabail</t>
+          <t>Admira</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.35</v>
+        <v>6</v>
       </c>
       <c r="H4" t="n">
-        <v>4.35</v>
+        <v>4.1</v>
       </c>
       <c r="I4" t="n">
-        <v>8.25</v>
+        <v>1.5</v>
       </c>
       <c r="J4" t="n">
-        <v>1.83</v>
+        <v>5.7</v>
       </c>
       <c r="K4" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="L4" t="n">
-        <v>7.2</v>
+        <v>2.02</v>
       </c>
       <c r="M4" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="O4" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="P4" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="R4" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S4" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="T4" t="n">
-        <v>3.04</v>
+        <v>2.87</v>
       </c>
       <c r="U4" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="V4" t="n">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="W4" t="n">
-        <v>6.7</v>
+        <v>16.5</v>
       </c>
       <c r="X4" t="n">
-        <v>6.4</v>
+        <v>37</v>
       </c>
       <c r="Y4" t="n">
-        <v>8.25</v>
+        <v>18.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>8.5</v>
+        <v>120</v>
       </c>
       <c r="AA4" t="n">
-        <v>11.25</v>
+        <v>60</v>
       </c>
       <c r="AB4" t="n">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="AC4" t="n">
-        <v>11.5</v>
+        <v>8</v>
       </c>
       <c r="AD4" t="n">
-        <v>8.75</v>
+        <v>8</v>
       </c>
       <c r="AE4" t="n">
-        <v>21</v>
+        <v>17.5</v>
       </c>
       <c r="AF4" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AG4" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="AH4" t="n">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="AI4" t="n">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="AJ4" t="n">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="AK4" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>35</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>37</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>200</v>
+      </c>
+      <c r="AR4" t="n">
         <v>250</v>
       </c>
-      <c r="AL4" t="n">
-        <v>100</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>90</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>45</v>
-      </c>
       <c r="AS4" t="n">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="AT4" t="n">
         <v>2.87</v>
       </c>
       <c r="AU4" t="n">
-        <v>8.5</v>
+        <v>7.9</v>
       </c>
       <c r="AV4" t="n">
-        <v>80</v>
-      </c>
-      <c r="AW4" t="inlineStr"/>
+        <v>75</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>81</v>
+      </c>
       <c r="AX4" t="n">
-        <v>8.75</v>
+        <v>3.35</v>
       </c>
       <c r="AY4" t="n">
-        <v>50</v>
+        <v>7.1</v>
       </c>
       <c r="AZ4" t="n">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="BA4" t="n">
-        <v>400</v>
+        <v>22</v>
       </c>
       <c r="BB4" t="n">
-        <v>350</v>
+        <v>55</v>
       </c>
       <c r="BC4" t="n">
-        <v>500</v>
-      </c>
-      <c r="BD4" t="inlineStr"/>
+        <v>250</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UeO41czg</t>
+          <t>zR02llSs</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1266,175 +1274,179 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>09:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>BULGARIA - PARVA LIGA</t>
+          <t>AUSTRIA - 2. LIGA</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Spartak Varna</t>
+          <t>St. Polten</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>CSKA 1948 Sofia</t>
+          <t>Lafnitz</t>
         </is>
       </c>
       <c r="G5" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L5" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N5" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="P5" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R5" t="n">
         <v>2.4</v>
       </c>
-      <c r="H5" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I5" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2</v>
-      </c>
-      <c r="L5" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N5" t="n">
-        <v>8</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.62</v>
-      </c>
       <c r="S5" t="n">
-        <v>1.5</v>
+        <v>1.28</v>
       </c>
       <c r="T5" t="n">
-        <v>2.5</v>
+        <v>3.35</v>
       </c>
       <c r="U5" t="n">
-        <v>1.91</v>
+        <v>1.65</v>
       </c>
       <c r="V5" t="n">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="W5" t="n">
-        <v>7</v>
+        <v>9.25</v>
       </c>
       <c r="X5" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Z5" t="n">
         <v>11</v>
       </c>
-      <c r="Y5" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>23</v>
-      </c>
       <c r="AA5" t="n">
-        <v>21</v>
+        <v>10.75</v>
       </c>
       <c r="AB5" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="AC5" t="n">
-        <v>8</v>
+        <v>9.25</v>
       </c>
       <c r="AD5" t="n">
-        <v>6</v>
+        <v>9.25</v>
       </c>
       <c r="AE5" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AF5" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="AG5" t="n">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="AH5" t="n">
-        <v>8.5</v>
+        <v>19.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="AJ5" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AK5" t="n">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="AL5" t="n">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="AM5" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AN5" t="n">
-        <v>4.33</v>
+        <v>3.55</v>
       </c>
       <c r="AO5" t="n">
-        <v>13</v>
+        <v>6.8</v>
       </c>
       <c r="AP5" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="AQ5" t="n">
-        <v>51</v>
+        <v>18.5</v>
       </c>
       <c r="AR5" t="n">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="AS5" t="n">
-        <v>201</v>
+        <v>150</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.5</v>
+        <v>3.35</v>
       </c>
       <c r="AU5" t="n">
-        <v>8.5</v>
+        <v>7.4</v>
       </c>
       <c r="AV5" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW5" t="inlineStr"/>
+        <v>55</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>81</v>
+      </c>
       <c r="AX5" t="n">
-        <v>5</v>
+        <v>7.2</v>
       </c>
       <c r="AY5" t="n">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="AZ5" t="n">
         <v>29</v>
       </c>
       <c r="BA5" t="n">
-        <v>51</v>
+        <v>150</v>
       </c>
       <c r="BB5" t="n">
+        <v>150</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>300</v>
+      </c>
+      <c r="BD5" t="n">
         <v>81</v>
       </c>
-      <c r="BC5" t="n">
-        <v>251</v>
-      </c>
-      <c r="BD5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CpP3AhJN</t>
+          <t>GMTyYSs1</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1444,173 +1456,179 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>12:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>BULGARIA - PARVA LIGA</t>
+          <t>AUSTRIA - 2. LIGA</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Septemvri Sofia</t>
+          <t>Stripfing</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Cherno More</t>
+          <t>SK Rapid II</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>6</v>
+        <v>2.92</v>
       </c>
       <c r="H6" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="I6" t="n">
-        <v>1.53</v>
+        <v>2.18</v>
       </c>
       <c r="J6" t="n">
-        <v>7</v>
+        <v>3.4</v>
       </c>
       <c r="K6" t="n">
-        <v>2.1</v>
+        <v>2.22</v>
       </c>
       <c r="L6" t="n">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="M6" t="n">
-        <v>1.07</v>
+        <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="O6" t="n">
-        <v>1.36</v>
+        <v>1.23</v>
       </c>
       <c r="P6" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R6" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="T6" t="n">
         <v>3</v>
       </c>
-      <c r="Q6" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.5</v>
-      </c>
       <c r="U6" t="n">
-        <v>2.38</v>
+        <v>1.6</v>
       </c>
       <c r="V6" t="n">
-        <v>1.53</v>
+        <v>2.18</v>
       </c>
       <c r="W6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X6" t="n">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="Y6" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>35</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>28</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>50</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>300</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AK6" t="n">
         <v>21</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="AL6" t="n">
+        <v>16</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>70</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>90</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>55</v>
+      </c>
+      <c r="AW6" t="n">
         <v>81</v>
       </c>
-      <c r="AA6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF6" t="n">
+      <c r="AX6" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>40</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>65</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>200</v>
+      </c>
+      <c r="BD6" t="n">
         <v>81</v>
       </c>
-      <c r="AG6" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>6</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>8</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AP6" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>151</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>201</v>
-      </c>
-      <c r="AS6" t="inlineStr"/>
-      <c r="AT6" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU6" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV6" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW6" t="inlineStr"/>
-      <c r="AX6" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AY6" t="n">
-        <v>8</v>
-      </c>
-      <c r="AZ6" t="n">
-        <v>23</v>
-      </c>
-      <c r="BA6" t="n">
-        <v>26</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>51</v>
-      </c>
-      <c r="BC6" t="n">
-        <v>201</v>
-      </c>
-      <c r="BD6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>xxIbLO8d</t>
+          <t>bRGNaaX8</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1620,177 +1638,175 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>INDIA - ISL</t>
+          <t>AZERBAIJAN - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>East Bengal</t>
+          <t>Araz</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>North East Utd</t>
+          <t>Turan</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>3.1</v>
+        <v>2.52</v>
       </c>
       <c r="H7" t="n">
-        <v>3.3</v>
+        <v>2.8</v>
       </c>
       <c r="I7" t="n">
+        <v>3</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L7" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N7" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="P7" t="n">
         <v>2.15</v>
       </c>
-      <c r="J7" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L7" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N7" t="n">
-        <v>15</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P7" t="n">
-        <v>5</v>
-      </c>
       <c r="Q7" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="S7" t="n">
         <v>1.57</v>
       </c>
-      <c r="R7" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.3</v>
-      </c>
       <c r="T7" t="n">
-        <v>3.4</v>
+        <v>2.12</v>
       </c>
       <c r="U7" t="n">
-        <v>1.5</v>
+        <v>2.07</v>
       </c>
       <c r="V7" t="n">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="W7" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="X7" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>27</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>50</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AE7" t="n">
         <v>19</v>
       </c>
-      <c r="Y7" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>11</v>
-      </c>
       <c r="AF7" t="n">
-        <v>34</v>
+        <v>120</v>
       </c>
       <c r="AG7" t="n">
-        <v>101</v>
+        <v>900</v>
       </c>
       <c r="AH7" t="n">
-        <v>11</v>
+        <v>6.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AJ7" t="n">
-        <v>9.5</v>
+        <v>11.75</v>
       </c>
       <c r="AK7" t="n">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="AL7" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="AM7" t="n">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="AN7" t="n">
-        <v>5.5</v>
+        <v>4.15</v>
       </c>
       <c r="AO7" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AP7" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="AQ7" t="n">
-        <v>51</v>
+        <v>70</v>
       </c>
       <c r="AR7" t="n">
-        <v>51</v>
+        <v>120</v>
       </c>
       <c r="AS7" t="n">
-        <v>126</v>
+        <v>450</v>
       </c>
       <c r="AT7" t="n">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="AU7" t="n">
-        <v>7</v>
+        <v>7.9</v>
       </c>
       <c r="AV7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW7" t="n">
+        <v>100</v>
+      </c>
+      <c r="AW7" t="inlineStr"/>
+      <c r="AX7" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>32</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>100</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>175</v>
+      </c>
+      <c r="BC7" t="n">
         <v>500</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AY7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AZ7" t="n">
-        <v>19</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>41</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>51</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>101</v>
       </c>
       <c r="BD7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>zoumKicf</t>
+          <t>fgAWcw2L</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1800,175 +1816,175 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>ISRAEL - LIGAT HA'AL</t>
+          <t>AZERBAIJAN - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Kiryat Shmona</t>
+          <t>Sabah Baku</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Hapoel Haifa</t>
+          <t>Sabail</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.6</v>
+        <v>1.35</v>
       </c>
       <c r="H8" t="n">
-        <v>3.2</v>
+        <v>4.35</v>
       </c>
       <c r="I8" t="n">
-        <v>2.5</v>
+        <v>8.25</v>
       </c>
       <c r="J8" t="n">
-        <v>3.4</v>
+        <v>1.83</v>
       </c>
       <c r="K8" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="L8" t="n">
-        <v>3.25</v>
+        <v>7.2</v>
       </c>
       <c r="M8" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>9.5</v>
+        <v>8.1</v>
       </c>
       <c r="O8" t="n">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="P8" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.05</v>
+        <v>1.65</v>
       </c>
       <c r="R8" t="n">
-        <v>1.8</v>
+        <v>1.98</v>
       </c>
       <c r="S8" t="n">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="T8" t="n">
-        <v>2.63</v>
+        <v>3.04</v>
       </c>
       <c r="U8" t="n">
-        <v>1.8</v>
+        <v>1.93</v>
       </c>
       <c r="V8" t="n">
-        <v>1.91</v>
+        <v>1.7</v>
       </c>
       <c r="W8" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="X8" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Z8" t="n">
         <v>8.5</v>
       </c>
-      <c r="X8" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>26</v>
-      </c>
       <c r="AA8" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>28</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AE8" t="n">
         <v>21</v>
       </c>
-      <c r="AB8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>15</v>
-      </c>
       <c r="AF8" t="n">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="AG8" t="n">
-        <v>251</v>
+        <v>800</v>
       </c>
       <c r="AH8" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>250</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>100</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>90</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>45</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT8" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AU8" t="n">
         <v>8.5</v>
       </c>
-      <c r="AI8" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP8" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ8" t="n">
-        <v>51</v>
-      </c>
-      <c r="AR8" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS8" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT8" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU8" t="n">
-        <v>8</v>
-      </c>
       <c r="AV8" t="n">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="AW8" t="inlineStr"/>
       <c r="AX8" t="n">
-        <v>4.5</v>
+        <v>8.75</v>
       </c>
       <c r="AY8" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="AZ8" t="n">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="BA8" t="n">
-        <v>51</v>
+        <v>400</v>
       </c>
       <c r="BB8" t="n">
-        <v>67</v>
+        <v>350</v>
       </c>
       <c r="BC8" t="n">
-        <v>151</v>
+        <v>500</v>
       </c>
       <c r="BD8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>UPa7e1IO</t>
+          <t>UeO41czg</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1978,179 +1994,175 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>11:25</t>
+          <t>09:30</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>BULGARIA - PARVA LIGA</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Al Qadisiya</t>
+          <t>Spartak Varna</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Al Khaleej</t>
+          <t>CSKA 1948 Sofia</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.57</v>
+        <v>2.35</v>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="I9" t="n">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="J9" t="n">
-        <v>2.1</v>
+        <v>3.1</v>
       </c>
       <c r="K9" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="L9" t="n">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="M9" t="n">
-        <v>1.02</v>
+        <v>1.07</v>
       </c>
       <c r="N9" t="n">
+        <v>9</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W9" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X9" t="n">
         <v>11</v>
       </c>
-      <c r="O9" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P9" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U9" t="n">
-        <v>2</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="W9" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="X9" t="n">
-        <v>7.5</v>
-      </c>
       <c r="Y9" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AA9" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AB9" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC9" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AE9" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AF9" t="n">
         <v>51</v>
       </c>
       <c r="AG9" t="n">
-        <v>800</v>
+        <v>301</v>
       </c>
       <c r="AH9" t="n">
-        <v>13</v>
+        <v>8.5</v>
       </c>
       <c r="AI9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL9" t="n">
         <v>26</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>41</v>
       </c>
       <c r="AM9" t="n">
         <v>41</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.6</v>
+        <v>4.33</v>
       </c>
       <c r="AO9" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AP9" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AQ9" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AR9" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS9" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU9" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV9" t="n">
         <v>51</v>
       </c>
-      <c r="AW9" t="n">
+      <c r="AW9" t="inlineStr"/>
+      <c r="AX9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB9" t="n">
         <v>81</v>
       </c>
-      <c r="AX9" t="n">
-        <v>7</v>
-      </c>
-      <c r="AY9" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>34</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>126</v>
-      </c>
       <c r="BC9" t="n">
-        <v>500</v>
-      </c>
-      <c r="BD9" t="n">
-        <v>81</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="BD9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>rTPtA0XH</t>
+          <t>CpP3AhJN</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -2160,179 +2172,173 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>12:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>BULGARIA - PARVA LIGA</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>Septemvri Sofia</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Damac</t>
+          <t>Cherno More</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.25</v>
+        <v>6.25</v>
       </c>
       <c r="H10" t="n">
-        <v>6.25</v>
+        <v>4.1</v>
       </c>
       <c r="I10" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="J10" t="n">
+        <v>7</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N10" t="n">
         <v>8</v>
       </c>
-      <c r="J10" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="L10" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N10" t="n">
-        <v>12</v>
-      </c>
       <c r="O10" t="n">
-        <v>1.13</v>
+        <v>1.36</v>
       </c>
       <c r="P10" t="n">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="R10" t="n">
-        <v>2.75</v>
+        <v>1.65</v>
       </c>
       <c r="S10" t="n">
-        <v>1.22</v>
+        <v>1.5</v>
       </c>
       <c r="T10" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="U10" t="n">
-        <v>1.83</v>
+        <v>2.38</v>
       </c>
       <c r="V10" t="n">
-        <v>1.83</v>
+        <v>1.53</v>
       </c>
       <c r="W10" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="X10" t="n">
-        <v>7.5</v>
+        <v>34</v>
       </c>
       <c r="Y10" t="n">
-        <v>9.5</v>
+        <v>21</v>
       </c>
       <c r="Z10" t="n">
-        <v>8.5</v>
+        <v>81</v>
       </c>
       <c r="AA10" t="n">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="AB10" t="n">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="AC10" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="AD10" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AE10" t="n">
         <v>23</v>
       </c>
       <c r="AF10" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>151</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>201</v>
+      </c>
+      <c r="AS10" t="inlineStr"/>
+      <c r="AT10" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW10" t="inlineStr"/>
+      <c r="AX10" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>23</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>26</v>
+      </c>
+      <c r="BB10" t="n">
         <v>51</v>
       </c>
-      <c r="AG10" t="n">
-        <v>600</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>26</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>101</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO10" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AP10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>13</v>
-      </c>
-      <c r="AR10" t="n">
-        <v>34</v>
-      </c>
-      <c r="AS10" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT10" t="n">
-        <v>4</v>
-      </c>
-      <c r="AU10" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV10" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW10" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX10" t="n">
-        <v>10</v>
-      </c>
-      <c r="AY10" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA10" t="n">
-        <v>151</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>151</v>
-      </c>
       <c r="BC10" t="n">
-        <v>500</v>
-      </c>
-      <c r="BD10" t="n">
-        <v>81</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="BD10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>zgRmmLkg</t>
+          <t>tUvpz2lg</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -2342,175 +2348,179 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>CROATIA - HNL</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Novi Pazar</t>
+          <t>Varazdin</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Vojvodina</t>
+          <t>Sibenik</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.25</v>
+        <v>1.62</v>
       </c>
       <c r="H11" t="n">
-        <v>3.15</v>
+        <v>3.75</v>
       </c>
       <c r="I11" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K11" t="n">
         <v>2.1</v>
       </c>
-      <c r="J11" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="K11" t="n">
-        <v>2.02</v>
-      </c>
       <c r="L11" t="n">
-        <v>2.8</v>
+        <v>6</v>
       </c>
       <c r="M11" t="n">
         <v>1.07</v>
       </c>
       <c r="N11" t="n">
-        <v>7.1</v>
+        <v>9</v>
       </c>
       <c r="O11" t="n">
-        <v>1.31</v>
+        <v>1.4</v>
       </c>
       <c r="P11" t="n">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.91</v>
+        <v>2.25</v>
       </c>
       <c r="R11" t="n">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="S11" t="n">
         <v>1.44</v>
       </c>
       <c r="T11" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="U11" t="n">
-        <v>1.72</v>
+        <v>2.2</v>
       </c>
       <c r="V11" t="n">
-        <v>2.02</v>
+        <v>1.62</v>
       </c>
       <c r="W11" t="n">
-        <v>10.25</v>
+        <v>5.5</v>
       </c>
       <c r="X11" t="n">
-        <v>18.5</v>
+        <v>6.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>11.25</v>
+        <v>9</v>
       </c>
       <c r="Z11" t="n">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="AA11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI11" t="n">
         <v>29</v>
       </c>
-      <c r="AB11" t="n">
-        <v>35</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>60</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>450</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AJ11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO11" t="n">
         <v>8.5</v>
       </c>
-      <c r="AK11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>27</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>18.5</v>
-      </c>
       <c r="AP11" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AQ11" t="n">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="AR11" t="n">
-        <v>120</v>
+        <v>51</v>
       </c>
       <c r="AS11" t="n">
-        <v>300</v>
+        <v>201</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="AU11" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX11" t="n">
         <v>7</v>
       </c>
-      <c r="AV11" t="n">
-        <v>65</v>
-      </c>
-      <c r="AW11" t="inlineStr"/>
-      <c r="AX11" t="n">
-        <v>4.05</v>
-      </c>
       <c r="AY11" t="n">
-        <v>11.5</v>
+        <v>34</v>
       </c>
       <c r="AZ11" t="n">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="BA11" t="n">
-        <v>45</v>
+        <v>126</v>
       </c>
       <c r="BB11" t="n">
-        <v>80</v>
+        <v>151</v>
       </c>
       <c r="BC11" t="n">
-        <v>250</v>
-      </c>
-      <c r="BD11" t="inlineStr"/>
+        <v>351</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>tfYvksLt</t>
+          <t>xxIbLO8d</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2520,175 +2530,177 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>INDIA - ISL</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Cukaricki</t>
+          <t>East Bengal</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Sp. Subotica</t>
+          <t>North East Utd</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.6</v>
+        <v>2.7</v>
       </c>
       <c r="H12" t="n">
-        <v>3.55</v>
+        <v>3.25</v>
       </c>
       <c r="I12" t="n">
-        <v>5.3</v>
+        <v>2.45</v>
       </c>
       <c r="J12" t="n">
-        <v>2.15</v>
+        <v>3.2</v>
       </c>
       <c r="K12" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="L12" t="n">
-        <v>5.6</v>
+        <v>3</v>
       </c>
       <c r="M12" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="N12" t="n">
-        <v>6.7</v>
+        <v>15</v>
       </c>
       <c r="O12" t="n">
-        <v>1.37</v>
+        <v>1.18</v>
       </c>
       <c r="P12" t="n">
-        <v>2.87</v>
+        <v>4.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.05</v>
+        <v>1.65</v>
       </c>
       <c r="R12" t="n">
-        <v>1.7</v>
+        <v>2.2</v>
       </c>
       <c r="S12" t="n">
-        <v>1.42</v>
+        <v>1.33</v>
       </c>
       <c r="T12" t="n">
-        <v>2.65</v>
+        <v>3.25</v>
       </c>
       <c r="U12" t="n">
-        <v>2.1</v>
+        <v>1.53</v>
       </c>
       <c r="V12" t="n">
-        <v>1.65</v>
+        <v>2.38</v>
       </c>
       <c r="W12" t="n">
-        <v>5.7</v>
+        <v>12</v>
       </c>
       <c r="X12" t="n">
-        <v>6.7</v>
+        <v>15</v>
       </c>
       <c r="Y12" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="Z12" t="n">
-        <v>11.25</v>
+        <v>29</v>
       </c>
       <c r="AA12" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="AB12" t="n">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="AC12" t="n">
-        <v>6.7</v>
+        <v>15</v>
       </c>
       <c r="AD12" t="n">
-        <v>7.2</v>
+        <v>6.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="AF12" t="n">
-        <v>120</v>
+        <v>34</v>
       </c>
       <c r="AG12" t="n">
-        <v>800</v>
+        <v>101</v>
       </c>
       <c r="AH12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI12" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="AJ12" t="n">
-        <v>18.5</v>
+        <v>10</v>
       </c>
       <c r="AK12" t="n">
-        <v>110</v>
+        <v>23</v>
       </c>
       <c r="AL12" t="n">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="AM12" t="n">
-        <v>75</v>
+        <v>23</v>
       </c>
       <c r="AN12" t="n">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="AO12" t="n">
-        <v>7.6</v>
+        <v>15</v>
       </c>
       <c r="AP12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>351</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ12" t="n">
         <v>19</v>
       </c>
-      <c r="AQ12" t="n">
-        <v>25</v>
-      </c>
-      <c r="AR12" t="n">
-        <v>65</v>
-      </c>
-      <c r="AS12" t="n">
-        <v>300</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>90</v>
-      </c>
-      <c r="AW12" t="inlineStr"/>
-      <c r="AX12" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>35</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>40</v>
-      </c>
       <c r="BA12" t="n">
-        <v>250</v>
+        <v>41</v>
       </c>
       <c r="BB12" t="n">
-        <v>300</v>
+        <v>51</v>
       </c>
       <c r="BC12" t="n">
-        <v>500</v>
+        <v>101</v>
       </c>
       <c r="BD12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>vV3csVm3</t>
+          <t>zoumKicf</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2698,175 +2710,175 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>THAILAND - THAI LEAGUE 1</t>
+          <t>ISRAEL - LIGAT HA'AL</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Prachuap</t>
+          <t>Kiryat Shmona</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Nakhon Ratchasima FC</t>
+          <t>Hapoel Haifa</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.45</v>
+        <v>2.8</v>
       </c>
       <c r="H13" t="n">
-        <v>4.05</v>
+        <v>3.25</v>
       </c>
       <c r="I13" t="n">
-        <v>6.8</v>
+        <v>2.3</v>
       </c>
       <c r="J13" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L13" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N13" t="n">
+        <v>10</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q13" t="n">
         <v>1.98</v>
       </c>
-      <c r="K13" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="L13" t="n">
+      <c r="R13" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T13" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V13" t="n">
+        <v>2</v>
+      </c>
+      <c r="W13" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X13" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD13" t="n">
         <v>6.5</v>
       </c>
-      <c r="M13" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N13" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="P13" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="T13" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="W13" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="X13" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="Y13" t="n">
+      <c r="AE13" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU13" t="n">
         <v>8</v>
       </c>
-      <c r="Z13" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>27</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>100</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>800</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>16</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>40</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>150</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>80</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>75</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AP13" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>21</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>50</v>
-      </c>
-      <c r="AS13" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT13" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="AU13" t="n">
-        <v>8.25</v>
-      </c>
       <c r="AV13" t="n">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="AW13" t="inlineStr"/>
       <c r="AX13" t="n">
-        <v>7.9</v>
+        <v>4.5</v>
       </c>
       <c r="AY13" t="n">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="AZ13" t="n">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="BA13" t="n">
-        <v>300</v>
+        <v>41</v>
       </c>
       <c r="BB13" t="n">
-        <v>350</v>
+        <v>67</v>
       </c>
       <c r="BC13" t="n">
-        <v>500</v>
+        <v>151</v>
       </c>
       <c r="BD13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>A5STH88b</t>
+          <t>YcUmHKDt</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2876,172 +2888,2336 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>UKRAINE - PREMIER LEAGUE</t>
+          <t>MOROCCO - BOTOLA PRO</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Vorskla Poltava</t>
+          <t>Union Touarga</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Inhulets</t>
+          <t>IR Tanger</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>1.55</v>
+        <v>2</v>
       </c>
       <c r="H14" t="n">
-        <v>3.7</v>
+        <v>2.88</v>
       </c>
       <c r="I14" t="n">
-        <v>5.7</v>
+        <v>3.8</v>
       </c>
       <c r="J14" t="n">
-        <v>2.07</v>
+        <v>2.88</v>
       </c>
       <c r="K14" t="n">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="L14" t="n">
-        <v>5.8</v>
+        <v>4.75</v>
       </c>
       <c r="M14" t="n">
-        <v>1.04</v>
+        <v>1.1</v>
       </c>
       <c r="N14" t="n">
-        <v>9.25</v>
+        <v>7</v>
       </c>
       <c r="O14" t="n">
-        <v>1.35</v>
+        <v>1.5</v>
       </c>
       <c r="P14" t="n">
-        <v>2.72</v>
+        <v>2.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.02</v>
+        <v>2.5</v>
       </c>
       <c r="R14" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U14" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V14" t="n">
         <v>1.62</v>
-      </c>
-      <c r="S14" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T14" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U14" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.6</v>
       </c>
       <c r="W14" t="n">
         <v>5.5</v>
       </c>
       <c r="X14" t="n">
-        <v>6.4</v>
+        <v>8.5</v>
       </c>
       <c r="Y14" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>800</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW14" t="inlineStr"/>
+      <c r="AX14" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>126</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>351</v>
+      </c>
+      <c r="BD14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>QRcnTnFr</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>29/11/2024</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>POLAND - EKSTRAKLASA</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Cracovia</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Zaglebie</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I15" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="J15" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L15" t="n">
+        <v>4</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N15" t="n">
+        <v>13</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P15" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R15" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T15" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V15" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W15" t="n">
+        <v>9</v>
+      </c>
+      <c r="X15" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y15" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z14" t="n">
+      <c r="Z15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>501</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>81</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>151</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>dtX7Rg3b</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>29/11/2024</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>POLAND - DIVISION 1</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Pruszkow</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Polonia Warszawa</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L16" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N16" t="n">
+        <v>10</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X16" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>67</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>151</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>UPa7e1IO</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>29/11/2024</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>11:25</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Al Qadisiya</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Al Khaleej</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H17" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I17" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L17" t="n">
+        <v>5</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N17" t="n">
+        <v>11</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T17" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W17" t="n">
+        <v>7</v>
+      </c>
+      <c r="X17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>800</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>126</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>500</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>rTPtA0XH</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>29/11/2024</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>11:40</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Al Nassr</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Damac</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="H18" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="I18" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="K18" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="L18" t="n">
+        <v>8</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N18" t="n">
+        <v>12</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R18" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T18" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V18" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W18" t="n">
+        <v>9</v>
+      </c>
+      <c r="X18" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>700</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>101</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU18" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>500</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>z3MYBM25</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>29/11/2024</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Al Ahli SC</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Al Wehda</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+      <c r="I19" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="K19" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="L19" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="M19" t="n">
+        <v>19</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R19" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="T19" t="n">
+        <v>4</v>
+      </c>
+      <c r="U19" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V19" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W19" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X19" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>700</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>126</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>67</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>12</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>500</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>zgRmmLkg</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>29/11/2024</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>SERBIA - SUPER LIGA</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Novi Pazar</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Vojvodina</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K20" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L20" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N20" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="T20" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="V20" t="n">
+        <v>2</v>
+      </c>
+      <c r="W20" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="X20" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y20" t="n">
         <v>10.5</v>
       </c>
-      <c r="AA14" t="n">
-        <v>14</v>
-      </c>
-      <c r="AB14" t="n">
+      <c r="Z20" t="n">
         <v>35</v>
       </c>
-      <c r="AC14" t="n">
+      <c r="AA20" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>450</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>18</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>27</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>16</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>24</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>75</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>120</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>300</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>65</v>
+      </c>
+      <c r="AW20" t="inlineStr"/>
+      <c r="AX20" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>20</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>50</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>80</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>250</v>
+      </c>
+      <c r="BD20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>tfYvksLt</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>29/11/2024</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>SERBIA - SUPER LIGA</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Cukaricki</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Sp. Subotica</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="H21" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="I21" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="J21" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L21" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N21" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="T21" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="W21" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="X21" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="Y21" t="n">
         <v>8.25</v>
       </c>
-      <c r="AD14" t="n">
+      <c r="Z21" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AD21" t="n">
         <v>7.3</v>
       </c>
-      <c r="AE14" t="n">
+      <c r="AE21" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>100</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>110</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>24</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>55</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AU21" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>80</v>
+      </c>
+      <c r="AW21" t="inlineStr"/>
+      <c r="AX21" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>32</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>37</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>200</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>250</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>500</v>
+      </c>
+      <c r="BD21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>0z3ucZWr</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>29/11/2024</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>SLOVENIA - PRVA LIGA</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Domzale</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Bravo</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="H22" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="J22" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="K22" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="L22" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N22" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="T22" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="U22" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="W22" t="n">
+        <v>11</v>
+      </c>
+      <c r="X22" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>80</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>55</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>90</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>16</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>32</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>30</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>150</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>175</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>400</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>70</v>
+      </c>
+      <c r="AW22" t="inlineStr"/>
+      <c r="AX22" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>32</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>70</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>250</v>
+      </c>
+      <c r="BD22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>vV3csVm3</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>29/11/2024</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>THAILAND - THAI LEAGUE 1</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Prachuap</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Nakhon Ratchasima FC</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="H23" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="I23" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="K23" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L23" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N23" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="T23" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="W23" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="X23" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>28</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>100</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>800</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ23" t="n">
         <v>21</v>
       </c>
-      <c r="AF14" t="n">
-        <v>120</v>
-      </c>
-      <c r="AG14" t="n">
+      <c r="AK23" t="n">
+        <v>150</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>75</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>55</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AU23" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>90</v>
+      </c>
+      <c r="AW23" t="inlineStr"/>
+      <c r="AX23" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>40</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>40</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>300</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>300</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>500</v>
+      </c>
+      <c r="BD23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>lpmJoGW9</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>29/11/2024</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>TURKEY - SUPER LIG</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Antalyaspor</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Sivasspor</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>2</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I24" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J24" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K24" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L24" t="n">
+        <v>4</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N24" t="n">
+        <v>11</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S24" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T24" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V24" t="n">
+        <v>2</v>
+      </c>
+      <c r="W24" t="n">
+        <v>8</v>
+      </c>
+      <c r="X24" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>276</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>81</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>201</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>AiiFIAGP</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>29/11/2024</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>TURKEY - 1. LIG</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Kocaelispor</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Adanaspor AS</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H25" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="I25" t="n">
+        <v>9</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="K25" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L25" t="n">
+        <v>9</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N25" t="n">
+        <v>13</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P25" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R25" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T25" t="n">
+        <v>3</v>
+      </c>
+      <c r="U25" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W25" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X25" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>800</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>126</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>67</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>67</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>17</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>251</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>A5STH88b</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>29/11/2024</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>UKRAINE - PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Vorskla Poltava</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Inhulets</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H26" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="I26" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="J26" t="n">
+        <v>2</v>
+      </c>
+      <c r="K26" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="L26" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N26" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="S26" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T26" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U26" t="n">
+        <v>2</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="W26" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="X26" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>110</v>
+      </c>
+      <c r="AG26" t="n">
         <v>1000</v>
       </c>
-      <c r="AH14" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>32</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>120</v>
-      </c>
-      <c r="AL14" t="n">
+      <c r="AH26" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>37</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>20</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>150</v>
+      </c>
+      <c r="AL26" t="n">
         <v>75</v>
       </c>
-      <c r="AM14" t="n">
+      <c r="AM26" t="n">
+        <v>75</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AQ26" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR26" t="n">
+        <v>55</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AU26" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AV26" t="n">
         <v>80</v>
       </c>
-      <c r="AN14" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR14" t="n">
-        <v>60</v>
-      </c>
-      <c r="AS14" t="n">
+      <c r="AW26" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>37</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>40</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>250</v>
+      </c>
+      <c r="BB26" t="n">
         <v>300</v>
       </c>
-      <c r="AT14" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>90</v>
-      </c>
-      <c r="AW14" t="n">
+      <c r="BC26" t="n">
         <v>81</v>
       </c>
-      <c r="AX14" t="n">
-        <v>7</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>35</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>45</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>250</v>
-      </c>
-      <c r="BB14" t="n">
-        <v>300</v>
-      </c>
-      <c r="BC14" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD14" t="n">
+      <c r="BD26" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-29.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-29.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD26"/>
+  <dimension ref="A1:BD35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -747,85 +747,85 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="H2" t="n">
         <v>5.25</v>
       </c>
       <c r="I2" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="J2" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="K2" t="n">
         <v>2.88</v>
       </c>
       <c r="L2" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N2" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="O2" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="P2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="R2" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="S2" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="T2" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="U2" t="n">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="V2" t="n">
-        <v>2.63</v>
+        <v>2.25</v>
       </c>
       <c r="W2" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="X2" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="Y2" t="n">
         <v>9</v>
       </c>
       <c r="Z2" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AA2" t="n">
         <v>10</v>
       </c>
       <c r="AB2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AD2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE2" t="n">
         <v>15</v>
       </c>
       <c r="AF2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG2" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="AH2" t="n">
         <v>29</v>
@@ -834,64 +834,64 @@
         <v>41</v>
       </c>
       <c r="AJ2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK2" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AL2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM2" t="n">
         <v>41</v>
       </c>
-      <c r="AM2" t="n">
-        <v>34</v>
-      </c>
       <c r="AN2" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AP2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AQ2" t="n">
         <v>15</v>
       </c>
       <c r="AR2" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AS2" t="n">
         <v>67</v>
       </c>
       <c r="AT2" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AU2" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV2" t="n">
         <v>41</v>
       </c>
       <c r="AW2" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AX2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AY2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ2" t="n">
         <v>29</v>
       </c>
-      <c r="AZ2" t="n">
-        <v>26</v>
-      </c>
       <c r="BA2" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB2" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BC2" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BD2" t="n">
         <v>151</v>
@@ -929,76 +929,76 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="H3" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="I3" t="n">
-        <v>2.37</v>
+        <v>2.62</v>
       </c>
       <c r="J3" t="n">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="K3" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="L3" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="M3" t="n">
         <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="O3" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="P3" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="R3" t="n">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="S3" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="T3" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="U3" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="V3" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="W3" t="n">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="X3" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AA3" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AB3" t="n">
         <v>30</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.5</v>
+        <v>7.2</v>
       </c>
       <c r="AD3" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AE3" t="n">
         <v>14</v>
@@ -1010,70 +1010,70 @@
         <v>500</v>
       </c>
       <c r="AH3" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AI3" t="n">
-        <v>11.75</v>
+        <v>13</v>
       </c>
       <c r="AJ3" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="AK3" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AL3" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AM3" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AN3" t="n">
-        <v>4.6</v>
+        <v>4.45</v>
       </c>
       <c r="AO3" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AP3" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AQ3" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AR3" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AS3" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="AU3" t="n">
-        <v>7.3</v>
+        <v>7</v>
       </c>
       <c r="AV3" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AW3" t="n">
         <v>81</v>
       </c>
       <c r="AX3" t="n">
-        <v>4.3</v>
+        <v>4.6</v>
       </c>
       <c r="AY3" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AZ3" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="BA3" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="BB3" t="n">
         <v>90</v>
       </c>
       <c r="BC3" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BD3" t="n">
         <v>81</v>
@@ -1114,52 +1114,52 @@
         <v>6</v>
       </c>
       <c r="H4" t="n">
-        <v>4.1</v>
+        <v>4.25</v>
       </c>
       <c r="I4" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="J4" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="K4" t="n">
-        <v>2.27</v>
+        <v>2.32</v>
       </c>
       <c r="L4" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="M4" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="P4" t="n">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="R4" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S4" t="n">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="T4" t="n">
-        <v>2.87</v>
+        <v>3</v>
       </c>
       <c r="U4" t="n">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="V4" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="W4" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="X4" t="n">
         <v>37</v>
@@ -1177,46 +1177,46 @@
         <v>55</v>
       </c>
       <c r="AC4" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AE4" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AF4" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AG4" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AH4" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="AI4" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AJ4" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AK4" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AL4" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AM4" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AN4" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AO4" t="n">
+        <v>32</v>
+      </c>
+      <c r="AP4" t="n">
         <v>35</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>37</v>
       </c>
       <c r="AQ4" t="n">
         <v>200</v>
@@ -1225,16 +1225,16 @@
         <v>250</v>
       </c>
       <c r="AS4" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.87</v>
+        <v>3</v>
       </c>
       <c r="AU4" t="n">
         <v>7.9</v>
       </c>
       <c r="AV4" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AW4" t="n">
         <v>81</v>
@@ -1243,19 +1243,19 @@
         <v>3.35</v>
       </c>
       <c r="AY4" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="AZ4" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="BA4" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="BB4" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="BC4" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="BD4" t="n">
         <v>81</v>
@@ -1675,10 +1675,10 @@
         <v>3.75</v>
       </c>
       <c r="M7" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N7" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="O7" t="n">
         <v>1.55</v>
@@ -2034,19 +2034,19 @@
         <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P9" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R9" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S9" t="n">
         <v>1.44</v>
@@ -2076,7 +2076,7 @@
         <v>21</v>
       </c>
       <c r="AB9" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC9" t="n">
         <v>8.5</v>
@@ -2094,7 +2094,7 @@
         <v>301</v>
       </c>
       <c r="AH9" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI9" t="n">
         <v>15</v>
@@ -2109,7 +2109,7 @@
         <v>26</v>
       </c>
       <c r="AM9" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN9" t="n">
         <v>4.33</v>
@@ -2118,7 +2118,7 @@
         <v>13</v>
       </c>
       <c r="AP9" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ9" t="n">
         <v>41</v>
@@ -2133,7 +2133,7 @@
         <v>2.63</v>
       </c>
       <c r="AU9" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV9" t="n">
         <v>51</v>
@@ -2367,16 +2367,16 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="H11" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="I11" t="n">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="J11" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="K11" t="n">
         <v>2.1</v>
@@ -2391,40 +2391,40 @@
         <v>9</v>
       </c>
       <c r="O11" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P11" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R11" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S11" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T11" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U11" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V11" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W11" t="n">
         <v>5.5</v>
       </c>
       <c r="X11" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y11" t="n">
         <v>9</v>
       </c>
       <c r="Z11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA11" t="n">
         <v>15</v>
@@ -2436,40 +2436,40 @@
         <v>8</v>
       </c>
       <c r="AD11" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE11" t="n">
         <v>21</v>
       </c>
       <c r="AF11" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG11" t="n">
         <v>1000</v>
       </c>
       <c r="AH11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI11" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK11" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AL11" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM11" t="n">
         <v>51</v>
       </c>
       <c r="AN11" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AP11" t="n">
         <v>23</v>
@@ -2484,7 +2484,7 @@
         <v>201</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU11" t="n">
         <v>9.5</v>
@@ -2499,7 +2499,7 @@
         <v>7</v>
       </c>
       <c r="AY11" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ11" t="n">
         <v>41</v>
@@ -2520,7 +2520,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>xxIbLO8d</t>
+          <t>Wl29KVCU</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2530,177 +2530,179 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>INDIA - ISL</t>
+          <t>DENMARK - SUPERLIGA</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>East Bengal</t>
+          <t>Brondby</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>North East Utd</t>
+          <t>Aalborg</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.7</v>
+        <v>1.4</v>
       </c>
       <c r="H12" t="n">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="I12" t="n">
-        <v>2.45</v>
+        <v>7</v>
       </c>
       <c r="J12" t="n">
-        <v>3.2</v>
+        <v>1.91</v>
       </c>
       <c r="K12" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="L12" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="M12" t="n">
         <v>1.03</v>
       </c>
       <c r="N12" t="n">
+        <v>17</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T12" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="V12" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W12" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X12" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AP12" t="n">
         <v>15</v>
       </c>
-      <c r="O12" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P12" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="R12" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T12" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="V12" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="W12" t="n">
-        <v>12</v>
-      </c>
-      <c r="X12" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF12" t="n">
+      <c r="AQ12" t="n">
+        <v>17</v>
+      </c>
+      <c r="AR12" t="n">
         <v>34</v>
       </c>
-      <c r="AG12" t="n">
+      <c r="AS12" t="n">
         <v>101</v>
       </c>
-      <c r="AH12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR12" t="n">
+      <c r="AT12" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV12" t="n">
         <v>51</v>
       </c>
-      <c r="AS12" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>41</v>
-      </c>
       <c r="AW12" t="n">
-        <v>351</v>
+        <v>451</v>
       </c>
       <c r="AX12" t="n">
-        <v>4.75</v>
+        <v>8.5</v>
       </c>
       <c r="AY12" t="n">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="AZ12" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="BA12" t="n">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="BB12" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BC12" t="n">
-        <v>101</v>
-      </c>
-      <c r="BD12" t="inlineStr"/>
+        <v>201</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>151</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>zoumKicf</t>
+          <t>ITSr42xJ</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2710,92 +2712,92 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>ISRAEL - LIGAT HA'AL</t>
+          <t>DENMARK - 1ST DIVISION</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Kiryat Shmona</t>
+          <t>Hvidovre IF</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Hapoel Haifa</t>
+          <t>Hobro</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.8</v>
+        <v>2.1</v>
       </c>
       <c r="H13" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I13" t="n">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="J13" t="n">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
       <c r="K13" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L13" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N13" t="n">
+        <v>11</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R13" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T13" t="n">
+        <v>3</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="V13" t="n">
         <v>2.1</v>
       </c>
-      <c r="L13" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N13" t="n">
-        <v>10</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P13" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T13" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="V13" t="n">
-        <v>2</v>
-      </c>
       <c r="W13" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="X13" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="Y13" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC13" t="n">
         <v>11</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>10</v>
       </c>
       <c r="AD13" t="n">
         <v>6.5</v>
@@ -2810,75 +2812,79 @@
         <v>201</v>
       </c>
       <c r="AH13" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AI13" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ13" t="n">
         <v>12</v>
       </c>
-      <c r="AJ13" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AK13" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AL13" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AM13" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN13" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="AO13" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AP13" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR13" t="n">
         <v>51</v>
-      </c>
-      <c r="AR13" t="n">
-        <v>67</v>
       </c>
       <c r="AS13" t="n">
         <v>151</v>
       </c>
       <c r="AT13" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU13" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV13" t="n">
         <v>51</v>
       </c>
-      <c r="AW13" t="inlineStr"/>
+      <c r="AW13" t="n">
+        <v>126</v>
+      </c>
       <c r="AX13" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="AY13" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AZ13" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BA13" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB13" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BC13" t="n">
         <v>151</v>
       </c>
-      <c r="BD13" t="inlineStr"/>
+      <c r="BD13" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>YcUmHKDt</t>
+          <t>xdxlFSpK</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2888,175 +2894,179 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>MOROCCO - BOTOLA PRO</t>
+          <t>DENMARK - 1ST DIVISION</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Union Touarga</t>
+          <t>Kolding IF</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>IR Tanger</t>
+          <t>Horsens</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="H14" t="n">
-        <v>2.88</v>
+        <v>3.4</v>
       </c>
       <c r="I14" t="n">
-        <v>3.8</v>
+        <v>2.75</v>
       </c>
       <c r="J14" t="n">
-        <v>2.88</v>
+        <v>3.2</v>
       </c>
       <c r="K14" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="L14" t="n">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="M14" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="N14" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="O14" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="P14" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="R14" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="S14" t="n">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="T14" t="n">
-        <v>2.25</v>
+        <v>2.63</v>
       </c>
       <c r="U14" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="V14" t="n">
-        <v>1.62</v>
+        <v>1.83</v>
       </c>
       <c r="W14" t="n">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="X14" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="Y14" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z14" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AA14" t="n">
         <v>21</v>
       </c>
       <c r="AB14" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC14" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD14" t="n">
         <v>6.5</v>
       </c>
-      <c r="AD14" t="n">
-        <v>6</v>
-      </c>
       <c r="AE14" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AF14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR14" t="n">
         <v>67</v>
       </c>
-      <c r="AG14" t="n">
-        <v>800</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM14" t="n">
+      <c r="AS14" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV14" t="n">
         <v>51</v>
       </c>
-      <c r="AN14" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP14" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR14" t="n">
+      <c r="AW14" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB14" t="n">
         <v>81</v>
       </c>
-      <c r="AS14" t="n">
-        <v>251</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW14" t="inlineStr"/>
-      <c r="AX14" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB14" t="n">
+      <c r="BC14" t="n">
+        <v>201</v>
+      </c>
+      <c r="BD14" t="n">
         <v>126</v>
       </c>
-      <c r="BC14" t="n">
-        <v>351</v>
-      </c>
-      <c r="BD14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>QRcnTnFr</t>
+          <t>tMdrjrS1</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -3066,170 +3076,170 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>GERMANY - 2. BUNDESLIGA</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Cracovia</t>
+          <t>Magdeburg</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Zaglebie</t>
+          <t>Hertha Berlin</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="H15" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="I15" t="n">
-        <v>3.8</v>
+        <v>2.75</v>
       </c>
       <c r="J15" t="n">
-        <v>2.6</v>
+        <v>2.88</v>
       </c>
       <c r="K15" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="L15" t="n">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="M15" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N15" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="O15" t="n">
-        <v>1.2</v>
+        <v>1.14</v>
       </c>
       <c r="P15" t="n">
-        <v>4.33</v>
+        <v>5.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="R15" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="S15" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="T15" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="U15" t="n">
-        <v>1.62</v>
+        <v>1.44</v>
       </c>
       <c r="V15" t="n">
-        <v>2.2</v>
+        <v>2.63</v>
       </c>
       <c r="W15" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="X15" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Y15" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="Z15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA15" t="n">
         <v>17</v>
       </c>
-      <c r="AA15" t="n">
-        <v>15</v>
-      </c>
       <c r="AB15" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC15" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AD15" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF15" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG15" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AH15" t="n">
         <v>13</v>
       </c>
       <c r="AI15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM15" t="n">
         <v>21</v>
       </c>
-      <c r="AJ15" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK15" t="n">
+      <c r="AN15" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ15" t="n">
         <v>41</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN15" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP15" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>34</v>
       </c>
       <c r="AR15" t="n">
         <v>51</v>
       </c>
       <c r="AS15" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT15" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="AU15" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV15" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>301</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB15" t="n">
         <v>51</v>
       </c>
-      <c r="AW15" t="n">
-        <v>501</v>
-      </c>
-      <c r="AX15" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AY15" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>26</v>
-      </c>
-      <c r="BA15" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB15" t="n">
-        <v>81</v>
-      </c>
       <c r="BC15" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="BD15" t="n">
         <v>81</v>
@@ -3238,7 +3248,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>dtX7Rg3b</t>
+          <t>UL12an5F</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -3248,170 +3258,170 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>GERMANY - 2. BUNDESLIGA</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Pruszkow</t>
+          <t>Schalke</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Polonia Warszawa</t>
+          <t>Kaiserslautern</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2.5</v>
+        <v>2.15</v>
       </c>
       <c r="H16" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="I16" t="n">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="J16" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="K16" t="n">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="L16" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N16" t="n">
+        <v>15</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P16" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R16" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T16" t="n">
         <v>3.4</v>
       </c>
-      <c r="M16" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N16" t="n">
-        <v>10</v>
-      </c>
-      <c r="O16" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P16" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="R16" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S16" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T16" t="n">
-        <v>2.63</v>
-      </c>
       <c r="U16" t="n">
-        <v>1.8</v>
+        <v>1.53</v>
       </c>
       <c r="V16" t="n">
-        <v>1.91</v>
+        <v>2.38</v>
       </c>
       <c r="W16" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="X16" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE16" t="n">
         <v>12</v>
       </c>
-      <c r="Y16" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>26</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>15</v>
-      </c>
       <c r="AF16" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AG16" t="n">
-        <v>251</v>
+        <v>101</v>
       </c>
       <c r="AH16" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="AI16" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AJ16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK16" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AL16" t="n">
         <v>21</v>
       </c>
       <c r="AM16" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN16" t="n">
         <v>4.5</v>
       </c>
       <c r="AO16" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AP16" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AQ16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR16" t="n">
         <v>51</v>
       </c>
-      <c r="AR16" t="n">
-        <v>67</v>
-      </c>
       <c r="AS16" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AT16" t="n">
-        <v>2.63</v>
+        <v>3.4</v>
       </c>
       <c r="AU16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV16" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW16" t="n">
         <v>81</v>
       </c>
       <c r="AX16" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="AY16" t="n">
         <v>15</v>
       </c>
       <c r="AZ16" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="BA16" t="n">
         <v>51</v>
       </c>
       <c r="BB16" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BC16" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD16" t="n">
         <v>81</v>
@@ -3420,7 +3430,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>UPa7e1IO</t>
+          <t>6yQje2el</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -3430,170 +3440,170 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>11:25</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>GERMANY - 3. LIGA</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Al Qadisiya</t>
+          <t>Arminia Bielefeld</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Al Khaleej</t>
+          <t>Ingolstadt</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="H17" t="n">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="I17" t="n">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="J17" t="n">
-        <v>2.2</v>
+        <v>2.63</v>
       </c>
       <c r="K17" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L17" t="n">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="M17" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="N17" t="n">
+        <v>13</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R17" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T17" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V17" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W17" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X17" t="n">
         <v>11</v>
       </c>
-      <c r="O17" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P17" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T17" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W17" t="n">
+      <c r="Y17" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD17" t="n">
         <v>7</v>
       </c>
-      <c r="X17" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y17" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z17" t="n">
+      <c r="AE17" t="n">
         <v>12</v>
       </c>
-      <c r="AA17" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>19</v>
-      </c>
       <c r="AF17" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG17" t="n">
-        <v>800</v>
+        <v>126</v>
       </c>
       <c r="AH17" t="n">
         <v>13</v>
       </c>
       <c r="AI17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL17" t="n">
         <v>26</v>
       </c>
-      <c r="AJ17" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>41</v>
-      </c>
       <c r="AM17" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AN17" t="n">
-        <v>3.6</v>
+        <v>4.33</v>
       </c>
       <c r="AO17" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AP17" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ17" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AR17" t="n">
         <v>51</v>
       </c>
       <c r="AS17" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AT17" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="AU17" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AV17" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW17" t="n">
         <v>81</v>
       </c>
       <c r="AX17" t="n">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="AY17" t="n">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="AZ17" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="BA17" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="BB17" t="n">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="BC17" t="n">
-        <v>500</v>
+        <v>151</v>
       </c>
       <c r="BD17" t="n">
         <v>81</v>
@@ -3602,7 +3612,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>rTPtA0XH</t>
+          <t>xxIbLO8d</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -3612,179 +3622,177 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>INDIA - ISL</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>East Bengal</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Damac</t>
+          <t>North East Utd</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.25</v>
+        <v>2.7</v>
       </c>
       <c r="H18" t="n">
-        <v>6.25</v>
+        <v>3.25</v>
       </c>
       <c r="I18" t="n">
-        <v>8.5</v>
+        <v>2.45</v>
       </c>
       <c r="J18" t="n">
-        <v>1.62</v>
+        <v>3.2</v>
       </c>
       <c r="K18" t="n">
-        <v>2.75</v>
+        <v>2.3</v>
       </c>
       <c r="L18" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="M18" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N18" t="n">
+        <v>15</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P18" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="R18" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S18" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T18" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V18" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W18" t="n">
         <v>12</v>
       </c>
-      <c r="O18" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P18" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="R18" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="S18" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T18" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W18" t="n">
-        <v>9</v>
-      </c>
       <c r="X18" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU18" t="n">
         <v>7</v>
       </c>
-      <c r="Y18" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>8</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC18" t="n">
+      <c r="AV18" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>351</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ18" t="n">
         <v>19</v>
       </c>
-      <c r="AD18" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF18" t="n">
+      <c r="BA18" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB18" t="n">
         <v>51</v>
       </c>
-      <c r="AG18" t="n">
-        <v>700</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK18" t="n">
+      <c r="BC18" t="n">
         <v>101</v>
       </c>
-      <c r="AL18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AP18" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>13</v>
-      </c>
-      <c r="AR18" t="n">
-        <v>34</v>
-      </c>
-      <c r="AS18" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT18" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AU18" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV18" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW18" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX18" t="n">
-        <v>10</v>
-      </c>
-      <c r="AY18" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ18" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA18" t="n">
-        <v>151</v>
-      </c>
-      <c r="BB18" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC18" t="n">
-        <v>500</v>
-      </c>
-      <c r="BD18" t="n">
-        <v>81</v>
-      </c>
+      <c r="BD18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>z3MYBM25</t>
+          <t>zoumKicf</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -3794,179 +3802,175 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>ISRAEL - LIGAT HA'AL</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Al Ahli SC</t>
+          <t>Kiryat Shmona</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Al Wehda</t>
+          <t>Hapoel Haifa</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.22</v>
+        <v>2.55</v>
       </c>
       <c r="H19" t="n">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="I19" t="n">
-        <v>9.5</v>
+        <v>2.5</v>
       </c>
       <c r="J19" t="n">
-        <v>1.57</v>
+        <v>3.25</v>
       </c>
       <c r="K19" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L19" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N19" t="n">
+        <v>11</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T19" t="n">
         <v>2.75</v>
       </c>
-      <c r="L19" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="M19" t="n">
-        <v>19</v>
-      </c>
-      <c r="N19" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="O19" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P19" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="R19" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="T19" t="n">
-        <v>4</v>
-      </c>
       <c r="U19" t="n">
-        <v>1.91</v>
+        <v>1.73</v>
       </c>
       <c r="V19" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W19" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X19" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="Y19" t="n">
         <v>10</v>
       </c>
       <c r="Z19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU19" t="n">
         <v>8</v>
-      </c>
-      <c r="AA19" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB19" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>700</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>126</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>67</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>12</v>
-      </c>
-      <c r="AR19" t="n">
-        <v>34</v>
-      </c>
-      <c r="AS19" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT19" t="n">
-        <v>4</v>
-      </c>
-      <c r="AU19" t="n">
-        <v>10</v>
       </c>
       <c r="AV19" t="n">
         <v>51</v>
       </c>
-      <c r="AW19" t="n">
-        <v>81</v>
-      </c>
+      <c r="AW19" t="inlineStr"/>
       <c r="AX19" t="n">
-        <v>11</v>
+        <v>4.75</v>
       </c>
       <c r="AY19" t="n">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="AZ19" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="BA19" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>67</v>
+      </c>
+      <c r="BC19" t="n">
         <v>151</v>
       </c>
-      <c r="BB19" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC19" t="n">
-        <v>500</v>
-      </c>
-      <c r="BD19" t="n">
-        <v>81</v>
-      </c>
+      <c r="BD19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>zgRmmLkg</t>
+          <t>YcUmHKDt</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3976,175 +3980,175 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>MOROCCO - BOTOLA PRO</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Novi Pazar</t>
+          <t>Union Touarga</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Vojvodina</t>
+          <t>IR Tanger</t>
         </is>
       </c>
       <c r="G20" t="n">
+        <v>2</v>
+      </c>
+      <c r="H20" t="n">
         <v>2.87</v>
       </c>
-      <c r="H20" t="n">
-        <v>3.3</v>
-      </c>
       <c r="I20" t="n">
-        <v>2.22</v>
+        <v>3.8</v>
       </c>
       <c r="J20" t="n">
-        <v>3.5</v>
+        <v>2.88</v>
       </c>
       <c r="K20" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="L20" t="n">
-        <v>2.87</v>
+        <v>4.75</v>
       </c>
       <c r="M20" t="n">
-        <v>1.06</v>
+        <v>1.1</v>
       </c>
       <c r="N20" t="n">
-        <v>7.3</v>
+        <v>7</v>
       </c>
       <c r="O20" t="n">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="P20" t="n">
-        <v>3.2</v>
+        <v>2.5</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.88</v>
+        <v>2.5</v>
       </c>
       <c r="R20" t="n">
-        <v>1.82</v>
+        <v>1.5</v>
       </c>
       <c r="S20" t="n">
-        <v>1.42</v>
+        <v>1.57</v>
       </c>
       <c r="T20" t="n">
-        <v>2.67</v>
+        <v>2.25</v>
       </c>
       <c r="U20" t="n">
-        <v>1.72</v>
+        <v>2.2</v>
       </c>
       <c r="V20" t="n">
-        <v>2</v>
+        <v>1.62</v>
       </c>
       <c r="W20" t="n">
-        <v>9.25</v>
+        <v>5.5</v>
       </c>
       <c r="X20" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>800</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ20" t="n">
         <v>15</v>
       </c>
-      <c r="Y20" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>35</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>25</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>60</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>450</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>8</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>9</v>
-      </c>
       <c r="AK20" t="n">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="AL20" t="n">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="AM20" t="n">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="AN20" t="n">
-        <v>4.85</v>
+        <v>4</v>
       </c>
       <c r="AO20" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="AP20" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AQ20" t="n">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="AR20" t="n">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="AS20" t="n">
-        <v>300</v>
+        <v>251</v>
       </c>
       <c r="AT20" t="n">
-        <v>2.67</v>
+        <v>2.25</v>
       </c>
       <c r="AU20" t="n">
-        <v>7.2</v>
+        <v>9.5</v>
       </c>
       <c r="AV20" t="n">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="AW20" t="inlineStr"/>
       <c r="AX20" t="n">
-        <v>4.2</v>
+        <v>5.5</v>
       </c>
       <c r="AY20" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AZ20" t="n">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="BA20" t="n">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="BB20" t="n">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="BC20" t="n">
-        <v>250</v>
+        <v>351</v>
       </c>
       <c r="BD20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>tfYvksLt</t>
+          <t>QRcnTnFr</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -4154,175 +4158,179 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Cukaricki</t>
+          <t>Cracovia</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Sp. Subotica</t>
+          <t>Zaglebie</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.57</v>
+        <v>1.92</v>
       </c>
       <c r="H21" t="n">
-        <v>3.65</v>
+        <v>3.4</v>
       </c>
       <c r="I21" t="n">
-        <v>5.3</v>
+        <v>3.8</v>
       </c>
       <c r="J21" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K21" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L21" t="n">
+        <v>4</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N21" t="n">
+        <v>13</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R21" t="n">
         <v>2.1</v>
       </c>
-      <c r="K21" t="n">
+      <c r="S21" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T21" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V21" t="n">
         <v>2.2</v>
       </c>
-      <c r="L21" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M21" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N21" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P21" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="S21" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="T21" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="V21" t="n">
-        <v>1.75</v>
-      </c>
       <c r="W21" t="n">
-        <v>6.2</v>
+        <v>9</v>
       </c>
       <c r="X21" t="n">
-        <v>6.9</v>
+        <v>10</v>
       </c>
       <c r="Y21" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>11.25</v>
+        <v>17</v>
       </c>
       <c r="AA21" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB21" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="AC21" t="n">
-        <v>7.1</v>
+        <v>12</v>
       </c>
       <c r="AD21" t="n">
-        <v>7.3</v>
+        <v>6.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>18.5</v>
+        <v>12</v>
       </c>
       <c r="AF21" t="n">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="AG21" t="n">
-        <v>900</v>
+        <v>151</v>
       </c>
       <c r="AH21" t="n">
         <v>13</v>
       </c>
       <c r="AI21" t="n">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="AJ21" t="n">
-        <v>17.5</v>
+        <v>13</v>
       </c>
       <c r="AK21" t="n">
-        <v>110</v>
+        <v>41</v>
       </c>
       <c r="AL21" t="n">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="AM21" t="n">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="AN21" t="n">
-        <v>3.35</v>
+        <v>4</v>
       </c>
       <c r="AO21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU21" t="n">
         <v>7.5</v>
       </c>
-      <c r="AP21" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>24</v>
-      </c>
-      <c r="AR21" t="n">
-        <v>55</v>
-      </c>
-      <c r="AS21" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT21" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="AU21" t="n">
-        <v>8</v>
-      </c>
       <c r="AV21" t="n">
-        <v>80</v>
-      </c>
-      <c r="AW21" t="inlineStr"/>
+        <v>51</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>501</v>
+      </c>
       <c r="AX21" t="n">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="AY21" t="n">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="AZ21" t="n">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="BA21" t="n">
-        <v>200</v>
+        <v>67</v>
       </c>
       <c r="BB21" t="n">
-        <v>250</v>
+        <v>81</v>
       </c>
       <c r="BC21" t="n">
-        <v>500</v>
-      </c>
-      <c r="BD21" t="inlineStr"/>
+        <v>151</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>0z3ucZWr</t>
+          <t>dtX7Rg3b</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -4332,175 +4340,179 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>SLOVENIA - PRVA LIGA</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Domzale</t>
+          <t>Pruszkow</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Bravo</t>
+          <t>Polonia Warszawa</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>4.65</v>
+        <v>2.55</v>
       </c>
       <c r="H22" t="n">
         <v>3.25</v>
       </c>
       <c r="I22" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K22" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L22" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N22" t="n">
+        <v>10</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S22" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T22" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U22" t="n">
         <v>1.8</v>
       </c>
-      <c r="J22" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="K22" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L22" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N22" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="P22" t="n">
+      <c r="V22" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W22" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X22" t="n">
+        <v>13</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT22" t="n">
         <v>2.75</v>
       </c>
-      <c r="Q22" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S22" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="T22" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="U22" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="W22" t="n">
-        <v>11</v>
-      </c>
-      <c r="X22" t="n">
-        <v>26</v>
-      </c>
-      <c r="Y22" t="n">
+      <c r="AU22" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AY22" t="n">
         <v>15</v>
       </c>
-      <c r="Z22" t="n">
-        <v>80</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>50</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>55</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>90</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>900</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>16</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>32</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>26</v>
-      </c>
-      <c r="AP22" t="n">
-        <v>30</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>150</v>
-      </c>
-      <c r="AR22" t="n">
-        <v>175</v>
-      </c>
-      <c r="AS22" t="n">
-        <v>400</v>
-      </c>
-      <c r="AT22" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>70</v>
-      </c>
-      <c r="AW22" t="inlineStr"/>
-      <c r="AX22" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="AY22" t="n">
-        <v>9</v>
-      </c>
       <c r="AZ22" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="BA22" t="n">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="BB22" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="BC22" t="n">
-        <v>250</v>
-      </c>
-      <c r="BD22" t="inlineStr"/>
+        <v>151</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>vV3csVm3</t>
+          <t>vueMHzpA</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -4510,175 +4522,179 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>THAILAND - THAI LEAGUE 1</t>
+          <t>PORTUGAL - LIGA PORTUGAL 2</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Prachuap</t>
+          <t>Academico Viseu</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Nakhon Ratchasima FC</t>
+          <t>Leixoes</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.45</v>
+        <v>2.3</v>
       </c>
       <c r="H23" t="n">
-        <v>4.15</v>
+        <v>3</v>
       </c>
       <c r="I23" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K23" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L23" t="n">
+        <v>4</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N23" t="n">
+        <v>7</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S23" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T23" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U23" t="n">
+        <v>2</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W23" t="n">
         <v>6.5</v>
       </c>
-      <c r="J23" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="K23" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L23" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N23" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="P23" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="S23" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="T23" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="U23" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="V23" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="W23" t="n">
-        <v>6.6</v>
-      </c>
       <c r="X23" t="n">
-        <v>6.6</v>
+        <v>10</v>
       </c>
       <c r="Y23" t="n">
-        <v>8.25</v>
+        <v>10</v>
       </c>
       <c r="Z23" t="n">
-        <v>9.75</v>
+        <v>21</v>
       </c>
       <c r="AA23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ23" t="n">
         <v>12</v>
       </c>
-      <c r="AB23" t="n">
-        <v>28</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>100</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>800</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>16</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>40</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>21</v>
-      </c>
       <c r="AK23" t="n">
-        <v>150</v>
+        <v>34</v>
       </c>
       <c r="AL23" t="n">
-        <v>75</v>
+        <v>29</v>
       </c>
       <c r="AM23" t="n">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="AN23" t="n">
-        <v>3.25</v>
+        <v>4.33</v>
       </c>
       <c r="AO23" t="n">
-        <v>6.8</v>
+        <v>15</v>
       </c>
       <c r="AP23" t="n">
-        <v>17.5</v>
+        <v>26</v>
       </c>
       <c r="AQ23" t="n">
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="AR23" t="n">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="AS23" t="n">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AT23" t="n">
-        <v>2.8</v>
+        <v>2.38</v>
       </c>
       <c r="AU23" t="n">
         <v>8.5</v>
       </c>
       <c r="AV23" t="n">
-        <v>90</v>
-      </c>
-      <c r="AW23" t="inlineStr"/>
+        <v>67</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>81</v>
+      </c>
       <c r="AX23" t="n">
-        <v>7.7</v>
+        <v>5</v>
       </c>
       <c r="AY23" t="n">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="AZ23" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="BA23" t="n">
-        <v>300</v>
+        <v>67</v>
       </c>
       <c r="BB23" t="n">
-        <v>300</v>
+        <v>101</v>
       </c>
       <c r="BC23" t="n">
-        <v>500</v>
-      </c>
-      <c r="BD23" t="inlineStr"/>
+        <v>251</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>lpmJoGW9</t>
+          <t>UPa7e1IO</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -4688,44 +4704,44 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>11:25</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>Al Qadisiya</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Sivasspor</t>
+          <t>Al Khaleej</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2</v>
+        <v>1.62</v>
       </c>
       <c r="H24" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="I24" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="J24" t="n">
-        <v>2.63</v>
+        <v>2.2</v>
       </c>
       <c r="K24" t="n">
         <v>2.2</v>
       </c>
       <c r="L24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M24" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="N24" t="n">
         <v>11</v>
@@ -4737,10 +4753,10 @@
         <v>3.5</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R24" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S24" t="n">
         <v>1.4</v>
@@ -4749,73 +4765,73 @@
         <v>2.75</v>
       </c>
       <c r="U24" t="n">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
       <c r="V24" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X24" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AA24" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB24" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC24" t="n">
         <v>11</v>
       </c>
       <c r="AD24" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AE24" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AF24" t="n">
         <v>51</v>
       </c>
       <c r="AG24" t="n">
-        <v>201</v>
+        <v>800</v>
       </c>
       <c r="AH24" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI24" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AJ24" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AK24" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL24" t="n">
         <v>41</v>
       </c>
-      <c r="AL24" t="n">
-        <v>29</v>
-      </c>
       <c r="AM24" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN24" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="AO24" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="AP24" t="n">
         <v>21</v>
       </c>
       <c r="AQ24" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AR24" t="n">
         <v>51</v>
@@ -4827,40 +4843,40 @@
         <v>2.75</v>
       </c>
       <c r="AU24" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV24" t="n">
         <v>51</v>
       </c>
       <c r="AW24" t="n">
-        <v>276</v>
+        <v>81</v>
       </c>
       <c r="AX24" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AY24" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AZ24" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="BA24" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BB24" t="n">
+        <v>126</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>500</v>
+      </c>
+      <c r="BD24" t="n">
         <v>81</v>
-      </c>
-      <c r="BC24" t="n">
-        <v>201</v>
-      </c>
-      <c r="BD24" t="n">
-        <v>301</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>AiiFIAGP</t>
+          <t>rTPtA0XH</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -4870,152 +4886,152 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>TURKEY - 1. LIG</t>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Kocaelispor</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Adanaspor AS</t>
+          <t>Damac</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="H25" t="n">
-        <v>4.75</v>
+        <v>6.25</v>
       </c>
       <c r="I25" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="K25" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="L25" t="n">
+        <v>8</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N25" t="n">
+        <v>12</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R25" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T25" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W25" t="n">
         <v>9</v>
       </c>
-      <c r="J25" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="K25" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="L25" t="n">
-        <v>9</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N25" t="n">
-        <v>13</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P25" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="R25" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="S25" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T25" t="n">
-        <v>3</v>
-      </c>
-      <c r="U25" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V25" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="W25" t="n">
-        <v>6.5</v>
-      </c>
       <c r="X25" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Y25" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z25" t="n">
         <v>8</v>
       </c>
       <c r="AA25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB25" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AC25" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AD25" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="AE25" t="n">
         <v>23</v>
       </c>
       <c r="AF25" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AG25" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AH25" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI25" t="n">
         <v>41</v>
       </c>
       <c r="AJ25" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AK25" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AL25" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AM25" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN25" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="AO25" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AP25" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AQ25" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AR25" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AS25" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AT25" t="n">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="AU25" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV25" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW25" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="AX25" t="n">
         <v>10</v>
@@ -5024,25 +5040,25 @@
         <v>41</v>
       </c>
       <c r="AZ25" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA25" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="BB25" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="BC25" t="n">
-        <v>126</v>
+        <v>500</v>
       </c>
       <c r="BD25" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A5STH88b</t>
+          <t>z3MYBM25</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -5052,172 +5068,1786 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>UKRAINE - PREMIER LEAGUE</t>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Vorskla Poltava</t>
+          <t>Al Ahli SC</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Inhulets</t>
+          <t>Al Wehda</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.5</v>
+        <v>1.22</v>
       </c>
       <c r="H26" t="n">
-        <v>3.85</v>
+        <v>6</v>
       </c>
       <c r="I26" t="n">
-        <v>6.2</v>
+        <v>9.5</v>
       </c>
       <c r="J26" t="n">
-        <v>2</v>
+        <v>1.62</v>
       </c>
       <c r="K26" t="n">
-        <v>2.22</v>
+        <v>2.75</v>
       </c>
       <c r="L26" t="n">
-        <v>5.9</v>
+        <v>8</v>
       </c>
       <c r="M26" t="n">
+        <v>19</v>
+      </c>
+      <c r="N26" t="n">
         <v>1.03</v>
       </c>
-      <c r="N26" t="n">
-        <v>10.5</v>
-      </c>
       <c r="O26" t="n">
-        <v>1.3</v>
+        <v>1.13</v>
       </c>
       <c r="P26" t="n">
-        <v>2.95</v>
+        <v>5.5</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.88</v>
+        <v>1.44</v>
       </c>
       <c r="R26" t="n">
-        <v>1.72</v>
+        <v>2.63</v>
       </c>
       <c r="S26" t="n">
-        <v>1.4</v>
+        <v>1.22</v>
       </c>
       <c r="T26" t="n">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="U26" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V26" t="n">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="W26" t="n">
-        <v>5.8</v>
+        <v>9.5</v>
       </c>
       <c r="X26" t="n">
-        <v>6.3</v>
+        <v>7</v>
       </c>
       <c r="Y26" t="n">
-        <v>8.25</v>
+        <v>9.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AA26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>700</v>
+      </c>
+      <c r="AH26" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI26" t="n">
+        <v>51</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>126</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>67</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO26" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ26" t="n">
         <v>13</v>
       </c>
-      <c r="AB26" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC26" t="n">
+      <c r="AR26" t="n">
+        <v>34</v>
+      </c>
+      <c r="AS26" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT26" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU26" t="n">
         <v>9.5</v>
       </c>
-      <c r="AD26" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>20</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>110</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>37</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>20</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>150</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>75</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>75</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AO26" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AP26" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AQ26" t="n">
-        <v>21</v>
-      </c>
-      <c r="AR26" t="n">
-        <v>55</v>
-      </c>
-      <c r="AS26" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT26" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="AU26" t="n">
-        <v>8.25</v>
-      </c>
       <c r="AV26" t="n">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="AW26" t="n">
         <v>81</v>
       </c>
       <c r="AX26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>500</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>zgRmmLkg</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>29/11/2024</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>SERBIA - SUPER LIGA</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Novi Pazar</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Vojvodina</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="H27" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I27" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="J27" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K27" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L27" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N27" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P27" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R27" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="S27" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="T27" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="U27" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="V27" t="n">
+        <v>2</v>
+      </c>
+      <c r="W27" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="X27" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>35</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>450</v>
+      </c>
+      <c r="AH27" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>18</v>
+      </c>
+      <c r="AM27" t="n">
+        <v>27</v>
+      </c>
+      <c r="AN27" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>16</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>24</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>75</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>120</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>300</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>65</v>
+      </c>
+      <c r="AW27" t="inlineStr"/>
+      <c r="AX27" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>20</v>
+      </c>
+      <c r="BA27" t="n">
+        <v>50</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>80</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>250</v>
+      </c>
+      <c r="BD27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>tfYvksLt</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>29/11/2024</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>SERBIA - SUPER LIGA</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Cukaricki</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Sp. Subotica</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="H28" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I28" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="J28" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K28" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="L28" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N28" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="O28" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P28" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R28" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S28" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="T28" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="U28" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V28" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="W28" t="n">
+        <v>6</v>
+      </c>
+      <c r="X28" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>90</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH28" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI28" t="n">
+        <v>25</v>
+      </c>
+      <c r="AJ28" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AK28" t="n">
+        <v>80</v>
+      </c>
+      <c r="AL28" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM28" t="n">
+        <v>60</v>
+      </c>
+      <c r="AN28" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AQ28" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR28" t="n">
+        <v>65</v>
+      </c>
+      <c r="AS28" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT28" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AU28" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>75</v>
+      </c>
+      <c r="AW28" t="inlineStr"/>
+      <c r="AX28" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>27</v>
+      </c>
+      <c r="AZ28" t="n">
+        <v>32</v>
+      </c>
+      <c r="BA28" t="n">
+        <v>175</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>200</v>
+      </c>
+      <c r="BC28" t="n">
+        <v>450</v>
+      </c>
+      <c r="BD28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>86PeoaK5</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>29/11/2024</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>14:30</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>SERBIA - SUPER LIGA</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Tekstilac Odzaci</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>OFK Beograd</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H29" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I29" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="K29" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="L29" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N29" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P29" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T29" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U29" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="V29" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="W29" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="X29" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>45</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>45</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>90</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>800</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI29" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AL29" t="n">
+        <v>18</v>
+      </c>
+      <c r="AM29" t="n">
+        <v>35</v>
+      </c>
+      <c r="AN29" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AO29" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>28</v>
+      </c>
+      <c r="AQ29" t="n">
+        <v>100</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>150</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>400</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>80</v>
+      </c>
+      <c r="AW29" t="inlineStr"/>
+      <c r="AX29" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AY29" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AZ29" t="n">
+        <v>21</v>
+      </c>
+      <c r="BA29" t="n">
+        <v>45</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>90</v>
+      </c>
+      <c r="BC29" t="n">
+        <v>300</v>
+      </c>
+      <c r="BD29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>0z3ucZWr</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>29/11/2024</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>SLOVENIA - PRVA LIGA</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Domzale</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Bravo</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="H30" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="J30" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="K30" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="L30" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N30" t="n">
+        <v>6</v>
+      </c>
+      <c r="O30" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P30" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="T30" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="U30" t="n">
+        <v>2</v>
+      </c>
+      <c r="V30" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="W30" t="n">
+        <v>10</v>
+      </c>
+      <c r="X30" t="n">
+        <v>24</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>80</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>50</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>60</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>100</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>16</v>
+      </c>
+      <c r="AL30" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AM30" t="n">
+        <v>32</v>
+      </c>
+      <c r="AN30" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AO30" t="n">
+        <v>27</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>32</v>
+      </c>
+      <c r="AQ30" t="n">
+        <v>175</v>
+      </c>
+      <c r="AR30" t="n">
+        <v>200</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>500</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AU30" t="n">
         <v>7.4</v>
       </c>
-      <c r="AY26" t="n">
-        <v>37</v>
-      </c>
-      <c r="AZ26" t="n">
+      <c r="AV30" t="n">
+        <v>75</v>
+      </c>
+      <c r="AW30" t="inlineStr"/>
+      <c r="AX30" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AY30" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ30" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="BA30" t="n">
+        <v>35</v>
+      </c>
+      <c r="BB30" t="n">
+        <v>75</v>
+      </c>
+      <c r="BC30" t="n">
+        <v>300</v>
+      </c>
+      <c r="BD30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>bsVmglQj</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>29/11/2024</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>15:30</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Lausanne Ouchy</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Xamax</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="H31" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I31" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J31" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K31" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="L31" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N31" t="n">
+        <v>9</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P31" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="R31" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T31" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="U31" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="V31" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="W31" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="X31" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>18</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AB31" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC31" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF31" t="n">
         <v>40</v>
       </c>
-      <c r="BA26" t="n">
+      <c r="AG31" t="n">
         <v>250</v>
       </c>
-      <c r="BB26" t="n">
+      <c r="AH31" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ31" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AK31" t="n">
+        <v>45</v>
+      </c>
+      <c r="AL31" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM31" t="n">
+        <v>27</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>30</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>45</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>150</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>45</v>
+      </c>
+      <c r="AW31" t="inlineStr"/>
+      <c r="AX31" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AY31" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AZ31" t="n">
+        <v>21</v>
+      </c>
+      <c r="BA31" t="n">
+        <v>80</v>
+      </c>
+      <c r="BB31" t="n">
+        <v>100</v>
+      </c>
+      <c r="BC31" t="n">
+        <v>200</v>
+      </c>
+      <c r="BD31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>vV3csVm3</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>29/11/2024</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>THAILAND - THAI LEAGUE 1</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Prachuap</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Nakhon Ratchasima FC</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="H32" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="I32" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="J32" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="K32" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L32" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N32" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="O32" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P32" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R32" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S32" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="T32" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="U32" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V32" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="W32" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="X32" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>28</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AF32" t="n">
+        <v>100</v>
+      </c>
+      <c r="AG32" t="n">
+        <v>800</v>
+      </c>
+      <c r="AH32" t="n">
+        <v>16</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>150</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>75</v>
+      </c>
+      <c r="AN32" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO32" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AQ32" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR32" t="n">
+        <v>55</v>
+      </c>
+      <c r="AS32" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT32" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>90</v>
+      </c>
+      <c r="AW32" t="inlineStr"/>
+      <c r="AX32" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AY32" t="n">
+        <v>40</v>
+      </c>
+      <c r="AZ32" t="n">
+        <v>40</v>
+      </c>
+      <c r="BA32" t="n">
         <v>300</v>
       </c>
-      <c r="BC26" t="n">
+      <c r="BB32" t="n">
+        <v>300</v>
+      </c>
+      <c r="BC32" t="n">
+        <v>500</v>
+      </c>
+      <c r="BD32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>lpmJoGW9</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>29/11/2024</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>TURKEY - SUPER LIG</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Antalyaspor</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Sivasspor</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
+        <v>2</v>
+      </c>
+      <c r="H33" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I33" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J33" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K33" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L33" t="n">
+        <v>4</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N33" t="n">
+        <v>11</v>
+      </c>
+      <c r="O33" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P33" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="T33" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U33" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V33" t="n">
+        <v>2</v>
+      </c>
+      <c r="W33" t="n">
+        <v>8</v>
+      </c>
+      <c r="X33" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD33" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW33" t="n">
+        <v>276</v>
+      </c>
+      <c r="AX33" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AY33" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ33" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA33" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB33" t="n">
         <v>81</v>
       </c>
-      <c r="BD26" t="n">
+      <c r="BC33" t="n">
+        <v>201</v>
+      </c>
+      <c r="BD33" t="n">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>AiiFIAGP</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>29/11/2024</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>TURKEY - 1. LIG</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Kocaelispor</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Adanaspor AS</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H34" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="I34" t="n">
+        <v>9</v>
+      </c>
+      <c r="J34" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="K34" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L34" t="n">
+        <v>9</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N34" t="n">
+        <v>13</v>
+      </c>
+      <c r="O34" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P34" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R34" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T34" t="n">
+        <v>3</v>
+      </c>
+      <c r="U34" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V34" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W34" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X34" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>800</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>126</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>67</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>67</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>6</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>17</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW34" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX34" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY34" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ34" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA34" t="n">
+        <v>251</v>
+      </c>
+      <c r="BB34" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC34" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD34" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>A5STH88b</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>29/11/2024</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>UKRAINE - PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Vorskla Poltava</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Inhulets</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H35" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I35" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="J35" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="K35" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="L35" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N35" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="O35" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P35" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R35" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S35" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T35" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U35" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="V35" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W35" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="X35" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>35</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>120</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>18</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>110</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>75</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>25</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>65</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>300</v>
+      </c>
+      <c r="AT35" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AU35" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AV35" t="n">
+        <v>90</v>
+      </c>
+      <c r="AW35" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX35" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AY35" t="n">
+        <v>32</v>
+      </c>
+      <c r="AZ35" t="n">
+        <v>40</v>
+      </c>
+      <c r="BA35" t="n">
+        <v>200</v>
+      </c>
+      <c r="BB35" t="n">
+        <v>250</v>
+      </c>
+      <c r="BC35" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD35" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-11-29.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-11-29.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD62"/>
+  <dimension ref="A1:BD65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -783,7 +783,7 @@
         <v>2.75</v>
       </c>
       <c r="S2" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="T2" t="n">
         <v>3.75</v>
@@ -965,7 +965,7 @@
         <v>1.9</v>
       </c>
       <c r="S3" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="T3" t="n">
         <v>2.75</v>
@@ -1111,10 +1111,10 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H4" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I4" t="n">
         <v>5.25</v>
@@ -1126,7 +1126,7 @@
         <v>2.2</v>
       </c>
       <c r="L4" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M4" t="n">
         <v>1.05</v>
@@ -1141,13 +1141,13 @@
         <v>3.75</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="R4" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S4" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="T4" t="n">
         <v>2.75</v>
@@ -1162,7 +1162,7 @@
         <v>7</v>
       </c>
       <c r="X4" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y4" t="n">
         <v>8.5</v>
@@ -1177,19 +1177,19 @@
         <v>26</v>
       </c>
       <c r="AC4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD4" t="n">
         <v>7</v>
       </c>
       <c r="AE4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF4" t="n">
         <v>51</v>
       </c>
       <c r="AG4" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH4" t="n">
         <v>13</v>
@@ -1198,7 +1198,7 @@
         <v>26</v>
       </c>
       <c r="AJ4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK4" t="n">
         <v>51</v>
@@ -1213,7 +1213,7 @@
         <v>3.6</v>
       </c>
       <c r="AO4" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AP4" t="n">
         <v>21</v>
@@ -1252,7 +1252,7 @@
         <v>101</v>
       </c>
       <c r="BB4" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC4" t="n">
         <v>251</v>
@@ -1317,19 +1317,19 @@
         <v>11</v>
       </c>
       <c r="O5" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P5" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="R5" t="n">
-        <v>1.99</v>
+        <v>2.01</v>
       </c>
       <c r="S5" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T5" t="n">
         <v>3</v>
@@ -1475,7 +1475,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H6" t="n">
         <v>3.9</v>
@@ -1511,16 +1511,16 @@
         <v>2.35</v>
       </c>
       <c r="S6" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="T6" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="U6" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V6" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W6" t="n">
         <v>9.5</v>
@@ -1535,7 +1535,7 @@
         <v>15</v>
       </c>
       <c r="AA6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB6" t="n">
         <v>21</v>
@@ -1544,7 +1544,7 @@
         <v>15</v>
       </c>
       <c r="AD6" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE6" t="n">
         <v>13</v>
@@ -1592,7 +1592,7 @@
         <v>101</v>
       </c>
       <c r="AT6" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AU6" t="n">
         <v>7.5</v>
@@ -1607,7 +1607,7 @@
         <v>6.5</v>
       </c>
       <c r="AY6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ6" t="n">
         <v>26</v>
@@ -2017,22 +2017,22 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="H9" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I9" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="J9" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="K9" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="L9" t="n">
-        <v>4</v>
+        <v>4.05</v>
       </c>
       <c r="M9" t="n">
         <v>1.06</v>
@@ -2056,28 +2056,28 @@
         <v>1.42</v>
       </c>
       <c r="T9" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="U9" t="n">
         <v>1.8</v>
       </c>
       <c r="V9" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="W9" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="X9" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="Y9" t="n">
         <v>8.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AB9" t="n">
         <v>28</v>
@@ -2086,13 +2086,13 @@
         <v>7.3</v>
       </c>
       <c r="AD9" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AE9" t="n">
         <v>15</v>
       </c>
       <c r="AF9" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AG9" t="n">
         <v>600</v>
@@ -2104,10 +2104,10 @@
         <v>18.5</v>
       </c>
       <c r="AJ9" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AK9" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AL9" t="n">
         <v>32</v>
@@ -2119,22 +2119,22 @@
         <v>3.8</v>
       </c>
       <c r="AO9" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AP9" t="n">
         <v>20</v>
       </c>
       <c r="AQ9" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AR9" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AS9" t="n">
         <v>300</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="AU9" t="n">
         <v>7.6</v>
@@ -2146,16 +2146,16 @@
         <v>81</v>
       </c>
       <c r="AX9" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="AY9" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AZ9" t="n">
         <v>28</v>
       </c>
       <c r="BA9" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="BB9" t="n">
         <v>150</v>
@@ -2220,40 +2220,40 @@
         <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="O10" t="n">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="P10" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="R10" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="S10" t="n">
         <v>1.39</v>
       </c>
       <c r="T10" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="U10" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="V10" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W10" t="n">
         <v>15</v>
       </c>
       <c r="X10" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Y10" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="Z10" t="n">
         <v>120</v>
@@ -2265,25 +2265,25 @@
         <v>65</v>
       </c>
       <c r="AC10" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD10" t="n">
         <v>7.9</v>
       </c>
       <c r="AE10" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AF10" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AG10" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AH10" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI10" t="n">
         <v>6.7</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>6.9</v>
       </c>
       <c r="AJ10" t="n">
         <v>8.25</v>
@@ -2292,10 +2292,10 @@
         <v>10.25</v>
       </c>
       <c r="AL10" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AM10" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AN10" t="n">
         <v>7.2</v>
@@ -2316,7 +2316,7 @@
         <v>500</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="AU10" t="n">
         <v>8.25</v>
@@ -2328,16 +2328,16 @@
         <v>81</v>
       </c>
       <c r="AX10" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="AY10" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AZ10" t="n">
         <v>18</v>
       </c>
       <c r="BA10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BB10" t="n">
         <v>55</v>
@@ -2927,28 +2927,28 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.67</v>
+        <v>2.57</v>
       </c>
       <c r="H14" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="I14" t="n">
-        <v>2.67</v>
+        <v>2.82</v>
       </c>
       <c r="J14" t="n">
         <v>3.35</v>
       </c>
       <c r="K14" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="L14" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M14" t="n">
         <v>1.06</v>
       </c>
       <c r="N14" t="n">
-        <v>5.85</v>
+        <v>5.9</v>
       </c>
       <c r="O14" t="n">
         <v>1.52</v>
@@ -2963,28 +2963,28 @@
         <v>1.42</v>
       </c>
       <c r="S14" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="T14" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="U14" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="V14" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="W14" t="n">
-        <v>6.3</v>
+        <v>6</v>
       </c>
       <c r="X14" t="n">
-        <v>11.75</v>
+        <v>11</v>
       </c>
       <c r="Y14" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="Z14" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AA14" t="n">
         <v>29</v>
@@ -2996,10 +2996,10 @@
         <v>6.1</v>
       </c>
       <c r="AD14" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AE14" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AF14" t="n">
         <v>120</v>
@@ -3008,31 +3008,31 @@
         <v>900</v>
       </c>
       <c r="AH14" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="AI14" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AJ14" t="n">
         <v>11</v>
       </c>
       <c r="AK14" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AL14" t="n">
         <v>30</v>
       </c>
       <c r="AM14" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AN14" t="n">
-        <v>4.3</v>
+        <v>4.25</v>
       </c>
       <c r="AO14" t="n">
         <v>15</v>
       </c>
       <c r="AP14" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AQ14" t="n">
         <v>75</v>
@@ -3054,10 +3054,10 @@
       </c>
       <c r="AW14" t="inlineStr"/>
       <c r="AX14" t="n">
-        <v>4.3</v>
+        <v>4.45</v>
       </c>
       <c r="AY14" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AZ14" t="n">
         <v>29</v>
@@ -3298,13 +3298,13 @@
         <v>2.2</v>
       </c>
       <c r="L16" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="M16" t="n">
         <v>1.04</v>
       </c>
       <c r="N16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O16" t="n">
         <v>1.25</v>
@@ -3334,7 +3334,7 @@
         <v>11</v>
       </c>
       <c r="X16" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y16" t="n">
         <v>12</v>
@@ -3364,7 +3364,7 @@
         <v>201</v>
       </c>
       <c r="AH16" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI16" t="n">
         <v>10</v>
@@ -3507,7 +3507,7 @@
         <v>3.75</v>
       </c>
       <c r="U17" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="V17" t="n">
         <v>2.2</v>
@@ -3689,7 +3689,7 @@
         <v>3.25</v>
       </c>
       <c r="U18" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="V18" t="n">
         <v>2</v>
@@ -3874,7 +3874,7 @@
         <v>2.2</v>
       </c>
       <c r="V19" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="W19" t="n">
         <v>7.5</v>
@@ -4049,10 +4049,10 @@
         <v>3.25</v>
       </c>
       <c r="U20" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V20" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W20" t="n">
         <v>7.5</v>
@@ -4209,10 +4209,10 @@
         <v>9</v>
       </c>
       <c r="O21" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P21" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q21" t="n">
         <v>2.1</v>
@@ -4393,10 +4393,10 @@
         <v>3</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R22" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S22" t="n">
         <v>1.5</v>
@@ -4539,22 +4539,22 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="H23" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I23" t="n">
-        <v>5.75</v>
+        <v>6.25</v>
       </c>
       <c r="J23" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K23" t="n">
         <v>2.05</v>
       </c>
       <c r="L23" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M23" t="n">
         <v>1.08</v>
@@ -4581,13 +4581,13 @@
         <v>2.5</v>
       </c>
       <c r="U23" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="V23" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="W23" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="X23" t="n">
         <v>6.5</v>
@@ -4596,22 +4596,22 @@
         <v>9</v>
       </c>
       <c r="Z23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA23" t="n">
         <v>17</v>
       </c>
       <c r="AB23" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC23" t="n">
         <v>7.5</v>
       </c>
       <c r="AD23" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF23" t="n">
         <v>81</v>
@@ -4620,13 +4620,13 @@
         <v>1000</v>
       </c>
       <c r="AH23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI23" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ23" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK23" t="n">
         <v>67</v>
@@ -4635,13 +4635,13 @@
         <v>51</v>
       </c>
       <c r="AM23" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN23" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AO23" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AP23" t="n">
         <v>23</v>
@@ -4653,13 +4653,13 @@
         <v>51</v>
       </c>
       <c r="AS23" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT23" t="n">
         <v>2.5</v>
       </c>
       <c r="AU23" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV23" t="n">
         <v>81</v>
@@ -4668,16 +4668,16 @@
         <v>81</v>
       </c>
       <c r="AX23" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AY23" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ23" t="n">
         <v>41</v>
       </c>
       <c r="BA23" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB23" t="n">
         <v>201</v>
@@ -5288,7 +5288,7 @@
         <v>1.08</v>
       </c>
       <c r="N27" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O27" t="n">
         <v>1.44</v>
@@ -5297,10 +5297,10 @@
         <v>2.75</v>
       </c>
       <c r="Q27" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="R27" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S27" t="n">
         <v>1.5</v>
@@ -5449,22 +5449,22 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="H28" t="n">
         <v>3.7</v>
       </c>
       <c r="I28" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="J28" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K28" t="n">
         <v>2.38</v>
       </c>
       <c r="L28" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M28" t="n">
         <v>1.03</v>
@@ -5500,10 +5500,10 @@
         <v>12</v>
       </c>
       <c r="X28" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y28" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z28" t="n">
         <v>23</v>
@@ -5521,7 +5521,7 @@
         <v>7.5</v>
       </c>
       <c r="AE28" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF28" t="n">
         <v>34</v>
@@ -5533,25 +5533,25 @@
         <v>13</v>
       </c>
       <c r="AI28" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK28" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL28" t="n">
         <v>19</v>
       </c>
       <c r="AM28" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN28" t="n">
         <v>4.75</v>
       </c>
       <c r="AO28" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP28" t="n">
         <v>19</v>
@@ -5581,7 +5581,7 @@
         <v>5</v>
       </c>
       <c r="AY28" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ28" t="n">
         <v>19</v>
@@ -5637,7 +5637,7 @@
         <v>3.6</v>
       </c>
       <c r="I29" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J29" t="n">
         <v>2.75</v>
@@ -5646,25 +5646,25 @@
         <v>2.3</v>
       </c>
       <c r="L29" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M29" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N29" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O29" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P29" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="R29" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="S29" t="n">
         <v>1.3</v>
@@ -5706,7 +5706,7 @@
         <v>12</v>
       </c>
       <c r="AF29" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG29" t="n">
         <v>126</v>
@@ -5730,7 +5730,7 @@
         <v>26</v>
       </c>
       <c r="AN29" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO29" t="n">
         <v>11</v>
@@ -5751,7 +5751,7 @@
         <v>3.4</v>
       </c>
       <c r="AU29" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV29" t="n">
         <v>41</v>
@@ -6025,10 +6025,10 @@
         <v>4.5</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R31" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S31" t="n">
         <v>1.33</v>
@@ -6173,22 +6173,22 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="H32" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I32" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="J32" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K32" t="n">
         <v>2.3</v>
       </c>
       <c r="L32" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M32" t="n">
         <v>1.03</v>
@@ -6197,16 +6197,16 @@
         <v>15</v>
       </c>
       <c r="O32" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P32" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q32" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="R32" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="S32" t="n">
         <v>1.3</v>
@@ -6236,13 +6236,13 @@
         <v>21</v>
       </c>
       <c r="AB32" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC32" t="n">
         <v>15</v>
       </c>
       <c r="AD32" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE32" t="n">
         <v>11</v>
@@ -6254,13 +6254,13 @@
         <v>101</v>
       </c>
       <c r="AH32" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI32" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ32" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK32" t="n">
         <v>23</v>
@@ -6269,7 +6269,7 @@
         <v>17</v>
       </c>
       <c r="AM32" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN32" t="n">
         <v>5</v>
@@ -6287,7 +6287,7 @@
         <v>51</v>
       </c>
       <c r="AS32" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT32" t="n">
         <v>3.4</v>
@@ -6305,7 +6305,7 @@
         <v>4.75</v>
       </c>
       <c r="AY32" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ32" t="n">
         <v>19</v>
@@ -6374,7 +6374,7 @@
         <v>1.06</v>
       </c>
       <c r="N33" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O33" t="n">
         <v>1.33</v>
@@ -6555,16 +6555,16 @@
         <v>11</v>
       </c>
       <c r="O34" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P34" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R34" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S34" t="n">
         <v>1.4</v>
@@ -6897,7 +6897,7 @@
         <v>3.3</v>
       </c>
       <c r="I36" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J36" t="n">
         <v>2.3</v>
@@ -6909,10 +6909,10 @@
         <v>6</v>
       </c>
       <c r="M36" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N36" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="O36" t="n">
         <v>1.4</v>
@@ -7087,22 +7087,22 @@
         <v>4</v>
       </c>
       <c r="M37" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N37" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O37" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P37" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R37" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S37" t="n">
         <v>1.33</v>
@@ -7251,19 +7251,19 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H38" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I38" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J38" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K38" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L38" t="n">
         <v>4.5</v>
@@ -7281,25 +7281,25 @@
         <v>5</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="R38" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="S38" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="T38" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U38" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="V38" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="W38" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X38" t="n">
         <v>10</v>
@@ -7311,10 +7311,10 @@
         <v>15</v>
       </c>
       <c r="AA38" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB38" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC38" t="n">
         <v>17</v>
@@ -7326,25 +7326,25 @@
         <v>13</v>
       </c>
       <c r="AF38" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG38" t="n">
         <v>126</v>
       </c>
       <c r="AH38" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI38" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ38" t="n">
         <v>15</v>
       </c>
       <c r="AK38" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL38" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM38" t="n">
         <v>34</v>
@@ -7356,19 +7356,19 @@
         <v>8.5</v>
       </c>
       <c r="AP38" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AQ38" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AR38" t="n">
         <v>41</v>
       </c>
       <c r="AS38" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AT38" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AU38" t="n">
         <v>7.5</v>
@@ -7386,16 +7386,16 @@
         <v>21</v>
       </c>
       <c r="AZ38" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BA38" t="n">
         <v>67</v>
       </c>
       <c r="BB38" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BC38" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD38" t="n">
         <v>151</v>
@@ -7475,7 +7475,7 @@
         <v>4.5</v>
       </c>
       <c r="U39" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="V39" t="n">
         <v>2.5</v>
@@ -7657,10 +7657,10 @@
         <v>3.75</v>
       </c>
       <c r="U40" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="V40" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="W40" t="n">
         <v>17</v>
@@ -7797,22 +7797,22 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="H41" t="n">
         <v>3.7</v>
       </c>
       <c r="I41" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="J41" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K41" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L41" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="M41" t="n">
         <v>1.04</v>
@@ -7839,7 +7839,7 @@
         <v>3.25</v>
       </c>
       <c r="U41" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="V41" t="n">
         <v>2.2</v>
@@ -7848,10 +7848,10 @@
         <v>12</v>
       </c>
       <c r="X41" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y41" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z41" t="n">
         <v>34</v>
@@ -7878,19 +7878,19 @@
         <v>151</v>
       </c>
       <c r="AH41" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI41" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ41" t="n">
         <v>9</v>
       </c>
       <c r="AK41" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL41" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM41" t="n">
         <v>23</v>
@@ -7929,13 +7929,13 @@
         <v>4.33</v>
       </c>
       <c r="AY41" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ41" t="n">
         <v>19</v>
       </c>
       <c r="BA41" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BB41" t="n">
         <v>51</v>
@@ -7988,7 +7988,7 @@
         <v>2.38</v>
       </c>
       <c r="J42" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K42" t="n">
         <v>2.25</v>
@@ -8021,10 +8021,10 @@
         <v>3.25</v>
       </c>
       <c r="U42" t="n">
-        <v>1.58</v>
+        <v>1.57</v>
       </c>
       <c r="V42" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W42" t="n">
         <v>11</v>
@@ -8051,7 +8051,7 @@
         <v>7</v>
       </c>
       <c r="AE42" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF42" t="n">
         <v>41</v>
@@ -8090,7 +8090,7 @@
         <v>51</v>
       </c>
       <c r="AR42" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS42" t="n">
         <v>126</v>
@@ -8102,7 +8102,7 @@
         <v>7.5</v>
       </c>
       <c r="AV42" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW42" t="n">
         <v>126</v>
@@ -8132,7 +8132,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>QRcnTnFr</t>
+          <t>jintBanI</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -8142,179 +8142,175 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Cracovia</t>
+          <t>General Caballero JLM</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Zaglebie</t>
+          <t>2 de Mayo</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.95</v>
+        <v>3.1</v>
       </c>
       <c r="H43" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="I43" t="n">
-        <v>3.9</v>
+        <v>2.3</v>
       </c>
       <c r="J43" t="n">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="K43" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L43" t="n">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="M43" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N43" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O43" t="n">
-        <v>1.25</v>
+        <v>1.36</v>
       </c>
       <c r="P43" t="n">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.83</v>
+        <v>2.15</v>
       </c>
       <c r="R43" t="n">
-        <v>2.03</v>
+        <v>1.67</v>
       </c>
       <c r="S43" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="T43" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U43" t="n">
-        <v>1.67</v>
+        <v>1.91</v>
       </c>
       <c r="V43" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="W43" t="n">
         <v>8.5</v>
       </c>
       <c r="X43" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ43" t="n">
         <v>10</v>
       </c>
-      <c r="Y43" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z43" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA43" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB43" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC43" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD43" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE43" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF43" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG43" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH43" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI43" t="n">
+      <c r="AK43" t="n">
         <v>21</v>
       </c>
-      <c r="AJ43" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK43" t="n">
-        <v>41</v>
-      </c>
       <c r="AL43" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="AM43" t="n">
         <v>34</v>
       </c>
       <c r="AN43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO43" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AP43" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AQ43" t="n">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="AR43" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="AS43" t="n">
-        <v>126</v>
+        <v>251</v>
       </c>
       <c r="AT43" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AU43" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AV43" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW43" t="n">
-        <v>501</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="AW43" t="inlineStr"/>
       <c r="AX43" t="n">
-        <v>5.5</v>
+        <v>4.33</v>
       </c>
       <c r="AY43" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AZ43" t="n">
         <v>26</v>
       </c>
       <c r="BA43" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB43" t="n">
         <v>81</v>
       </c>
       <c r="BC43" t="n">
-        <v>151</v>
-      </c>
-      <c r="BD43" t="n">
-        <v>81</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="BD43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>QayFUajm</t>
+          <t>2VFbTt2n</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -8324,41 +8320,41 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>POLAND - EKSTRAKLASA</t>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Piast Gliwice</t>
+          <t>Nacional Asuncion</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Lech Poznan</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>4.1</v>
+        <v>2.45</v>
       </c>
       <c r="H44" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I44" t="n">
-        <v>1.91</v>
+        <v>2.8</v>
       </c>
       <c r="J44" t="n">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="K44" t="n">
         <v>2.05</v>
       </c>
       <c r="L44" t="n">
-        <v>2.63</v>
+        <v>3.5</v>
       </c>
       <c r="M44" t="n">
         <v>1.07</v>
@@ -8367,136 +8363,132 @@
         <v>9</v>
       </c>
       <c r="O44" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P44" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R44" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S44" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T44" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U44" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="V44" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W44" t="n">
+        <v>8</v>
+      </c>
+      <c r="X44" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y44" t="n">
         <v>10</v>
       </c>
-      <c r="X44" t="n">
+      <c r="Z44" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA44" t="n">
         <v>21</v>
       </c>
-      <c r="Y44" t="n">
+      <c r="AB44" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE44" t="n">
         <v>15</v>
-      </c>
-      <c r="Z44" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA44" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB44" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC44" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD44" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE44" t="n">
-        <v>17</v>
       </c>
       <c r="AF44" t="n">
         <v>51</v>
       </c>
       <c r="AG44" t="n">
-        <v>401</v>
+        <v>301</v>
       </c>
       <c r="AH44" t="n">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="AI44" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="AJ44" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AK44" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP44" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ44" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR44" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS44" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT44" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU44" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV44" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW44" t="inlineStr"/>
+      <c r="AX44" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AY44" t="n">
         <v>17</v>
       </c>
-      <c r="AL44" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM44" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN44" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO44" t="n">
-        <v>23</v>
-      </c>
-      <c r="AP44" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ44" t="n">
+      <c r="AZ44" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA44" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB44" t="n">
         <v>81</v>
-      </c>
-      <c r="AR44" t="n">
-        <v>101</v>
-      </c>
-      <c r="AS44" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT44" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU44" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV44" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW44" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX44" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AY44" t="n">
-        <v>11</v>
-      </c>
-      <c r="AZ44" t="n">
-        <v>23</v>
-      </c>
-      <c r="BA44" t="n">
-        <v>41</v>
-      </c>
-      <c r="BB44" t="n">
-        <v>67</v>
       </c>
       <c r="BC44" t="n">
         <v>201</v>
       </c>
-      <c r="BD44" t="n">
-        <v>81</v>
-      </c>
+      <c r="BD44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>dtX7Rg3b</t>
+          <t>nJuk9wHU</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -8506,179 +8498,175 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>PARAGUAY - PRIMERA DIVISION</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Pruszkow</t>
+          <t>Sol de America</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Polonia Warszawa</t>
+          <t>Ameliano</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="H45" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="I45" t="n">
-        <v>2.55</v>
+        <v>2.88</v>
       </c>
       <c r="J45" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K45" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L45" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N45" t="n">
+        <v>7</v>
+      </c>
+      <c r="O45" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P45" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T45" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U45" t="n">
         <v>2.1</v>
       </c>
-      <c r="L45" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="M45" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N45" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="O45" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P45" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R45" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S45" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T45" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U45" t="n">
-        <v>1.8</v>
-      </c>
       <c r="V45" t="n">
-        <v>1.91</v>
+        <v>1.67</v>
       </c>
       <c r="W45" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="X45" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Y45" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z45" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA45" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB45" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AC45" t="n">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="AD45" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE45" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AF45" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG45" t="n">
-        <v>251</v>
+        <v>101</v>
       </c>
       <c r="AH45" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AI45" t="n">
         <v>13</v>
       </c>
       <c r="AJ45" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AK45" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL45" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AM45" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AN45" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="AO45" t="n">
         <v>15</v>
       </c>
       <c r="AP45" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ45" t="n">
         <v>51</v>
       </c>
       <c r="AR45" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS45" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT45" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU45" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV45" t="n">
         <v>67</v>
       </c>
-      <c r="AS45" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT45" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU45" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV45" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW45" t="n">
-        <v>81</v>
-      </c>
+      <c r="AW45" t="inlineStr"/>
       <c r="AX45" t="n">
         <v>4.75</v>
       </c>
       <c r="AY45" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AZ45" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="BA45" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB45" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BC45" t="n">
-        <v>151</v>
-      </c>
-      <c r="BD45" t="n">
-        <v>81</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="BD45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>nqTaRYo1</t>
+          <t>QRcnTnFr</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -8688,59 +8676,59 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>POLAND - DIVISION 1</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Ruch Chorzow</t>
+          <t>Cracovia</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Odra Opole</t>
+          <t>Zaglebie</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.62</v>
+        <v>1.95</v>
       </c>
       <c r="H46" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="I46" t="n">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="J46" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="K46" t="n">
         <v>2.25</v>
       </c>
       <c r="L46" t="n">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="M46" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N46" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O46" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="P46" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="R46" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="S46" t="n">
         <v>1.36</v>
@@ -8749,109 +8737,109 @@
         <v>3</v>
       </c>
       <c r="U46" t="n">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="V46" t="n">
-        <v>1.83</v>
+        <v>2.1</v>
       </c>
       <c r="W46" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="X46" t="n">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="Y46" t="n">
         <v>8.5</v>
       </c>
       <c r="Z46" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC46" t="n">
         <v>12</v>
       </c>
-      <c r="AA46" t="n">
+      <c r="AD46" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE46" t="n">
         <v>13</v>
       </c>
-      <c r="AB46" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC46" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD46" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE46" t="n">
-        <v>17</v>
-      </c>
       <c r="AF46" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG46" t="n">
-        <v>301</v>
+        <v>151</v>
       </c>
       <c r="AH46" t="n">
         <v>13</v>
       </c>
       <c r="AI46" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AJ46" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK46" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL46" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AM46" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN46" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="AO46" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AP46" t="n">
         <v>19</v>
       </c>
       <c r="AQ46" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AR46" t="n">
         <v>51</v>
       </c>
       <c r="AS46" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT46" t="n">
         <v>3</v>
       </c>
       <c r="AU46" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AV46" t="n">
         <v>51</v>
       </c>
       <c r="AW46" t="n">
+        <v>501</v>
+      </c>
+      <c r="AX46" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AY46" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ46" t="n">
+        <v>26</v>
+      </c>
+      <c r="BA46" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB46" t="n">
         <v>81</v>
       </c>
-      <c r="AX46" t="n">
-        <v>7</v>
-      </c>
-      <c r="AY46" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ46" t="n">
-        <v>34</v>
-      </c>
-      <c r="BA46" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB46" t="n">
-        <v>126</v>
-      </c>
       <c r="BC46" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="BD46" t="n">
         <v>81</v>
@@ -8860,7 +8848,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>CvWwg4KF</t>
+          <t>QayFUajm</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -8870,59 +8858,59 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>17:15</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL</t>
+          <t>POLAND - EKSTRAKLASA</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>SC Farense</t>
+          <t>Piast Gliwice</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Estrela</t>
+          <t>Lech Poznan</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.15</v>
+        <v>4.1</v>
       </c>
       <c r="H47" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I47" t="n">
-        <v>3.5</v>
+        <v>1.91</v>
       </c>
       <c r="J47" t="n">
-        <v>2.88</v>
+        <v>4.75</v>
       </c>
       <c r="K47" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L47" t="n">
-        <v>4.33</v>
+        <v>2.63</v>
       </c>
       <c r="M47" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N47" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O47" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P47" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q47" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="R47" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="S47" t="n">
         <v>1.5</v>
@@ -8931,79 +8919,79 @@
         <v>2.5</v>
       </c>
       <c r="U47" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V47" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W47" t="n">
+        <v>10</v>
+      </c>
+      <c r="X47" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>15</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD47" t="n">
         <v>6.5</v>
-      </c>
-      <c r="X47" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Y47" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z47" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA47" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB47" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC47" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD47" t="n">
-        <v>6</v>
       </c>
       <c r="AE47" t="n">
         <v>17</v>
       </c>
       <c r="AF47" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG47" t="n">
         <v>401</v>
       </c>
       <c r="AH47" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI47" t="n">
         <v>8.5</v>
       </c>
-      <c r="AI47" t="n">
+      <c r="AJ47" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK47" t="n">
         <v>17</v>
       </c>
-      <c r="AJ47" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK47" t="n">
-        <v>41</v>
-      </c>
       <c r="AL47" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP47" t="n">
         <v>34</v>
       </c>
-      <c r="AM47" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN47" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO47" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP47" t="n">
-        <v>26</v>
-      </c>
       <c r="AQ47" t="n">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="AR47" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="AS47" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="AT47" t="n">
         <v>2.5</v>
@@ -9015,34 +9003,34 @@
         <v>67</v>
       </c>
       <c r="AW47" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="AX47" t="n">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="AY47" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="AZ47" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="BA47" t="n">
+        <v>41</v>
+      </c>
+      <c r="BB47" t="n">
         <v>67</v>
       </c>
-      <c r="BB47" t="n">
-        <v>101</v>
-      </c>
       <c r="BC47" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="BD47" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>vueMHzpA</t>
+          <t>dtX7Rg3b</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -9052,170 +9040,170 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>15:00</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>PORTUGAL - LIGA PORTUGAL 2</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Academico Viseu</t>
+          <t>Pruszkow</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Leixoes</t>
+          <t>Polonia Warszawa</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.3</v>
+        <v>2.55</v>
       </c>
       <c r="H48" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="I48" t="n">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="J48" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K48" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="L48" t="n">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M48" t="n">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="N48" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="O48" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P48" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R48" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S48" t="n">
         <v>1.44</v>
       </c>
-      <c r="P48" t="n">
+      <c r="T48" t="n">
         <v>2.63</v>
       </c>
-      <c r="Q48" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R48" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S48" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T48" t="n">
-        <v>2.38</v>
-      </c>
       <c r="U48" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V48" t="n">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
       <c r="W48" t="n">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="X48" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Y48" t="n">
         <v>10</v>
       </c>
       <c r="Z48" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AA48" t="n">
         <v>21</v>
       </c>
       <c r="AB48" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC48" t="n">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="AD48" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE48" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF48" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG48" t="n">
-        <v>1000</v>
+        <v>251</v>
       </c>
       <c r="AH48" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI48" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ48" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AK48" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AL48" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM48" t="n">
         <v>29</v>
       </c>
-      <c r="AM48" t="n">
-        <v>41</v>
-      </c>
       <c r="AN48" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="AO48" t="n">
         <v>15</v>
       </c>
       <c r="AP48" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ48" t="n">
         <v>51</v>
       </c>
       <c r="AR48" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS48" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="AT48" t="n">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="AU48" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV48" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW48" t="n">
         <v>81</v>
       </c>
       <c r="AX48" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AY48" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AZ48" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="BA48" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB48" t="n">
         <v>67</v>
       </c>
-      <c r="BB48" t="n">
-        <v>101</v>
-      </c>
       <c r="BC48" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="BD48" t="n">
         <v>81</v>
@@ -9224,7 +9212,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>UPa7e1IO</t>
+          <t>nqTaRYo1</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -9234,110 +9222,110 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>11:25</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>POLAND - DIVISION 1</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Al Qadisiya</t>
+          <t>Ruch Chorzow</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Al Khaleej</t>
+          <t>Odra Opole</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H49" t="n">
         <v>3.75</v>
       </c>
       <c r="I49" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J49" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K49" t="n">
         <v>2.25</v>
       </c>
-      <c r="K49" t="n">
-        <v>2.1</v>
-      </c>
       <c r="L49" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M49" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N49" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O49" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P49" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q49" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="R49" t="n">
-        <v>1.8</v>
+        <v>1.93</v>
       </c>
       <c r="S49" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T49" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U49" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="V49" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="W49" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X49" t="n">
         <v>7.5</v>
       </c>
       <c r="Y49" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z49" t="n">
         <v>12</v>
       </c>
       <c r="AA49" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB49" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC49" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD49" t="n">
         <v>7.5</v>
       </c>
       <c r="AE49" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF49" t="n">
         <v>51</v>
       </c>
       <c r="AG49" t="n">
-        <v>900</v>
+        <v>301</v>
       </c>
       <c r="AH49" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI49" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ49" t="n">
         <v>15</v>
@@ -9355,13 +9343,13 @@
         <v>3.6</v>
       </c>
       <c r="AO49" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AP49" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ49" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR49" t="n">
         <v>51</v>
@@ -9370,22 +9358,22 @@
         <v>151</v>
       </c>
       <c r="AT49" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU49" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV49" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW49" t="n">
         <v>81</v>
       </c>
       <c r="AX49" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AY49" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ49" t="n">
         <v>34</v>
@@ -9397,7 +9385,7 @@
         <v>126</v>
       </c>
       <c r="BC49" t="n">
-        <v>400</v>
+        <v>251</v>
       </c>
       <c r="BD49" t="n">
         <v>81</v>
@@ -9406,7 +9394,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>rTPtA0XH</t>
+          <t>CvWwg4KF</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -9416,179 +9404,179 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>11:40</t>
+          <t>17:15</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>PORTUGAL - LIGA PORTUGAL</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Al Nassr</t>
+          <t>SC Farense</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Damac</t>
+          <t>Estrela</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.22</v>
+        <v>2.2</v>
       </c>
       <c r="H50" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I50" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J50" t="n">
+        <v>3</v>
+      </c>
+      <c r="K50" t="n">
+        <v>2</v>
+      </c>
+      <c r="L50" t="n">
+        <v>4</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N50" t="n">
+        <v>8</v>
+      </c>
+      <c r="O50" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P50" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R50" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S50" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T50" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U50" t="n">
+        <v>2</v>
+      </c>
+      <c r="V50" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="W50" t="n">
         <v>6.5</v>
       </c>
-      <c r="I50" t="n">
-        <v>9</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="K50" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="L50" t="n">
-        <v>8</v>
-      </c>
-      <c r="M50" t="n">
+      <c r="X50" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z50" t="n">
         <v>21</v>
       </c>
-      <c r="N50" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="O50" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P50" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="R50" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="S50" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="T50" t="n">
-        <v>4</v>
-      </c>
-      <c r="U50" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V50" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W50" t="n">
-        <v>10</v>
-      </c>
-      <c r="X50" t="n">
+      <c r="AA50" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC50" t="n">
         <v>7.5</v>
       </c>
-      <c r="Y50" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z50" t="n">
-        <v>8</v>
-      </c>
-      <c r="AA50" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB50" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC50" t="n">
-        <v>21</v>
-      </c>
       <c r="AD50" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="AE50" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AF50" t="n">
         <v>51</v>
       </c>
       <c r="AG50" t="n">
-        <v>700</v>
+        <v>401</v>
       </c>
       <c r="AH50" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL50" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO50" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP50" t="n">
         <v>26</v>
       </c>
-      <c r="AI50" t="n">
-        <v>51</v>
-      </c>
-      <c r="AJ50" t="n">
-        <v>26</v>
-      </c>
-      <c r="AK50" t="n">
+      <c r="AQ50" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR50" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS50" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT50" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU50" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV50" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW50" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX50" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY50" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ50" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA50" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB50" t="n">
         <v>101</v>
       </c>
-      <c r="AL50" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM50" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN50" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO50" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AP50" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ50" t="n">
-        <v>12</v>
-      </c>
-      <c r="AR50" t="n">
-        <v>34</v>
-      </c>
-      <c r="AS50" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT50" t="n">
-        <v>4</v>
-      </c>
-      <c r="AU50" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV50" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW50" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX50" t="n">
-        <v>11</v>
-      </c>
-      <c r="AY50" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ50" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA50" t="n">
-        <v>151</v>
-      </c>
-      <c r="BB50" t="n">
-        <v>151</v>
-      </c>
       <c r="BC50" t="n">
-        <v>500</v>
+        <v>251</v>
       </c>
       <c r="BD50" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>z3MYBM25</t>
+          <t>vueMHzpA</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -9598,170 +9586,170 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:00</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
+          <t>PORTUGAL - LIGA PORTUGAL 2</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Al Ahli SC</t>
+          <t>Academico Viseu</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Al Wehda</t>
+          <t>Leixoes</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1.22</v>
+        <v>2.3</v>
       </c>
       <c r="H51" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I51" t="n">
-        <v>9.5</v>
+        <v>3.1</v>
       </c>
       <c r="J51" t="n">
-        <v>1.62</v>
+        <v>3.2</v>
       </c>
       <c r="K51" t="n">
-        <v>2.75</v>
+        <v>1.95</v>
       </c>
       <c r="L51" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M51" t="n">
-        <v>1.02</v>
+        <v>1.1</v>
       </c>
       <c r="N51" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="O51" t="n">
-        <v>1.13</v>
+        <v>1.44</v>
       </c>
       <c r="P51" t="n">
-        <v>5.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q51" t="n">
-        <v>1.44</v>
+        <v>2.4</v>
       </c>
       <c r="R51" t="n">
-        <v>2.63</v>
+        <v>1.53</v>
       </c>
       <c r="S51" t="n">
-        <v>1.25</v>
+        <v>1.53</v>
       </c>
       <c r="T51" t="n">
-        <v>3.75</v>
+        <v>2.38</v>
       </c>
       <c r="U51" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V51" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W51" t="n">
-        <v>9.5</v>
+        <v>6.5</v>
       </c>
       <c r="X51" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="Y51" t="n">
         <v>10</v>
       </c>
       <c r="Z51" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH51" t="n">
         <v>8</v>
       </c>
-      <c r="AA51" t="n">
-        <v>11</v>
-      </c>
-      <c r="AB51" t="n">
+      <c r="AI51" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL51" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM51" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO51" t="n">
+        <v>15</v>
+      </c>
+      <c r="AP51" t="n">
         <v>26</v>
       </c>
-      <c r="AC51" t="n">
-        <v>19</v>
-      </c>
-      <c r="AD51" t="n">
-        <v>12</v>
-      </c>
-      <c r="AE51" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF51" t="n">
+      <c r="AQ51" t="n">
         <v>51</v>
       </c>
-      <c r="AG51" t="n">
-        <v>700</v>
-      </c>
-      <c r="AH51" t="n">
-        <v>29</v>
-      </c>
-      <c r="AI51" t="n">
-        <v>51</v>
-      </c>
-      <c r="AJ51" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK51" t="n">
-        <v>126</v>
-      </c>
-      <c r="AL51" t="n">
+      <c r="AR51" t="n">
+        <v>81</v>
+      </c>
+      <c r="AS51" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT51" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU51" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV51" t="n">
         <v>67</v>
-      </c>
-      <c r="AM51" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN51" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO51" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AP51" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ51" t="n">
-        <v>13</v>
-      </c>
-      <c r="AR51" t="n">
-        <v>34</v>
-      </c>
-      <c r="AS51" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT51" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AU51" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV51" t="n">
-        <v>51</v>
       </c>
       <c r="AW51" t="n">
         <v>81</v>
       </c>
       <c r="AX51" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AY51" t="n">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="AZ51" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="BA51" t="n">
-        <v>151</v>
+        <v>67</v>
       </c>
       <c r="BB51" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="BC51" t="n">
-        <v>500</v>
+        <v>251</v>
       </c>
       <c r="BD51" t="n">
         <v>81</v>
@@ -9770,7 +9758,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>zgRmmLkg</t>
+          <t>UPa7e1IO</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -9780,175 +9768,179 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>11:25</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Novi Pazar</t>
+          <t>Al Qadisiya</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Vojvodina</t>
+          <t>Al Khaleej</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>3.45</v>
+        <v>1.65</v>
       </c>
       <c r="H52" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="I52" t="n">
-        <v>1.91</v>
+        <v>4.5</v>
       </c>
       <c r="J52" t="n">
-        <v>3.95</v>
+        <v>2.25</v>
       </c>
       <c r="K52" t="n">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="L52" t="n">
-        <v>2.52</v>
+        <v>5</v>
       </c>
       <c r="M52" t="n">
         <v>1.05</v>
       </c>
       <c r="N52" t="n">
-        <v>7.7</v>
+        <v>8.5</v>
       </c>
       <c r="O52" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="P52" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.8</v>
+        <v>1.98</v>
       </c>
       <c r="R52" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="S52" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="T52" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="U52" t="n">
-        <v>1.72</v>
+        <v>2</v>
       </c>
       <c r="V52" t="n">
-        <v>2.02</v>
+        <v>1.73</v>
       </c>
       <c r="W52" t="n">
-        <v>11.25</v>
+        <v>6.5</v>
       </c>
       <c r="X52" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE52" t="n">
         <v>19</v>
       </c>
-      <c r="Y52" t="n">
+      <c r="AF52" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH52" t="n">
         <v>12</v>
       </c>
-      <c r="Z52" t="n">
-        <v>50</v>
-      </c>
-      <c r="AA52" t="n">
-        <v>30</v>
-      </c>
-      <c r="AB52" t="n">
-        <v>35</v>
-      </c>
-      <c r="AC52" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AD52" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AE52" t="n">
-        <v>14</v>
-      </c>
-      <c r="AF52" t="n">
-        <v>60</v>
-      </c>
-      <c r="AG52" t="n">
-        <v>450</v>
-      </c>
-      <c r="AH52" t="n">
-        <v>7.9</v>
-      </c>
       <c r="AI52" t="n">
-        <v>9.5</v>
+        <v>23</v>
       </c>
       <c r="AJ52" t="n">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="AK52" t="n">
-        <v>16.5</v>
+        <v>51</v>
       </c>
       <c r="AL52" t="n">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="AM52" t="n">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="AN52" t="n">
-        <v>5.4</v>
+        <v>3.6</v>
       </c>
       <c r="AO52" t="n">
-        <v>19.5</v>
+        <v>9</v>
       </c>
       <c r="AP52" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ52" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR52" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS52" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT52" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU52" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV52" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW52" t="n">
+        <v>81</v>
+      </c>
+      <c r="AX52" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AY52" t="n">
         <v>26</v>
       </c>
-      <c r="AQ52" t="n">
-        <v>100</v>
-      </c>
-      <c r="AR52" t="n">
-        <v>120</v>
-      </c>
-      <c r="AS52" t="n">
-        <v>350</v>
-      </c>
-      <c r="AT52" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AU52" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AV52" t="n">
-        <v>65</v>
-      </c>
-      <c r="AW52" t="inlineStr"/>
-      <c r="AX52" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="AY52" t="n">
-        <v>9.75</v>
-      </c>
       <c r="AZ52" t="n">
-        <v>18.5</v>
+        <v>34</v>
       </c>
       <c r="BA52" t="n">
-        <v>35</v>
+        <v>101</v>
       </c>
       <c r="BB52" t="n">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="BC52" t="n">
-        <v>250</v>
-      </c>
-      <c r="BD52" t="inlineStr"/>
+        <v>400</v>
+      </c>
+      <c r="BD52" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>tfYvksLt</t>
+          <t>rTPtA0XH</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -9958,175 +9950,179 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>11:40</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Cukaricki</t>
+          <t>Al Nassr</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Sp. Subotica</t>
+          <t>Damac</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="H53" t="n">
-        <v>3.4</v>
+        <v>6.5</v>
       </c>
       <c r="I53" t="n">
-        <v>4.6</v>
+        <v>9</v>
       </c>
       <c r="J53" t="n">
-        <v>2.3</v>
+        <v>1.57</v>
       </c>
       <c r="K53" t="n">
-        <v>2.1</v>
+        <v>2.88</v>
       </c>
       <c r="L53" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="M53" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="N53" t="n">
-        <v>6.7</v>
+        <v>13</v>
       </c>
       <c r="O53" t="n">
-        <v>1.36</v>
+        <v>1.11</v>
       </c>
       <c r="P53" t="n">
-        <v>2.9</v>
+        <v>6</v>
       </c>
       <c r="Q53" t="n">
-        <v>2.05</v>
+        <v>1.4</v>
       </c>
       <c r="R53" t="n">
-        <v>1.7</v>
+        <v>2.75</v>
       </c>
       <c r="S53" t="n">
-        <v>1.44</v>
+        <v>1.22</v>
       </c>
       <c r="T53" t="n">
-        <v>2.62</v>
+        <v>4</v>
       </c>
       <c r="U53" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="V53" t="n">
-        <v>1.72</v>
+        <v>1.83</v>
       </c>
       <c r="W53" t="n">
-        <v>5.9</v>
+        <v>10</v>
       </c>
       <c r="X53" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="Y53" t="n">
-        <v>8.25</v>
+        <v>10</v>
       </c>
       <c r="Z53" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD53" t="n">
         <v>13</v>
       </c>
-      <c r="AA53" t="n">
+      <c r="AE53" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>700</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>51</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK53" t="n">
+        <v>101</v>
+      </c>
+      <c r="AL53" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM53" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN53" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO53" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AP53" t="n">
         <v>15</v>
       </c>
-      <c r="AB53" t="n">
-        <v>32</v>
-      </c>
-      <c r="AC53" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AD53" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AE53" t="n">
-        <v>18</v>
-      </c>
-      <c r="AF53" t="n">
-        <v>100</v>
-      </c>
-      <c r="AG53" t="n">
-        <v>900</v>
-      </c>
-      <c r="AH53" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="AI53" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ53" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AK53" t="n">
-        <v>80</v>
-      </c>
-      <c r="AL53" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM53" t="n">
-        <v>60</v>
-      </c>
-      <c r="AN53" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="AO53" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP53" t="n">
-        <v>19.5</v>
-      </c>
       <c r="AQ53" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="AR53" t="n">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="AS53" t="n">
-        <v>300</v>
+        <v>101</v>
       </c>
       <c r="AT53" t="n">
-        <v>2.62</v>
+        <v>4</v>
       </c>
       <c r="AU53" t="n">
-        <v>7.9</v>
+        <v>9.5</v>
       </c>
       <c r="AV53" t="n">
-        <v>80</v>
-      </c>
-      <c r="AW53" t="inlineStr"/>
+        <v>51</v>
+      </c>
+      <c r="AW53" t="n">
+        <v>81</v>
+      </c>
       <c r="AX53" t="n">
-        <v>6.3</v>
+        <v>11</v>
       </c>
       <c r="AY53" t="n">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="AZ53" t="n">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="BA53" t="n">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="BB53" t="n">
-        <v>200</v>
+        <v>151</v>
       </c>
       <c r="BC53" t="n">
         <v>500</v>
       </c>
-      <c r="BD53" t="inlineStr"/>
+      <c r="BD53" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>86PeoaK5</t>
+          <t>z3MYBM25</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -10136,175 +10132,179 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>SERBIA - SUPER LIGA</t>
+          <t>SAUDI ARABIA - SAUDI PROFESSIONAL LEAGUE</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Tekstilac Odzaci</t>
+          <t>Al Ahli SC</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>OFK Beograd</t>
+          <t>Al Wehda</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>3.3</v>
+        <v>1.22</v>
       </c>
       <c r="H54" t="n">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="I54" t="n">
-        <v>2.05</v>
+        <v>9.5</v>
       </c>
       <c r="J54" t="n">
-        <v>3.9</v>
+        <v>1.62</v>
       </c>
       <c r="K54" t="n">
-        <v>2.07</v>
+        <v>2.75</v>
       </c>
       <c r="L54" t="n">
-        <v>2.7</v>
+        <v>8</v>
       </c>
       <c r="M54" t="n">
-        <v>1.08</v>
+        <v>1.02</v>
       </c>
       <c r="N54" t="n">
-        <v>6.6</v>
+        <v>12</v>
       </c>
       <c r="O54" t="n">
-        <v>1.38</v>
+        <v>1.13</v>
       </c>
       <c r="P54" t="n">
-        <v>2.8</v>
+        <v>5.5</v>
       </c>
       <c r="Q54" t="n">
-        <v>2.12</v>
+        <v>1.44</v>
       </c>
       <c r="R54" t="n">
-        <v>1.65</v>
+        <v>2.63</v>
       </c>
       <c r="S54" t="n">
-        <v>1.44</v>
+        <v>1.25</v>
       </c>
       <c r="T54" t="n">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="U54" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="V54" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="W54" t="n">
-        <v>8.75</v>
+        <v>9.5</v>
       </c>
       <c r="X54" t="n">
-        <v>16.5</v>
+        <v>7</v>
       </c>
       <c r="Y54" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD54" t="n">
         <v>12</v>
       </c>
-      <c r="Z54" t="n">
-        <v>45</v>
-      </c>
-      <c r="AA54" t="n">
-        <v>32</v>
-      </c>
-      <c r="AB54" t="n">
-        <v>45</v>
-      </c>
-      <c r="AC54" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AD54" t="n">
-        <v>6.4</v>
-      </c>
       <c r="AE54" t="n">
-        <v>16.5</v>
+        <v>23</v>
       </c>
       <c r="AF54" t="n">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="AG54" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AH54" t="n">
-        <v>6.5</v>
+        <v>29</v>
       </c>
       <c r="AI54" t="n">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="AJ54" t="n">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="AK54" t="n">
-        <v>18.5</v>
+        <v>126</v>
       </c>
       <c r="AL54" t="n">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="AM54" t="n">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="AN54" t="n">
-        <v>5.1</v>
+        <v>3.4</v>
       </c>
       <c r="AO54" t="n">
-        <v>19</v>
+        <v>5.5</v>
       </c>
       <c r="AP54" t="n">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="AQ54" t="n">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="AR54" t="n">
-        <v>150</v>
+        <v>34</v>
       </c>
       <c r="AS54" t="n">
-        <v>400</v>
+        <v>101</v>
       </c>
       <c r="AT54" t="n">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="AU54" t="n">
-        <v>7.6</v>
+        <v>9.5</v>
       </c>
       <c r="AV54" t="n">
-        <v>80</v>
-      </c>
-      <c r="AW54" t="inlineStr"/>
+        <v>51</v>
+      </c>
+      <c r="AW54" t="n">
+        <v>81</v>
+      </c>
       <c r="AX54" t="n">
-        <v>3.85</v>
+        <v>11</v>
       </c>
       <c r="AY54" t="n">
-        <v>10.75</v>
+        <v>41</v>
       </c>
       <c r="AZ54" t="n">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="BA54" t="n">
-        <v>45</v>
+        <v>151</v>
       </c>
       <c r="BB54" t="n">
-        <v>90</v>
+        <v>151</v>
       </c>
       <c r="BC54" t="n">
-        <v>300</v>
-      </c>
-      <c r="BD54" t="inlineStr"/>
+        <v>500</v>
+      </c>
+      <c r="BD54" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>0z3ucZWr</t>
+          <t>zgRmmLkg</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -10314,110 +10314,110 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>SLOVENIA - PRVA LIGA</t>
+          <t>SERBIA - SUPER LIGA</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Domzale</t>
+          <t>Novi Pazar</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Bravo</t>
+          <t>Vojvodina</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>4.45</v>
+        <v>3.6</v>
       </c>
       <c r="H55" t="n">
-        <v>3.15</v>
+        <v>3.6</v>
       </c>
       <c r="I55" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="J55" t="n">
-        <v>4.9</v>
+        <v>4.1</v>
       </c>
       <c r="K55" t="n">
-        <v>2.02</v>
+        <v>2.18</v>
       </c>
       <c r="L55" t="n">
-        <v>2.42</v>
+        <v>2.45</v>
       </c>
       <c r="M55" t="n">
-        <v>1.09</v>
+        <v>1.05</v>
       </c>
       <c r="N55" t="n">
-        <v>6.1</v>
+        <v>7.8</v>
       </c>
       <c r="O55" t="n">
-        <v>1.4</v>
+        <v>1.26</v>
       </c>
       <c r="P55" t="n">
-        <v>2.72</v>
+        <v>3.45</v>
       </c>
       <c r="Q55" t="n">
-        <v>2.18</v>
+        <v>1.78</v>
       </c>
       <c r="R55" t="n">
-        <v>1.62</v>
+        <v>1.93</v>
       </c>
       <c r="S55" t="n">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="T55" t="n">
-        <v>2.55</v>
+        <v>2.82</v>
       </c>
       <c r="U55" t="n">
-        <v>1.95</v>
+        <v>1.72</v>
       </c>
       <c r="V55" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="W55" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="X55" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="Y55" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="Z55" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="AA55" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="AB55" t="n">
+        <v>37</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AF55" t="n">
         <v>60</v>
       </c>
-      <c r="AC55" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AD55" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AE55" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AF55" t="n">
-        <v>90</v>
-      </c>
       <c r="AG55" t="n">
-        <v>900</v>
+        <v>450</v>
       </c>
       <c r="AH55" t="n">
-        <v>6</v>
+        <v>7.8</v>
       </c>
       <c r="AI55" t="n">
-        <v>8.25</v>
+        <v>9.25</v>
       </c>
       <c r="AJ55" t="n">
         <v>8.25</v>
@@ -10426,53 +10426,53 @@
         <v>15.5</v>
       </c>
       <c r="AL55" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AM55" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AN55" t="n">
-        <v>6.2</v>
+        <v>5.6</v>
       </c>
       <c r="AO55" t="n">
+        <v>20</v>
+      </c>
+      <c r="AP55" t="n">
         <v>27</v>
       </c>
-      <c r="AP55" t="n">
-        <v>35</v>
-      </c>
       <c r="AQ55" t="n">
-        <v>175</v>
+        <v>100</v>
       </c>
       <c r="AR55" t="n">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="AS55" t="n">
-        <v>500</v>
+        <v>350</v>
       </c>
       <c r="AT55" t="n">
-        <v>2.55</v>
+        <v>2.82</v>
       </c>
       <c r="AU55" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AV55" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AW55" t="inlineStr"/>
       <c r="AX55" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="AY55" t="n">
         <v>9.25</v>
       </c>
       <c r="AZ55" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="BA55" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="BB55" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="BC55" t="n">
         <v>250</v>
@@ -10482,7 +10482,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>YDONT6f2</t>
+          <t>tfYvksLt</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -10492,177 +10492,175 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>SERBIA - SUPER LIGA</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>R. Oviedo</t>
+          <t>Cukaricki</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Huesca</t>
+          <t>Sp. Subotica</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H56" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="I56" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="J56" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K56" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="L56" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N56" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="O56" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P56" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="R56" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="S56" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="T56" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="U56" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V56" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="W56" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="X56" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>14</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>90</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>800</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>28</v>
+      </c>
+      <c r="AJ56" t="n">
+        <v>16</v>
+      </c>
+      <c r="AK56" t="n">
+        <v>90</v>
+      </c>
+      <c r="AL56" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM56" t="n">
+        <v>60</v>
+      </c>
+      <c r="AN56" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AO56" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AP56" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AQ56" t="n">
+        <v>28</v>
+      </c>
+      <c r="AR56" t="n">
+        <v>65</v>
+      </c>
+      <c r="AS56" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT56" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AU56" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AV56" t="n">
+        <v>75</v>
+      </c>
+      <c r="AW56" t="inlineStr"/>
+      <c r="AX56" t="n">
         <v>6.5</v>
       </c>
-      <c r="J56" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="K56" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L56" t="n">
-        <v>7</v>
-      </c>
-      <c r="M56" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N56" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O56" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P56" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="R56" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="S56" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T56" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U56" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="V56" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="W56" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="X56" t="n">
-        <v>6</v>
-      </c>
-      <c r="Y56" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z56" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA56" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB56" t="n">
-        <v>41</v>
-      </c>
-      <c r="AC56" t="n">
-        <v>6</v>
-      </c>
-      <c r="AD56" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE56" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF56" t="n">
-        <v>101</v>
-      </c>
-      <c r="AG56" t="inlineStr"/>
-      <c r="AH56" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI56" t="n">
+      <c r="AY56" t="n">
         <v>29</v>
       </c>
-      <c r="AJ56" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK56" t="n">
-        <v>81</v>
-      </c>
-      <c r="AL56" t="n">
-        <v>67</v>
-      </c>
-      <c r="AM56" t="n">
-        <v>81</v>
-      </c>
-      <c r="AN56" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AO56" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP56" t="n">
-        <v>29</v>
-      </c>
-      <c r="AQ56" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR56" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS56" t="n">
-        <v>301</v>
-      </c>
-      <c r="AT56" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU56" t="n">
-        <v>11</v>
-      </c>
-      <c r="AV56" t="n">
-        <v>101</v>
-      </c>
-      <c r="AW56" t="n">
-        <v>81</v>
-      </c>
-      <c r="AX56" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AY56" t="n">
-        <v>41</v>
-      </c>
       <c r="AZ56" t="n">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="BA56" t="n">
-        <v>201</v>
+        <v>175</v>
       </c>
       <c r="BB56" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="BC56" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD56" t="n">
-        <v>81</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="BD56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>bsVmglQj</t>
+          <t>86PeoaK5</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -10672,175 +10670,175 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
+          <t>SERBIA - SUPER LIGA</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Lausanne Ouchy</t>
+          <t>Tekstilac Odzaci</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Xamax</t>
+          <t>OFK Beograd</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1.91</v>
+        <v>3.35</v>
       </c>
       <c r="H57" t="n">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="I57" t="n">
-        <v>3.45</v>
+        <v>2.02</v>
       </c>
       <c r="J57" t="n">
-        <v>2.45</v>
+        <v>3.95</v>
       </c>
       <c r="K57" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L57" t="n">
-        <v>3.75</v>
+        <v>2.65</v>
       </c>
       <c r="M57" t="n">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="N57" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="O57" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P57" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R57" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S57" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T57" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="U57" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="V57" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="W57" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="X57" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>45</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>45</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>90</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>800</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AI57" t="n">
         <v>9</v>
       </c>
-      <c r="O57" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P57" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="Q57" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="R57" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="S57" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="T57" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="U57" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="V57" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="W57" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="X57" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="Y57" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z57" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA57" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AB57" t="n">
-        <v>20</v>
-      </c>
-      <c r="AC57" t="n">
+      <c r="AJ57" t="n">
         <v>9</v>
       </c>
-      <c r="AD57" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE57" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AF57" t="n">
-        <v>40</v>
-      </c>
-      <c r="AG57" t="n">
-        <v>250</v>
-      </c>
-      <c r="AH57" t="n">
-        <v>14</v>
-      </c>
-      <c r="AI57" t="n">
-        <v>22</v>
-      </c>
-      <c r="AJ57" t="n">
-        <v>11.75</v>
-      </c>
       <c r="AK57" t="n">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="AL57" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="AM57" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AN57" t="n">
-        <v>4.05</v>
+        <v>5.2</v>
       </c>
       <c r="AO57" t="n">
-        <v>9.5</v>
+        <v>19</v>
       </c>
       <c r="AP57" t="n">
-        <v>15.5</v>
+        <v>28</v>
       </c>
       <c r="AQ57" t="n">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="AR57" t="n">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="AS57" t="n">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="AT57" t="n">
-        <v>3.2</v>
+        <v>2.62</v>
       </c>
       <c r="AU57" t="n">
-        <v>6.6</v>
+        <v>7.6</v>
       </c>
       <c r="AV57" t="n">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="AW57" t="inlineStr"/>
       <c r="AX57" t="n">
-        <v>5.7</v>
+        <v>3.85</v>
       </c>
       <c r="AY57" t="n">
-        <v>18</v>
+        <v>10.5</v>
       </c>
       <c r="AZ57" t="n">
         <v>21</v>
       </c>
       <c r="BA57" t="n">
+        <v>40</v>
+      </c>
+      <c r="BB57" t="n">
         <v>80</v>
       </c>
-      <c r="BB57" t="n">
-        <v>100</v>
-      </c>
       <c r="BC57" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="BD57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>08ttKHU6</t>
+          <t>0z3ucZWr</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -10850,175 +10848,175 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
+          <t>SLOVENIA - PRVA LIGA</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Vaduz</t>
+          <t>Domzale</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Schaffhausen</t>
+          <t>Bravo</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1.98</v>
+        <v>4.55</v>
       </c>
       <c r="H58" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="I58" t="n">
-        <v>3.35</v>
+        <v>1.83</v>
       </c>
       <c r="J58" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="K58" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="L58" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N58" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="O58" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P58" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R58" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S58" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="T58" t="n">
         <v>2.55</v>
       </c>
-      <c r="K58" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L58" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="M58" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N58" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="O58" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="P58" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q58" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R58" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S58" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="T58" t="n">
-        <v>3.1</v>
-      </c>
       <c r="U58" t="n">
-        <v>1.55</v>
+        <v>1.95</v>
       </c>
       <c r="V58" t="n">
-        <v>2.3</v>
+        <v>1.75</v>
       </c>
       <c r="W58" t="n">
-        <v>9.25</v>
+        <v>10.5</v>
       </c>
       <c r="X58" t="n">
-        <v>10.75</v>
+        <v>25</v>
       </c>
       <c r="Y58" t="n">
-        <v>8.5</v>
+        <v>15</v>
       </c>
       <c r="Z58" t="n">
-        <v>18.5</v>
+        <v>80</v>
       </c>
       <c r="AA58" t="n">
-        <v>14.5</v>
+        <v>50</v>
       </c>
       <c r="AB58" t="n">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="AC58" t="n">
-        <v>8.5</v>
+        <v>6.2</v>
       </c>
       <c r="AD58" t="n">
-        <v>7.1</v>
+        <v>6.2</v>
       </c>
       <c r="AE58" t="n">
-        <v>12</v>
+        <v>16.5</v>
       </c>
       <c r="AF58" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="AG58" t="n">
-        <v>250</v>
+        <v>900</v>
       </c>
       <c r="AH58" t="n">
-        <v>13.5</v>
+        <v>5.9</v>
       </c>
       <c r="AI58" t="n">
-        <v>21</v>
+        <v>7.9</v>
       </c>
       <c r="AJ58" t="n">
-        <v>11.5</v>
+        <v>8.25</v>
       </c>
       <c r="AK58" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="AL58" t="n">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="AM58" t="n">
+        <v>32</v>
+      </c>
+      <c r="AN58" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AO58" t="n">
         <v>27</v>
       </c>
-      <c r="AN58" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="AO58" t="n">
-        <v>10</v>
-      </c>
       <c r="AP58" t="n">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="AQ58" t="n">
-        <v>35</v>
+        <v>175</v>
       </c>
       <c r="AR58" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="AS58" t="n">
-        <v>175</v>
+        <v>500</v>
       </c>
       <c r="AT58" t="n">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="AU58" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AV58" t="n">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="AW58" t="inlineStr"/>
       <c r="AX58" t="n">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="AY58" t="n">
-        <v>17.5</v>
+        <v>9.25</v>
       </c>
       <c r="AZ58" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BA58" t="n">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="BB58" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="BC58" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BD58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>vV3csVm3</t>
+          <t>YDONT6f2</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -11028,175 +11026,177 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>THAILAND - THAI LEAGUE 1</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Prachuap</t>
+          <t>R. Oviedo</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Nakhon Ratchasima FC</t>
+          <t>Huesca</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.47</v>
+        <v>1.67</v>
       </c>
       <c r="H59" t="n">
-        <v>4.15</v>
+        <v>3.4</v>
       </c>
       <c r="I59" t="n">
-        <v>6.3</v>
+        <v>6.25</v>
       </c>
       <c r="J59" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="K59" t="n">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="L59" t="n">
-        <v>6.1</v>
+        <v>7</v>
       </c>
       <c r="M59" t="n">
-        <v>1.05</v>
+        <v>1.13</v>
       </c>
       <c r="N59" t="n">
-        <v>7.7</v>
+        <v>6</v>
       </c>
       <c r="O59" t="n">
-        <v>1.27</v>
+        <v>1.53</v>
       </c>
       <c r="P59" t="n">
-        <v>3.45</v>
+        <v>2.38</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.8</v>
+        <v>2.7</v>
       </c>
       <c r="R59" t="n">
-        <v>1.91</v>
+        <v>1.44</v>
       </c>
       <c r="S59" t="n">
-        <v>1.38</v>
+        <v>1.62</v>
       </c>
       <c r="T59" t="n">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="U59" t="n">
-        <v>1.95</v>
+        <v>2.63</v>
       </c>
       <c r="V59" t="n">
-        <v>1.75</v>
+        <v>1.44</v>
       </c>
       <c r="W59" t="n">
-        <v>6.6</v>
+        <v>4.75</v>
       </c>
       <c r="X59" t="n">
-        <v>6.7</v>
+        <v>6</v>
       </c>
       <c r="Y59" t="n">
-        <v>8.25</v>
+        <v>9.5</v>
       </c>
       <c r="Z59" t="n">
-        <v>9.75</v>
+        <v>12</v>
       </c>
       <c r="AA59" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AB59" t="n">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="AC59" t="n">
-        <v>7.7</v>
+        <v>6</v>
       </c>
       <c r="AD59" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AE59" t="n">
-        <v>19.5</v>
+        <v>26</v>
       </c>
       <c r="AF59" t="n">
-        <v>100</v>
-      </c>
-      <c r="AG59" t="n">
-        <v>800</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="AG59" t="inlineStr"/>
       <c r="AH59" t="n">
-        <v>15.5</v>
+        <v>11</v>
       </c>
       <c r="AI59" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="AJ59" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK59" t="n">
-        <v>150</v>
+        <v>67</v>
       </c>
       <c r="AL59" t="n">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="AM59" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="AN59" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AO59" t="n">
-        <v>6.9</v>
+        <v>9.5</v>
       </c>
       <c r="AP59" t="n">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="AQ59" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AR59" t="n">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="AS59" t="n">
-        <v>250</v>
+        <v>301</v>
       </c>
       <c r="AT59" t="n">
-        <v>2.8</v>
+        <v>2.2</v>
       </c>
       <c r="AU59" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="AV59" t="n">
-        <v>90</v>
-      </c>
-      <c r="AW59" t="inlineStr"/>
+        <v>101</v>
+      </c>
+      <c r="AW59" t="n">
+        <v>81</v>
+      </c>
       <c r="AX59" t="n">
         <v>7.5</v>
       </c>
       <c r="AY59" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="AZ59" t="n">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="BA59" t="n">
-        <v>250</v>
+        <v>151</v>
       </c>
       <c r="BB59" t="n">
-        <v>300</v>
+        <v>251</v>
       </c>
       <c r="BC59" t="n">
-        <v>500</v>
-      </c>
-      <c r="BD59" t="inlineStr"/>
+        <v>81</v>
+      </c>
+      <c r="BD59" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>lpmJoGW9</t>
+          <t>bsVmglQj</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -11206,179 +11206,175 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>Lausanne Ouchy</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Sivasspor</t>
+          <t>Xamax</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="H60" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="I60" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="J60" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="K60" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L60" t="n">
-        <v>4.33</v>
+        <v>3.9</v>
       </c>
       <c r="M60" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N60" t="n">
-        <v>11</v>
+        <v>8.75</v>
       </c>
       <c r="O60" t="n">
-        <v>1.29</v>
+        <v>1.19</v>
       </c>
       <c r="P60" t="n">
-        <v>3.5</v>
+        <v>4.15</v>
       </c>
       <c r="Q60" t="n">
-        <v>1.93</v>
+        <v>1.57</v>
       </c>
       <c r="R60" t="n">
-        <v>1.93</v>
+        <v>2.25</v>
       </c>
       <c r="S60" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="T60" t="n">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="U60" t="n">
-        <v>1.73</v>
+        <v>1.55</v>
       </c>
       <c r="V60" t="n">
-        <v>2</v>
+        <v>2.32</v>
       </c>
       <c r="W60" t="n">
-        <v>7.5</v>
+        <v>9.75</v>
       </c>
       <c r="X60" t="n">
-        <v>9.5</v>
+        <v>10.75</v>
       </c>
       <c r="Y60" t="n">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="Z60" t="n">
         <v>17</v>
       </c>
       <c r="AA60" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>250</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>14</v>
+      </c>
+      <c r="AI60" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL60" t="n">
+        <v>28</v>
+      </c>
+      <c r="AM60" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN60" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AO60" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AP60" t="n">
         <v>15</v>
       </c>
-      <c r="AB60" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC60" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD60" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE60" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF60" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG60" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH60" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI60" t="n">
+      <c r="AQ60" t="n">
+        <v>30</v>
+      </c>
+      <c r="AR60" t="n">
+        <v>50</v>
+      </c>
+      <c r="AS60" t="n">
+        <v>150</v>
+      </c>
+      <c r="AT60" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AU60" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AV60" t="n">
+        <v>45</v>
+      </c>
+      <c r="AW60" t="inlineStr"/>
+      <c r="AX60" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AY60" t="n">
         <v>19</v>
       </c>
-      <c r="AJ60" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK60" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL60" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM60" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN60" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO60" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP60" t="n">
+      <c r="AZ60" t="n">
         <v>21</v>
       </c>
-      <c r="AQ60" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR60" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS60" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT60" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU60" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV60" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW60" t="n">
-        <v>276</v>
-      </c>
-      <c r="AX60" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AY60" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ60" t="n">
-        <v>29</v>
-      </c>
       <c r="BA60" t="n">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="BB60" t="n">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="BC60" t="n">
-        <v>201</v>
-      </c>
-      <c r="BD60" t="n">
-        <v>301</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="BD60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>AiiFIAGP</t>
+          <t>08ttKHU6</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -11388,179 +11384,175 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>TURKEY - 1. LIG</t>
+          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Kocaelispor</t>
+          <t>Vaduz</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Adanaspor AS</t>
+          <t>Schaffhausen</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.3</v>
+        <v>1.98</v>
       </c>
       <c r="H61" t="n">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="I61" t="n">
-        <v>9</v>
+        <v>3.35</v>
       </c>
       <c r="J61" t="n">
-        <v>1.83</v>
+        <v>2.55</v>
       </c>
       <c r="K61" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="L61" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N61" t="n">
         <v>8.5</v>
       </c>
-      <c r="M61" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N61" t="n">
-        <v>11</v>
-      </c>
       <c r="O61" t="n">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="P61" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="R61" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="S61" t="n">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="T61" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="U61" t="n">
-        <v>2.2</v>
+        <v>1.55</v>
       </c>
       <c r="V61" t="n">
-        <v>1.62</v>
+        <v>2.3</v>
       </c>
       <c r="W61" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="X61" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>250</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AI61" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ61" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AK61" t="n">
+        <v>45</v>
+      </c>
+      <c r="AL61" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM61" t="n">
+        <v>27</v>
+      </c>
+      <c r="AN61" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AO61" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP61" t="n">
+        <v>16</v>
+      </c>
+      <c r="AQ61" t="n">
+        <v>35</v>
+      </c>
+      <c r="AR61" t="n">
+        <v>60</v>
+      </c>
+      <c r="AS61" t="n">
+        <v>175</v>
+      </c>
+      <c r="AT61" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AU61" t="n">
         <v>6.5</v>
       </c>
-      <c r="X61" t="n">
-        <v>6</v>
-      </c>
-      <c r="Y61" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z61" t="n">
-        <v>8</v>
-      </c>
-      <c r="AA61" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB61" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC61" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD61" t="n">
-        <v>9</v>
-      </c>
-      <c r="AE61" t="n">
-        <v>23</v>
-      </c>
-      <c r="AF61" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG61" t="n">
-        <v>800</v>
-      </c>
-      <c r="AH61" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI61" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ61" t="n">
-        <v>26</v>
-      </c>
-      <c r="AK61" t="n">
-        <v>101</v>
-      </c>
-      <c r="AL61" t="n">
-        <v>67</v>
-      </c>
-      <c r="AM61" t="n">
-        <v>67</v>
-      </c>
-      <c r="AN61" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AO61" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AP61" t="n">
+      <c r="AV61" t="n">
+        <v>45</v>
+      </c>
+      <c r="AW61" t="inlineStr"/>
+      <c r="AX61" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AY61" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AZ61" t="n">
         <v>21</v>
       </c>
-      <c r="AQ61" t="n">
-        <v>17</v>
-      </c>
-      <c r="AR61" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS61" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT61" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU61" t="n">
-        <v>10</v>
-      </c>
-      <c r="AV61" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW61" t="n">
-        <v>126</v>
-      </c>
-      <c r="AX61" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AY61" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ61" t="n">
-        <v>41</v>
-      </c>
       <c r="BA61" t="n">
-        <v>201</v>
+        <v>80</v>
       </c>
       <c r="BB61" t="n">
-        <v>251</v>
+        <v>90</v>
       </c>
       <c r="BC61" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD61" t="n">
-        <v>126</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="BD61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A5STH88b</t>
+          <t>vV3csVm3</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -11570,172 +11562,714 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>UKRAINE - PREMIER LEAGUE</t>
+          <t>THAILAND - THAI LEAGUE 1</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Vorskla Poltava</t>
+          <t>Prachuap</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Inhulets</t>
+          <t>Nakhon Ratchasima FC</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="H62" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I62" t="n">
-        <v>5.5</v>
+        <v>4.85</v>
       </c>
       <c r="J62" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K62" t="n">
         <v>2.12</v>
       </c>
-      <c r="K62" t="n">
-        <v>2.1</v>
-      </c>
       <c r="L62" t="n">
-        <v>5.7</v>
+        <v>5</v>
       </c>
       <c r="M62" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N62" t="n">
-        <v>9.4</v>
+        <v>7.3</v>
       </c>
       <c r="O62" t="n">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="P62" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q62" t="n">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="R62" t="n">
-        <v>1.65</v>
+        <v>1.83</v>
       </c>
       <c r="S62" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="T62" t="n">
-        <v>2.5</v>
+        <v>2.67</v>
       </c>
       <c r="U62" t="n">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="V62" t="n">
-        <v>1.65</v>
+        <v>1.87</v>
       </c>
       <c r="W62" t="n">
-        <v>5.8</v>
+        <v>6.6</v>
       </c>
       <c r="X62" t="n">
-        <v>6.8</v>
+        <v>7.6</v>
       </c>
       <c r="Y62" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="Z62" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AA62" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AB62" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AC62" t="n">
-        <v>8.25</v>
+        <v>7.3</v>
       </c>
       <c r="AD62" t="n">
         <v>7</v>
       </c>
       <c r="AE62" t="n">
-        <v>19.5</v>
+        <v>15.5</v>
       </c>
       <c r="AF62" t="n">
-        <v>110</v>
+        <v>75</v>
       </c>
       <c r="AG62" t="n">
-        <v>1000</v>
+        <v>600</v>
       </c>
       <c r="AH62" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AI62" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="AJ62" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK62" t="n">
+        <v>90</v>
+      </c>
+      <c r="AL62" t="n">
+        <v>45</v>
+      </c>
+      <c r="AM62" t="n">
+        <v>50</v>
+      </c>
+      <c r="AN62" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO62" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP62" t="n">
         <v>18.5</v>
       </c>
-      <c r="AK62" t="n">
-        <v>120</v>
-      </c>
-      <c r="AL62" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM62" t="n">
-        <v>75</v>
-      </c>
-      <c r="AN62" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="AO62" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AP62" t="n">
-        <v>18</v>
-      </c>
       <c r="AQ62" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AR62" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AS62" t="n">
         <v>250</v>
       </c>
       <c r="AT62" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AU62" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AV62" t="n">
+        <v>75</v>
+      </c>
+      <c r="AW62" t="inlineStr"/>
+      <c r="AX62" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AY62" t="n">
+        <v>27</v>
+      </c>
+      <c r="AZ62" t="n">
+        <v>32</v>
+      </c>
+      <c r="BA62" t="n">
+        <v>175</v>
+      </c>
+      <c r="BB62" t="n">
+        <v>200</v>
+      </c>
+      <c r="BC62" t="n">
+        <v>450</v>
+      </c>
+      <c r="BD62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>lpmJoGW9</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>29/11/2024</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>TURKEY - SUPER LIG</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Antalyaspor</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Sivasspor</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H63" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I63" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="J63" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K63" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L63" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M63" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N63" t="n">
+        <v>11</v>
+      </c>
+      <c r="O63" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P63" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R63" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S63" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T63" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U63" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V63" t="n">
+        <v>2</v>
+      </c>
+      <c r="W63" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X63" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH63" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI63" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ63" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK63" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL63" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM63" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN63" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO63" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP63" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ63" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR63" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS63" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT63" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU63" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV63" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW63" t="n">
+        <v>276</v>
+      </c>
+      <c r="AX63" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AY63" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ63" t="n">
+        <v>29</v>
+      </c>
+      <c r="BA63" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB63" t="n">
+        <v>81</v>
+      </c>
+      <c r="BC63" t="n">
+        <v>201</v>
+      </c>
+      <c r="BD63" t="n">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>AiiFIAGP</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>29/11/2024</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>14:00</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>TURKEY - 1. LIG</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Kocaelispor</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Adanaspor AS</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H64" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I64" t="n">
+        <v>9</v>
+      </c>
+      <c r="J64" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="K64" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="L64" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="M64" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N64" t="n">
+        <v>13</v>
+      </c>
+      <c r="O64" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P64" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R64" t="n">
+        <v>2</v>
+      </c>
+      <c r="S64" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T64" t="n">
+        <v>3</v>
+      </c>
+      <c r="U64" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V64" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W64" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X64" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE64" t="n">
+        <v>23</v>
+      </c>
+      <c r="AF64" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG64" t="n">
+        <v>800</v>
+      </c>
+      <c r="AH64" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI64" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ64" t="n">
+        <v>26</v>
+      </c>
+      <c r="AK64" t="n">
+        <v>101</v>
+      </c>
+      <c r="AL64" t="n">
+        <v>67</v>
+      </c>
+      <c r="AM64" t="n">
+        <v>67</v>
+      </c>
+      <c r="AN64" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AO64" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AP64" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ64" t="n">
+        <v>17</v>
+      </c>
+      <c r="AR64" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS64" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT64" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU64" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV64" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW64" t="n">
+        <v>126</v>
+      </c>
+      <c r="AX64" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AY64" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ64" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA64" t="n">
+        <v>201</v>
+      </c>
+      <c r="BB64" t="n">
+        <v>251</v>
+      </c>
+      <c r="BC64" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD64" t="n">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>A5STH88b</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>29/11/2024</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>UKRAINE - PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Vorskla Poltava</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Inhulets</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H65" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I65" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="K65" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L65" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="M65" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N65" t="n">
+        <v>9.15</v>
+      </c>
+      <c r="O65" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P65" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R65" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S65" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="T65" t="n">
         <v>2.47</v>
       </c>
-      <c r="AU62" t="n">
+      <c r="U65" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="V65" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W65" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X65" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>35</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AE65" t="n">
+        <v>20</v>
+      </c>
+      <c r="AF65" t="n">
+        <v>120</v>
+      </c>
+      <c r="AG65" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH65" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI65" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ65" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK65" t="n">
+        <v>120</v>
+      </c>
+      <c r="AL65" t="n">
+        <v>75</v>
+      </c>
+      <c r="AM65" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN65" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AO65" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AP65" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AQ65" t="n">
+        <v>25</v>
+      </c>
+      <c r="AR65" t="n">
+        <v>60</v>
+      </c>
+      <c r="AS65" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT65" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AU65" t="n">
         <v>8</v>
       </c>
-      <c r="AV62" t="n">
+      <c r="AV65" t="n">
         <v>80</v>
       </c>
-      <c r="AW62" t="n">
+      <c r="AW65" t="n">
         <v>81</v>
       </c>
-      <c r="AX62" t="n">
+      <c r="AX65" t="n">
         <v>7</v>
       </c>
-      <c r="AY62" t="n">
+      <c r="AY65" t="n">
         <v>35</v>
       </c>
-      <c r="AZ62" t="n">
+      <c r="AZ65" t="n">
         <v>40</v>
       </c>
-      <c r="BA62" t="n">
+      <c r="BA65" t="n">
         <v>250</v>
       </c>
-      <c r="BB62" t="n">
+      <c r="BB65" t="n">
         <v>300</v>
       </c>
-      <c r="BC62" t="n">
+      <c r="BC65" t="n">
         <v>500</v>
       </c>
-      <c r="BD62" t="n">
+      <c r="BD65" t="n">
         <v>81</v>
       </c>
     </row>
